--- a/2_NLP/Export/ner_done.xlsx
+++ b/2_NLP/Export/ner_done.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="468">
   <si>
     <t>link</t>
   </si>
@@ -415,6 +415,27 @@
     <t>https://shopee.tw/波妮小舖♥️-Lanvin-浪凡-卡布里風情-女性淡香水-90ml-Tester-i.298950974.3784819712?sp_atk=f3dfb368-83f4-48b8-a205-732f17889c0c&amp;xptdk=f3dfb368-83f4-48b8-a205-732f17889c0c</t>
   </si>
   <si>
+    <t>https://shopee.tw/🔥現貨🔥ANNA-SUI-Secret-Wish-Fairy-Dance-漫舞精靈女性淡香水-50m隨貨附發票-夢鹿-i.74574358.6944020205?sp_atk=9f2ffcae-2372-4570-bd44-ee596fac4435&amp;xptdk=9f2ffcae-2372-4570-bd44-ee596fac4435</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/試香♫-ANNA-SUI安娜蘇-安娜花園女性淡香水-1ml-5ml-10ml-i.74996676.11352539433?sp_atk=99eaab93-58c7-47fd-8cc4-d0dfbd3559c8&amp;xptdk=99eaab93-58c7-47fd-8cc4-d0dfbd3559c8</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/試香♡-ANNA-SUI安娜蘇-粉戀夢境女性淡香水-1ml-5ml-10ml-i.74996676.1295575785?sp_atk=59f54957-ee2d-4697-b5e3-2eb506163165&amp;xptdk=59f54957-ee2d-4697-b5e3-2eb506163165</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/🔥現貨🔥Chloe-Rose-Tangerine-沁漾玫瑰女性淡香水-針管-試管香水-1.2ml-隨貨附發票-夢鹿-i.74574358.8614318713?sp_atk=7c36b6a5-3cd6-426a-b178-afa1573bcbc2&amp;xptdk=7c36b6a5-3cd6-426a-b178-afa1573bcbc2</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/波妮香水♥-Anna-Sui-Secret-Wish-安娜蘇-許願精靈-女性淡香水-4ml-小香-i.81930378.1691971351?sp_atk=464bcb5b-399a-4daf-af30-f6845776f4f4&amp;xptdk=464bcb5b-399a-4daf-af30-f6845776f4f4</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【艾莉❤美妝小舖】Anna-Sui-SKY-綺幻飛行女性淡香水-30-50-75-ml-i.2298919.9506520024?sp_atk=3d1196dd-d662-4fa6-8988-f0c72e206613&amp;xptdk=3d1196dd-d662-4fa6-8988-f0c72e206613</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【DreamShop】原廠Anna-Sui-Secret-Wish-安娜蘇許願精靈女性淡香水75ml(送香水噴式補充瓶)-i.17437894.7038041921?sp_atk=ee376184-27b2-4dfa-bf30-0ce97fcc6331&amp;xptdk=ee376184-27b2-4dfa-bf30-0ce97fcc6331</t>
+  </si>
+  <si>
     <t>✰YENGEE✰BVLGARI Omnia Pink Sapphire 寶格麗 粉晶 女性淡香水 5ml / 15ml$320已售出 20臺北市大同區找相似</t>
   </si>
   <si>
@@ -784,6 +805,27 @@
     <t>波妮小舖♥️ Lanvin 浪凡 卡布里風情 女性淡香水 90ml Tester$990新北市新店區找相似</t>
   </si>
   <si>
+    <t>🔥現貨🔥ANNA SUI Secret Wish Fairy Dance 漫舞精靈女性淡香水 50m隨貨附發票 夢鹿$880臺北市大安區找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選試香♫ ANNA SUI安娜蘇 安娜花園女性淡香水 1ml/5ml/10ml$69 - $199已售出 3臺中市北屯區找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選試香♡ ANNA SUI安娜蘇 粉戀夢境女性淡香水 1ml/5ml/10ml$40 - $199已售出 1臺中市北屯區找相似</t>
+  </si>
+  <si>
+    <t>🔥現貨🔥Chloe Rose Tangerine 沁漾玫瑰女性淡香水 針管/試管香水 1.2ml 隨貨附發票 夢鹿$99已售出 27臺北市大安區找相似</t>
+  </si>
+  <si>
+    <t>波妮香水♥ Anna Sui Secret Wish 安娜蘇 許願精靈 女性淡香水 4ml 小香$160已售出 119新北市新店區找相似</t>
+  </si>
+  <si>
+    <t>【艾莉❤美妝小舖】Anna Sui SKY 綺幻飛行女性淡香水 30/50/75 ml$1,100 - $1,300已售出 1臺北市中正區找相似</t>
+  </si>
+  <si>
+    <t>【DreamShop】原廠Anna Sui Secret Wish 安娜蘇許願精靈女性淡香水75ml(送香水噴式補充瓶)$1,690新北市板橋區找相似</t>
+  </si>
+  <si>
     <t>Bvlgari</t>
   </si>
   <si>
@@ -1021,7 +1063,7 @@
     <t>月亮女神</t>
   </si>
   <si>
-    <t>境男</t>
+    <t>境</t>
   </si>
   <si>
     <t>裸紗</t>
@@ -1244,6 +1286,27 @@
   </si>
   <si>
     <t>卡布里風情</t>
+  </si>
+  <si>
+    <t>漫舞精靈</t>
+  </si>
+  <si>
+    <t>安娜花園</t>
+  </si>
+  <si>
+    <t>粉戀夢境</t>
+  </si>
+  <si>
+    <t>沁漾玫瑰</t>
+  </si>
+  <si>
+    <t>女性淡香水</t>
+  </si>
+  <si>
+    <t>綺幻飛行</t>
+  </si>
+  <si>
+    <t>許願精靈</t>
   </si>
   <si>
     <t>LOVE MIMOSA</t>
@@ -1725,7 +1788,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J124"/>
+  <dimension ref="A1:J131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1768,19 +1831,19 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="I2" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J2" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1788,19 +1851,19 @@
         <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="I3" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J3" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1808,19 +1871,19 @@
         <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="I4" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J4" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1828,19 +1891,19 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
       <c r="I5" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J5" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1848,19 +1911,19 @@
         <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="I6" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J6" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1868,19 +1931,19 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="C7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>294</v>
+        <v>308</v>
       </c>
       <c r="I7" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J7" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1888,19 +1951,19 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>295</v>
+        <v>309</v>
       </c>
       <c r="I8" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J8" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1908,19 +1971,19 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C9" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E9" t="s">
-        <v>296</v>
+        <v>310</v>
       </c>
       <c r="I9" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J9" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1928,19 +1991,19 @@
         <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E10" t="s">
-        <v>297</v>
+        <v>311</v>
       </c>
       <c r="I10" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J10" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1948,19 +2011,19 @@
         <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C11" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E11" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="I11" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J11" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1968,19 +2031,19 @@
         <v>20</v>
       </c>
       <c r="B12" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="C12" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="I12" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J12" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1988,19 +2051,19 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C13" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E13" t="s">
-        <v>300</v>
+        <v>314</v>
       </c>
       <c r="I13" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J13" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2008,19 +2071,19 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="C14" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E14" t="s">
-        <v>301</v>
+        <v>315</v>
       </c>
       <c r="I14" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J14" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2028,19 +2091,19 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="C15" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E15" t="s">
-        <v>302</v>
+        <v>316</v>
       </c>
       <c r="I15" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="J15" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2048,19 +2111,19 @@
         <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="C16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="I16" t="s">
-        <v>259</v>
+        <v>273</v>
       </c>
       <c r="J16" t="s">
-        <v>417</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2068,19 +2131,19 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>318</v>
       </c>
       <c r="I17" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J17" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2088,19 +2151,19 @@
         <v>26</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C18" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E18" t="s">
-        <v>305</v>
+        <v>319</v>
       </c>
       <c r="I18" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J18" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2108,19 +2171,19 @@
         <v>27</v>
       </c>
       <c r="B19" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E19" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="I19" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J19" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2128,19 +2191,19 @@
         <v>28</v>
       </c>
       <c r="B20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C20" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E20" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="I20" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J20" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2148,19 +2211,19 @@
         <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C21" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="E21" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="I21" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
       <c r="J21" t="s">
-        <v>420</v>
+        <v>441</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2168,19 +2231,19 @@
         <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="I22" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J22" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2188,19 +2251,19 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="I23" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J23" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2208,19 +2271,19 @@
         <v>32</v>
       </c>
       <c r="B24" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E24" t="s">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="I24" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J24" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2228,19 +2291,19 @@
         <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="I25" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="J25" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2248,19 +2311,19 @@
         <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C26" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>313</v>
+        <v>327</v>
       </c>
       <c r="I26" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="J26" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2268,19 +2331,19 @@
         <v>35</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C27" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E27" t="s">
-        <v>314</v>
+        <v>328</v>
       </c>
       <c r="I27" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="J27" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2288,19 +2351,19 @@
         <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="C28" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>315</v>
+        <v>329</v>
       </c>
       <c r="I28" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="J28" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2308,19 +2371,19 @@
         <v>37</v>
       </c>
       <c r="B29" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="C29" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>316</v>
+        <v>330</v>
       </c>
       <c r="I29" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="J29" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2328,19 +2391,19 @@
         <v>38</v>
       </c>
       <c r="B30" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C30" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>317</v>
+        <v>331</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>280</v>
       </c>
       <c r="J30" t="s">
-        <v>424</v>
+        <v>445</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2348,19 +2411,19 @@
         <v>39</v>
       </c>
       <c r="B31" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="E31" t="s">
-        <v>318</v>
+        <v>332</v>
       </c>
       <c r="I31" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
       <c r="J31" t="s">
-        <v>425</v>
+        <v>446</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2368,19 +2431,19 @@
         <v>40</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="C32" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="E32" t="s">
-        <v>319</v>
+        <v>333</v>
       </c>
       <c r="I32" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="J32" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2388,19 +2451,19 @@
         <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="C33" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E33" t="s">
-        <v>320</v>
+        <v>334</v>
       </c>
       <c r="I33" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J33" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2408,19 +2471,19 @@
         <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E34" t="s">
-        <v>321</v>
+        <v>335</v>
       </c>
       <c r="I34" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J34" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2428,19 +2491,19 @@
         <v>43</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="C35" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E35" t="s">
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="I35" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2448,19 +2511,19 @@
         <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C36" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E36" t="s">
-        <v>323</v>
+        <v>337</v>
       </c>
       <c r="I36" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J36" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2468,19 +2531,19 @@
         <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="C37" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E37" t="s">
-        <v>324</v>
+        <v>338</v>
       </c>
       <c r="I37" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="J37" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2488,19 +2551,19 @@
         <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C38" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E38" t="s">
-        <v>325</v>
+        <v>339</v>
       </c>
       <c r="I38" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="J38" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2508,19 +2571,19 @@
         <v>47</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="C39" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E39" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="I39" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="J39" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2528,19 +2591,19 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C40" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="E40" t="s">
-        <v>327</v>
+        <v>341</v>
       </c>
       <c r="I40" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
       <c r="J40" t="s">
-        <v>428</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2548,19 +2611,19 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C41" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E41" t="s">
-        <v>328</v>
+        <v>342</v>
       </c>
       <c r="I41" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J41" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -2568,19 +2631,19 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="C42" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E42" t="s">
-        <v>329</v>
+        <v>343</v>
       </c>
       <c r="I42" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J42" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -2588,19 +2651,19 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="C43" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>330</v>
+        <v>344</v>
       </c>
       <c r="I43" t="s">
-        <v>271</v>
+        <v>285</v>
       </c>
       <c r="J43" t="s">
-        <v>429</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2608,19 +2671,19 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C44" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>345</v>
       </c>
       <c r="I44" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J44" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2628,19 +2691,19 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
       <c r="C45" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="E45" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
       <c r="I45" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J45" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2648,19 +2711,19 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C46" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="E46" t="s">
-        <v>333</v>
+        <v>347</v>
       </c>
       <c r="I46" t="s">
-        <v>272</v>
+        <v>286</v>
       </c>
       <c r="J46" t="s">
-        <v>430</v>
+        <v>451</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2668,19 +2731,19 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="C47" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="E47" t="s">
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="I47" t="s">
-        <v>273</v>
+        <v>287</v>
       </c>
       <c r="J47" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2688,19 +2751,19 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E48" t="s">
-        <v>335</v>
+        <v>349</v>
       </c>
       <c r="I48" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J48" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2708,19 +2771,19 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C49" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E49" t="s">
-        <v>336</v>
+        <v>350</v>
       </c>
       <c r="I49" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -2728,19 +2791,19 @@
         <v>58</v>
       </c>
       <c r="B50" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="I50" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J50" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2748,19 +2811,19 @@
         <v>59</v>
       </c>
       <c r="B51" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C51" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E51" t="s">
-        <v>338</v>
+        <v>352</v>
       </c>
       <c r="I51" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J51" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -2768,19 +2831,19 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C52" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="I52" t="s">
-        <v>263</v>
+        <v>277</v>
       </c>
       <c r="J52" t="s">
-        <v>421</v>
+        <v>442</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -2788,19 +2851,19 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="C53" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E53" t="s">
-        <v>340</v>
+        <v>354</v>
       </c>
       <c r="I53" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J53" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -2808,19 +2871,19 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="C54" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E54" t="s">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="I54" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -2828,19 +2891,19 @@
         <v>63</v>
       </c>
       <c r="B55" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
       <c r="C55" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="E55" t="s">
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="I55" t="s">
-        <v>269</v>
+        <v>283</v>
       </c>
       <c r="J55" t="s">
-        <v>427</v>
+        <v>448</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -2848,19 +2911,19 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C56" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E56" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="I56" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J56" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2868,19 +2931,19 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C57" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="E57" t="s">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="I57" t="s">
-        <v>257</v>
+        <v>271</v>
       </c>
       <c r="J57" t="s">
-        <v>415</v>
+        <v>436</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -2888,19 +2951,19 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="C58" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="I58" t="s">
-        <v>268</v>
+        <v>282</v>
       </c>
       <c r="J58" t="s">
-        <v>426</v>
+        <v>447</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -2908,19 +2971,19 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="C59" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="E59" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="I59" t="s">
-        <v>258</v>
+        <v>272</v>
       </c>
       <c r="J59" t="s">
-        <v>416</v>
+        <v>437</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -2928,19 +2991,19 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="C60" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="I60" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="J60" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2948,19 +3011,19 @@
         <v>69</v>
       </c>
       <c r="B61" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C61" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="E61" t="s">
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="I61" t="s">
-        <v>265</v>
+        <v>279</v>
       </c>
       <c r="J61" t="s">
-        <v>423</v>
+        <v>444</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -2968,19 +3031,19 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C62" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E62" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="I62" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J62" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -2988,19 +3051,19 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="C63" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="E63" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="I63" t="s">
-        <v>260</v>
+        <v>274</v>
       </c>
       <c r="J63" t="s">
-        <v>418</v>
+        <v>439</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3008,19 +3071,19 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="C64" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="E64" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="I64" t="s">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="J64" t="s">
-        <v>414</v>
+        <v>435</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3028,19 +3091,19 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E65" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="I65" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J65" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3048,19 +3111,19 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="C66" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="E66" t="s">
-        <v>352</v>
+        <v>366</v>
       </c>
       <c r="I66" t="s">
-        <v>274</v>
+        <v>288</v>
       </c>
       <c r="J66" t="s">
-        <v>432</v>
+        <v>453</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3068,19 +3131,19 @@
         <v>75</v>
       </c>
       <c r="B67" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
       <c r="C67" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="E67" t="s">
-        <v>353</v>
+        <v>367</v>
       </c>
       <c r="I67" t="s">
-        <v>264</v>
+        <v>278</v>
       </c>
       <c r="J67" t="s">
-        <v>422</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3088,19 +3151,19 @@
         <v>76</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C68" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="E68" t="s">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="I68" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
       <c r="J68" t="s">
-        <v>419</v>
+        <v>440</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3108,19 +3171,19 @@
         <v>77</v>
       </c>
       <c r="B69" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E69" t="s">
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="I69" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="J69" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3128,19 +3191,19 @@
         <v>78</v>
       </c>
       <c r="B70" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="C70" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E70" t="s">
-        <v>356</v>
+        <v>370</v>
       </c>
       <c r="I70" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="J70" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3148,19 +3211,19 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="C71" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E71" t="s">
-        <v>357</v>
+        <v>371</v>
       </c>
       <c r="I71" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="J71" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3168,22 +3231,22 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="C72" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E72" t="s">
-        <v>358</v>
+        <v>372</v>
       </c>
       <c r="F72" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="I72" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J72" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3191,22 +3254,22 @@
         <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="C73" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E73" t="s">
-        <v>359</v>
+        <v>373</v>
       </c>
       <c r="F73" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="I73" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J73" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3214,19 +3277,19 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C74" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E74" t="s">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="I74" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J74" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3234,22 +3297,22 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="C75" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E75" t="s">
-        <v>361</v>
+        <v>375</v>
       </c>
       <c r="F75" t="s">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="I75" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J75" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3257,22 +3320,22 @@
         <v>84</v>
       </c>
       <c r="B76" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="C76" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E76" t="s">
-        <v>362</v>
+        <v>376</v>
       </c>
       <c r="F76" t="s">
-        <v>413</v>
+        <v>434</v>
       </c>
       <c r="I76" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J76" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3280,19 +3343,19 @@
         <v>85</v>
       </c>
       <c r="B77" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="C77" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="E77" t="s">
-        <v>363</v>
+        <v>377</v>
       </c>
       <c r="I77" t="s">
-        <v>276</v>
+        <v>290</v>
       </c>
       <c r="J77" t="s">
-        <v>434</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3300,19 +3363,19 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E78" t="s">
-        <v>364</v>
+        <v>378</v>
       </c>
       <c r="I78" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J78" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3320,19 +3383,19 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C79" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E79" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="I79" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J79" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3340,19 +3403,19 @@
         <v>88</v>
       </c>
       <c r="B80" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C80" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E80" t="s">
-        <v>366</v>
+        <v>380</v>
       </c>
       <c r="I80" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J80" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3360,19 +3423,19 @@
         <v>89</v>
       </c>
       <c r="B81" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="C81" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E81" t="s">
-        <v>367</v>
+        <v>381</v>
       </c>
       <c r="I81" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="J81" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3380,19 +3443,19 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="C82" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E82" t="s">
-        <v>368</v>
+        <v>382</v>
       </c>
       <c r="I82" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="J82" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3400,19 +3463,19 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="C83" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E83" t="s">
-        <v>369</v>
+        <v>383</v>
       </c>
       <c r="I83" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="J83" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3420,19 +3483,19 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="C84" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="E84" t="s">
-        <v>370</v>
+        <v>384</v>
       </c>
       <c r="I84" t="s">
-        <v>278</v>
+        <v>292</v>
       </c>
       <c r="J84" t="s">
-        <v>436</v>
+        <v>457</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3440,19 +3503,19 @@
         <v>93</v>
       </c>
       <c r="B85" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="C85" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E85" t="s">
-        <v>371</v>
+        <v>385</v>
       </c>
       <c r="I85" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J85" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3460,19 +3523,19 @@
         <v>94</v>
       </c>
       <c r="B86" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E86" t="s">
-        <v>372</v>
+        <v>386</v>
       </c>
       <c r="I86" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J86" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3480,19 +3543,19 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C87" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E87" t="s">
-        <v>373</v>
+        <v>387</v>
       </c>
       <c r="I87" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J87" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3500,19 +3563,19 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="C88" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="E88" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
       <c r="I88" t="s">
-        <v>280</v>
+        <v>294</v>
       </c>
       <c r="J88" t="s">
-        <v>438</v>
+        <v>459</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3520,19 +3583,19 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="C89" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E89" t="s">
-        <v>375</v>
+        <v>389</v>
       </c>
       <c r="I89" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="J89" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3540,19 +3603,19 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="C90" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E90" t="s">
-        <v>376</v>
+        <v>390</v>
       </c>
       <c r="I90" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="J90" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -3560,19 +3623,19 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C91" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="E91" t="s">
-        <v>377</v>
+        <v>391</v>
       </c>
       <c r="I91" t="s">
-        <v>281</v>
+        <v>295</v>
       </c>
       <c r="J91" t="s">
-        <v>439</v>
+        <v>460</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -3580,19 +3643,19 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C92" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E92" t="s">
-        <v>378</v>
+        <v>392</v>
       </c>
       <c r="I92" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J92" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -3600,19 +3663,19 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="C93" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E93" t="s">
-        <v>379</v>
+        <v>393</v>
       </c>
       <c r="I93" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J93" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3620,19 +3683,19 @@
         <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="C94" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E94" t="s">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="I94" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J94" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3640,19 +3703,19 @@
         <v>103</v>
       </c>
       <c r="B95" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="C95" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E95" t="s">
-        <v>381</v>
+        <v>395</v>
       </c>
       <c r="I95" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J95" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -3660,19 +3723,19 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="C96" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E96" t="s">
-        <v>382</v>
+        <v>396</v>
       </c>
       <c r="I96" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J96" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -3680,19 +3743,19 @@
         <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C97" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E97" t="s">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="I97" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J97" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -3700,19 +3763,19 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="C98" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E98" t="s">
-        <v>384</v>
+        <v>398</v>
       </c>
       <c r="I98" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J98" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -3720,19 +3783,19 @@
         <v>107</v>
       </c>
       <c r="B99" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="C99" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="E99" t="s">
-        <v>385</v>
+        <v>399</v>
       </c>
       <c r="I99" t="s">
-        <v>282</v>
+        <v>296</v>
       </c>
       <c r="J99" t="s">
-        <v>440</v>
+        <v>461</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -3740,19 +3803,19 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="C100" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="E100" t="s">
-        <v>386</v>
+        <v>400</v>
       </c>
       <c r="I100" t="s">
-        <v>283</v>
+        <v>297</v>
       </c>
       <c r="J100" t="s">
-        <v>441</v>
+        <v>462</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -3760,19 +3823,19 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="C101" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E101" t="s">
-        <v>387</v>
+        <v>401</v>
       </c>
       <c r="I101" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="J101" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -3780,19 +3843,19 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E102" t="s">
-        <v>388</v>
+        <v>402</v>
       </c>
       <c r="I102" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="J102" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -3800,19 +3863,19 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="C103" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E103" t="s">
-        <v>389</v>
+        <v>403</v>
       </c>
       <c r="I103" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="J103" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -3820,19 +3883,19 @@
         <v>112</v>
       </c>
       <c r="B104" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C104" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E104" t="s">
-        <v>390</v>
+        <v>404</v>
       </c>
       <c r="I104" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="J104" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -3840,19 +3903,19 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="C105" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="E105" t="s">
-        <v>391</v>
+        <v>405</v>
       </c>
       <c r="I105" t="s">
-        <v>284</v>
+        <v>298</v>
       </c>
       <c r="J105" t="s">
-        <v>442</v>
+        <v>463</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3860,19 +3923,19 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="C106" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E106" t="s">
-        <v>392</v>
+        <v>406</v>
       </c>
       <c r="I106" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="J106" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3880,19 +3943,19 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="C107" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E107" t="s">
-        <v>393</v>
+        <v>407</v>
       </c>
       <c r="I107" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="J107" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -3900,19 +3963,19 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="C108" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="E108" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="I108" t="s">
-        <v>275</v>
+        <v>289</v>
       </c>
       <c r="J108" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -3920,19 +3983,19 @@
         <v>117</v>
       </c>
       <c r="B109" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="C109" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E109" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="I109" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="J109" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -3940,19 +4003,19 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C110" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="E110" t="s">
-        <v>395</v>
+        <v>409</v>
       </c>
       <c r="I110" t="s">
-        <v>285</v>
+        <v>299</v>
       </c>
       <c r="J110" t="s">
-        <v>443</v>
+        <v>464</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -3960,19 +4023,19 @@
         <v>119</v>
       </c>
       <c r="B111" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E111" t="s">
-        <v>396</v>
+        <v>410</v>
       </c>
       <c r="I111" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="J111" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -3980,19 +4043,19 @@
         <v>120</v>
       </c>
       <c r="B112" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="C112" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E112" t="s">
-        <v>397</v>
+        <v>411</v>
       </c>
       <c r="I112" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="J112" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4000,19 +4063,19 @@
         <v>121</v>
       </c>
       <c r="B113" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="C113" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E113" t="s">
-        <v>398</v>
+        <v>412</v>
       </c>
       <c r="I113" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="J113" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4020,19 +4083,19 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
       <c r="C114" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="E114" t="s">
-        <v>399</v>
+        <v>413</v>
       </c>
       <c r="I114" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="J114" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4040,19 +4103,19 @@
         <v>123</v>
       </c>
       <c r="B115" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C115" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="E115" t="s">
-        <v>400</v>
+        <v>414</v>
       </c>
       <c r="I115" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="J115" t="s">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4060,19 +4123,19 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="C116" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E116" t="s">
-        <v>401</v>
+        <v>415</v>
       </c>
       <c r="I116" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="J116" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4080,19 +4143,19 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="C117" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="E117" t="s">
-        <v>402</v>
+        <v>416</v>
       </c>
       <c r="I117" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
       <c r="J117" t="s">
-        <v>446</v>
+        <v>467</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4100,19 +4163,19 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="C118" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E118" t="s">
-        <v>403</v>
+        <v>417</v>
       </c>
       <c r="I118" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J118" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4120,19 +4183,19 @@
         <v>127</v>
       </c>
       <c r="B119" t="s">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="C119" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E119" t="s">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="I119" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J119" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4140,19 +4203,19 @@
         <v>128</v>
       </c>
       <c r="B120" t="s">
-        <v>251</v>
+        <v>258</v>
       </c>
       <c r="C120" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E120" t="s">
-        <v>405</v>
+        <v>419</v>
       </c>
       <c r="I120" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J120" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4160,19 +4223,19 @@
         <v>129</v>
       </c>
       <c r="B121" t="s">
-        <v>252</v>
+        <v>259</v>
       </c>
       <c r="C121" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E121" t="s">
-        <v>406</v>
+        <v>420</v>
       </c>
       <c r="I121" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J121" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4180,19 +4243,19 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>253</v>
+        <v>260</v>
       </c>
       <c r="C122" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="E122" t="s">
-        <v>407</v>
+        <v>421</v>
       </c>
       <c r="I122" t="s">
-        <v>277</v>
+        <v>291</v>
       </c>
       <c r="J122" t="s">
-        <v>435</v>
+        <v>456</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4200,19 +4263,19 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>254</v>
+        <v>261</v>
       </c>
       <c r="C123" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E123" t="s">
-        <v>408</v>
+        <v>422</v>
       </c>
       <c r="I123" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J123" t="s">
-        <v>437</v>
+        <v>458</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4220,19 +4283,159 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="C124" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="E124" t="s">
-        <v>409</v>
+        <v>423</v>
       </c>
       <c r="I124" t="s">
-        <v>279</v>
+        <v>293</v>
       </c>
       <c r="J124" t="s">
-        <v>437</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B125" t="s">
+        <v>263</v>
+      </c>
+      <c r="C125" t="s">
+        <v>289</v>
+      </c>
+      <c r="E125" t="s">
+        <v>424</v>
+      </c>
+      <c r="I125" t="s">
+        <v>289</v>
+      </c>
+      <c r="J125" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B126" t="s">
+        <v>264</v>
+      </c>
+      <c r="C126" t="s">
+        <v>289</v>
+      </c>
+      <c r="E126" t="s">
+        <v>425</v>
+      </c>
+      <c r="I126" t="s">
+        <v>289</v>
+      </c>
+      <c r="J126" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B127" t="s">
+        <v>265</v>
+      </c>
+      <c r="C127" t="s">
+        <v>289</v>
+      </c>
+      <c r="E127" t="s">
+        <v>426</v>
+      </c>
+      <c r="I127" t="s">
+        <v>289</v>
+      </c>
+      <c r="J127" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B128" t="s">
+        <v>266</v>
+      </c>
+      <c r="C128" t="s">
+        <v>302</v>
+      </c>
+      <c r="E128" t="s">
+        <v>427</v>
+      </c>
+      <c r="I128" t="s">
+        <v>302</v>
+      </c>
+      <c r="J128" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B129" t="s">
+        <v>267</v>
+      </c>
+      <c r="C129" t="s">
+        <v>289</v>
+      </c>
+      <c r="E129" t="s">
+        <v>428</v>
+      </c>
+      <c r="I129" t="s">
+        <v>289</v>
+      </c>
+      <c r="J129" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B130" t="s">
+        <v>268</v>
+      </c>
+      <c r="C130" t="s">
+        <v>289</v>
+      </c>
+      <c r="E130" t="s">
+        <v>429</v>
+      </c>
+      <c r="I130" t="s">
+        <v>289</v>
+      </c>
+      <c r="J130" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B131" t="s">
+        <v>269</v>
+      </c>
+      <c r="C131" t="s">
+        <v>289</v>
+      </c>
+      <c r="E131" t="s">
+        <v>430</v>
+      </c>
+      <c r="I131" t="s">
+        <v>289</v>
+      </c>
+      <c r="J131" t="s">
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -4360,6 +4563,13 @@
     <hyperlink ref="A122" r:id="rId121"/>
     <hyperlink ref="A123" r:id="rId122"/>
     <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_NLP/Export/ner_done.xlsx
+++ b/2_NLP/Export/ner_done.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="592">
   <si>
     <t>link</t>
   </si>
@@ -46,6 +46,12 @@
     <t>serial</t>
   </si>
   <si>
+    <t>with_note</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
     <t>https://shopee.tw//✰YENGEE✰BVLGARI-Omnia-Pink-Sapphire-寶格麗-粉晶-女性淡香水-5ml-15ml-i.20782639.1676614968?sp_atk=dcbc0783-cbf5-483b-bf7e-15436d234ca6&amp;xptdk=dcbc0783-cbf5-483b-bf7e-15436d234ca6</t>
   </si>
   <si>
@@ -436,6 +442,126 @@
     <t>https://shopee.tw/【DreamShop】原廠Anna-Sui-Secret-Wish-安娜蘇許願精靈女性淡香水75ml(送香水噴式補充瓶)-i.17437894.7038041921?sp_atk=ee376184-27b2-4dfa-bf30-0ce97fcc6331&amp;xptdk=ee376184-27b2-4dfa-bf30-0ce97fcc6331</t>
   </si>
   <si>
+    <t>https://shopee.tw/【白立方】Amouage-Fate-Man-EDP-命運之輪-男版-淡香精-i.181380814.7632238005?sp_atk=9b19949b-6eb8-4046-a05f-bc4231e8c8f0&amp;xptdk=9b19949b-6eb8-4046-a05f-bc4231e8c8f0</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【百美萃】專櫃香水-正貨-Anna-Sui女香-安娜蘇-花悅精靈淡香水50ml-i.180982053.2881428653?sp_atk=29e1296e-c10d-42dc-bec8-bf0025c30726&amp;xptdk=29e1296e-c10d-42dc-bec8-bf0025c30726</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/《零碼》Anna-Sui-Sui-Love-安娜蘇蝶之戀女性香水-原75ML-剩約3ML(當空瓶賣)-i.11003780.13977703127?sp_atk=17e79955-ada8-4774-b9ea-926603000760&amp;xptdk=17e79955-ada8-4774-b9ea-926603000760</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/🔆試香🔆Abercrombie-Fitch-同名經典女性淡香精-1ml-2ml-5ml-分裝-i.235864816.3372634346?sp_atk=b5c8f664-7d65-451c-b3c8-a6254747998b&amp;xptdk=b5c8f664-7d65-451c-b3c8-a6254747998b</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/預購-請私訊下單-A-F-境男性淡香水-正裝-30ML-i.97748684.11153216426?sp_atk=b36b911e-9f88-462f-8a2e-6cdfd6d646ce&amp;xptdk=b36b911e-9f88-462f-8a2e-6cdfd6d646ce</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/集魅力與自信於一身💖A-F天生無懼女性淡香精100ML-i.192290655.5992749780?sp_atk=2c80a391-c7b0-4823-a03b-edbdc6846fd5&amp;xptdk=2c80a391-c7b0-4823-a03b-edbdc6846fd5</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/二手Abercrombie-Fitch-(A-F)光芒女性淡香精30ML-i.35092272.16529699846?sp_atk=e0e28ccc-7b12-411e-84b6-1afddf64fd5c&amp;xptdk=e0e28ccc-7b12-411e-84b6-1afddf64fd5c</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/『WNP』A-F-Abercrombie-Fitch-湛藍-女性淡香精-30-50-100-ml-TESTER-i.80228033.7538844377?sp_atk=043c2fe9-255c-4d4e-8bf5-df32b0e6f709&amp;xptdk=043c2fe9-255c-4d4e-8bf5-df32b0e6f709</t>
+  </si>
+  <si>
+    <t>https://shopee.tw//☆MOMO小屋☆-BOUCHERON-伯瓊-絢光-女性淡香水-100ml-TESTER-白盒有蓋-i.2919063.7199434?sp_atk=ccf5f664-b509-47ce-9541-c8528663c9d2&amp;xptdk=ccf5f664-b509-47ce-9541-c8528663c9d2</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/🌈晨曦㊣香氛館💎【Chloe】Roses-玫瑰女性淡香水✨玻璃試香瓶1-2-5ml✨現貨正品-i.32416120.8634510118?sp_atk=0242f0d3-bbb2-4f7c-9198-f325a41a86d4&amp;xptdk=0242f0d3-bbb2-4f7c-9198-f325a41a86d4</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/蔻依-克洛伊-CHLOE-同名經典女士香水-肉絲帶-淡香水-噴霧玻璃瓶分裝香-i.13050886.17127018483?sp_atk=d841e33b-ea9e-47c5-8761-d09d824fdd63&amp;xptdk=d841e33b-ea9e-47c5-8761-d09d824fdd63</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【首席國際香水】Chloe-愛情故事晨曦女性淡香水-i.481436094.8478819419?sp_atk=5e434ed2-8ec8-4660-ab83-b5173407a18d&amp;xptdk=5e434ed2-8ec8-4660-ab83-b5173407a18d</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/☆MOMO小屋☆-Chloe-Nomade-芳心之旅-女性淡香水-75ml-TESTER-有蓋-i.2919063.2314683376?sp_atk=ce7cc9a5-b614-4051-b997-cef2876c3230&amp;xptdk=ce7cc9a5-b614-4051-b997-cef2876c3230</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【香舍】AMOUAGE-愛慕-經典-男性淡香精-7.5ML*6-小香-禮盒組-i.8051503.8970738234?sp_atk=a1f12523-5b3f-4640-9973-391a524e93ac&amp;xptdk=a1f12523-5b3f-4640-9973-391a524e93ac</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【超激敗】AMOUAGE-愛慕-經典-女性淡香精-禮盒-7.5ml*6-沾式-小香-i.4884871.3067969541?sp_atk=60a1b1f9-e7ee-482d-be94-c2cf6acd3877&amp;xptdk=60a1b1f9-e7ee-482d-be94-c2cf6acd3877</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/AMOUAGE-愛慕-CIEL-WOMAN-EDP-莎赫札德之淚女性淡香精-100ml-i.5431574.7536017822?sp_atk=98c3d42d-d536-4736-912c-1a6c38b1e9ae&amp;xptdk=98c3d42d-d536-4736-912c-1a6c38b1e9ae</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【香舍】Acca-Kappa-托斯卡尼-沁橘-中性淡香水-100ML-i.8051503.4922101877?sp_atk=ef8e2593-cccf-4cba-b34c-a8ff8e6d85d0&amp;xptdk=ef8e2593-cccf-4cba-b34c-a8ff8e6d85d0</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/-ACCA-KAPPA-Glicine-紫藤花女性淡香水-小香-原廠正貨-2ML-全新-i.20175569.2013760395?sp_atk=d54c3247-755f-4788-82ad-de806baf60fb&amp;xptdk=d54c3247-755f-4788-82ad-de806baf60fb</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/*蘋果綠*-Mercedes-Benz-賓士-爵色佳人-女性淡香水-60ML-90ML-i.391841101.5386437069?sp_atk=40ec7d4d-2aa1-4137-8923-a10c86421935&amp;xptdk=40ec7d4d-2aa1-4137-8923-a10c86421935</t>
+  </si>
+  <si>
+    <t>https://shopee.tw//BOUCHERON-伯瓊-環戒豔紅女性淡香精-100ml-i.22010740.13603214327?sp_atk=33df94ce-f05b-4854-85b6-4c97f9c2dd4c&amp;xptdk=33df94ce-f05b-4854-85b6-4c97f9c2dd4c</t>
+  </si>
+  <si>
+    <t>https://shopee.tw//★駿盛★-BOUCHERON-伯瓊-環戒玫瑰之戀女性淡香精-50ML-i.235062601.9896935661?sp_atk=4fb27f6e-84eb-4de4-847f-0c9d0616e6b4&amp;xptdk=4fb27f6e-84eb-4de4-847f-0c9d0616e6b4</t>
+  </si>
+  <si>
+    <t>https://shopee.tw//BOUCHERON-寶詩龍-璀璨波希女性淡香精(30ml)~(50ml)~(90ml)-i.108119023.9412070086?sp_atk=a822e3b9-5415-4bf4-9640-3df89f711723&amp;xptdk=a822e3b9-5415-4bf4-9640-3df89f711723</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Chloe-經典同名女性淡香水-75ml-展示品-無盒-絕版品-i.2761441.7418906283?sp_atk=c241e5a0-e8a4-4aab-9737-3cf361bfe9dc&amp;xptdk=c241e5a0-e8a4-4aab-9737-3cf361bfe9dc</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/❤Sin小棧❤Issey-Miyake三宅一生-一生之水女性淡香水3ml-i.4314089.157022654?sp_atk=e13718e1-4214-413d-8a43-3cb3eaa5e508&amp;xptdk=e13718e1-4214-413d-8a43-3cb3eaa5e508</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Issey-Miyake-三宅一生Bleue-藍色之水男性淡香水-1瓶-125ml-公司正品-i.4601985.1132943182?sp_atk=6c70979d-9bde-49e8-ad2a-2f516be1a370&amp;xptdk=6c70979d-9bde-49e8-ad2a-2f516be1a370</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/John-Varvatos-經典同名男性淡香水禮盒-(淡香水125ml-17ml-1.5ml)【娜娜OUTLET】-香水-i.10797580.8315827712?sp_atk=95350d47-5e21-42d1-b8d1-096a368150a9&amp;xptdk=95350d47-5e21-42d1-b8d1-096a368150a9</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/John-Varvatos-XX-Heritage-經典光芒男性淡香水-125ML-TESTER(平行輸入)-i.5431574.17759744938?sp_atk=20b52076-0458-403a-8bc5-c49edc92fda0&amp;xptdk=20b52076-0458-403a-8bc5-c49edc92fda0</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/John-Varvatos-XX-Artisan-工匠銀魂男性淡香水-試香-i.5558081.10672730524?sp_atk=2b22f3a6-d219-4c7e-b940-f1f456e03249&amp;xptdk=2b22f3a6-d219-4c7e-b940-f1f456e03249</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/John-Varvatos-Artisan-工匠藤編男性淡香水125ml-i.297549354.4347258840?sp_atk=f124bc8f-655d-4dfa-b9d8-ebd9e7d5df00&amp;xptdk=f124bc8f-655d-4dfa-b9d8-ebd9e7d5df00</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/John-Varvatos-Artisan-工匠純淨-男性淡香水-125ml-TESTER『WNP』-i.80228033.1351881085?sp_atk=46a1ad02-0503-4056-9d62-b390887b5dfe&amp;xptdk=46a1ad02-0503-4056-9d62-b390887b5dfe</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/((試香))-John-Varvatos-DARK-REBEL-龐克騎士男性淡香水-分裝-i.224023342.7157321875?sp_atk=e5bd1969-05d2-48a3-901f-0c0107b5b82e&amp;xptdk=e5bd1969-05d2-48a3-901f-0c0107b5b82e</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Lancome-蘭蔻-Idole-唯我女性淡香精-50ML-75ML-100ML◆NANA◆-i.357737.13086128048?sp_atk=f9d5c883-a7a2-42fa-a516-6f04be49b3f3&amp;xptdk=f9d5c883-a7a2-42fa-a516-6f04be49b3f3</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/香水💕💕-Loewe-Solo-Absoluto-絕對之王男性香水-75ml【限定】-i.190487112.7722016117?sp_atk=39b0a97f-b04a-4df3-92aa-f5b69b874b7c&amp;xptdk=39b0a97f-b04a-4df3-92aa-f5b69b874b7c</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/香水-💕💕-LOEWE羅威-AIRE微風女性淡香水100ml-【無盒】-i.190487112.3758550331?sp_atk=f2f27c1f-d734-40ba-8065-edad764c46d5&amp;xptdk=f2f27c1f-d734-40ba-8065-edad764c46d5</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/波妮香水♥-Loewe-Solo-Origami-摺紙-男性淡香水-100ml-Tester-i.81930378.9591307632?sp_atk=b4f8025d-b9fc-4b8c-94c2-00eac86956eb&amp;xptdk=b4f8025d-b9fc-4b8c-94c2-00eac86956eb</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【香舍】LOEWE-ESENCIA-黑色圓舞曲-男性淡香水-50ML-100ML-i.8051503.12962752443?sp_atk=583b74ba-3a93-4a1e-b598-a5c9fc595a7c&amp;xptdk=583b74ba-3a93-4a1e-b598-a5c9fc595a7c</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【香舍】LOEWE-001-MAN-事後清晨-男性淡香水-50ML-100ML-i.8051503.10026680036?sp_atk=2d01aee1-18f0-4e8a-9a88-6038ffcf9e90&amp;xptdk=2d01aee1-18f0-4e8a-9a88-6038ffcf9e90</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【小香-無盒】LOEWE-羅威-AIRE微風-女性淡香水-5ml-i.11003780.9150940124?sp_atk=50462942-99c9-4440-a3f1-84328a5d5074&amp;xptdk=50462942-99c9-4440-a3f1-84328a5d5074</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/🔥現貨🔥-Marc-Jacobs-親愛雛菊甜蜜女性淡香水-100ml-i.90990153.12074173242?sp_atk=92d1a531-ee24-4678-b6ab-d12cfc93a548&amp;xptdk=92d1a531-ee24-4678-b6ab-d12cfc93a548</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/🌻快速出貨-Marc-Jacobs-不羈女郎女性淡香精4ml-EDP-i.1974741.4679731661?sp_atk=3c164420-1e05-4b03-a86e-3afbb10cafa9&amp;xptdk=3c164420-1e05-4b03-a86e-3afbb10cafa9</t>
+  </si>
+  <si>
     <t>✰YENGEE✰BVLGARI Omnia Pink Sapphire 寶格麗 粉晶 女性淡香水 5ml / 15ml$320已售出 20臺北市大同區找相似</t>
   </si>
   <si>
@@ -826,6 +952,126 @@
     <t>【DreamShop】原廠Anna Sui Secret Wish 安娜蘇許願精靈女性淡香水75ml(送香水噴式補充瓶)$1,690新北市板橋區找相似</t>
   </si>
   <si>
+    <t>【白立方】Amouage Fate Man EDP 命運之輪 男版 淡香精滿額折$100$6,500臺北市松山區找相似</t>
+  </si>
+  <si>
+    <t>【百美萃】專櫃香水 正貨  Anna Sui女香 安娜蘇 花悅精靈淡香水50ml$1,120已售出 1找相似</t>
+  </si>
+  <si>
+    <t>《零碼》Anna Sui Sui Love 安娜蘇蝶之戀女性香水 原75ML/剩約3ML(當空瓶賣)滿額折$10$258高雄市新興區找相似</t>
+  </si>
+  <si>
+    <t>🔆試香🔆Abercrombie &amp; Fitch 同名經典女性淡香精 1ml/2ml/5ml 分裝$40 - $130已售出 1高雄市三民區找相似</t>
+  </si>
+  <si>
+    <t>預購 請私訊下單 A&amp;F-境男性淡香水-正裝-30ML$1,030臺中市北屯區找相似</t>
+  </si>
+  <si>
+    <t>集魅力與自信於一身💖A&amp;F天生無懼女性淡香精100ML$1,650高雄市左營區找相似</t>
+  </si>
+  <si>
+    <t>二手Abercrombie &amp; Fitch (A&amp;F)光芒女性淡香精30ML$500新北市中和區找相似</t>
+  </si>
+  <si>
+    <t>『WNP』A&amp;F Abercrombie &amp; Fitch 湛藍 女性淡香精 30 50 100 ml TESTER$649 - $890已售出 1臺北市大同區找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選☆MOMO小屋☆ BOUCHERON 伯瓊 絢光 女性淡香水 100ml TESTER 白盒有蓋$1,790已售出 1臺北市萬華區找相似</t>
+  </si>
+  <si>
+    <t>🌈晨曦㊣香氛館💎【Chloe】Roses 玫瑰女性淡香水✨玻璃試香瓶1/2/5ml✨現貨正品$65 - $270已售出 77新北市新莊區找相似</t>
+  </si>
+  <si>
+    <t>蔻依 克洛伊 CHLOE 同名經典女士香水 肉絲帶 淡香水 噴霧玻璃瓶分裝香6 件 9.4折$60 - $180已售出 5找相似</t>
+  </si>
+  <si>
+    <t>【首席國際香水】Chloe 愛情故事晨曦女性淡香水$2,480臺東縣臺東市找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選☆MOMO小屋☆ Chloe Nomade 芳心之旅 女性淡香水 75ml TESTER 有蓋$1,690臺北市萬華區找相似</t>
+  </si>
+  <si>
+    <t>【香舍】AMOUAGE 愛慕 經典 男性淡香精 7.5ML*6 小香 禮盒組9.5折加價購$5,700新北市三重區找相似</t>
+  </si>
+  <si>
+    <t>【超激敗】AMOUAGE 愛慕 經典 女性淡香精 禮盒 7.5ml*6 沾式 小香$5,500臺北市大同區找相似</t>
+  </si>
+  <si>
+    <t>AMOUAGE 愛慕 CIEL WOMAN EDP 莎赫札德之淚女性淡香精 100ml$6,999臺北市大同區找相似</t>
+  </si>
+  <si>
+    <t>【香舍】Acca Kappa  托斯卡尼 沁橘 中性淡香水 100ML9.5折加價購$1,250新北市三重區找相似</t>
+  </si>
+  <si>
+    <t>&lt;&lt;ACCA KAPPA&gt;&gt; Glicine 紫藤花女性淡香水 小香 原廠正貨 2ML 全新$150臺北市中山區找相似</t>
+  </si>
+  <si>
+    <t>*蘋果綠* Mercedes Benz 賓士 爵色佳人 女性淡香水 60ML/90ML$1,129 - $1,379臺北市中正區找相似</t>
+  </si>
+  <si>
+    <t>BOUCHERON 伯瓊 環戒豔紅女性淡香精 100ml$1,079臺中市北區找相似</t>
+  </si>
+  <si>
+    <t>★駿盛★ BOUCHERON 伯瓊 環戒玫瑰之戀女性淡香精 50ML$1,199嘉義市西區找相似</t>
+  </si>
+  <si>
+    <t>BOUCHERON 寶詩龍 璀璨波希女性淡香精(30ml)~(50ml)~(90ml)$1,199 - $2,280新北市樹林區找相似</t>
+  </si>
+  <si>
+    <t>Chloe 經典同名女性淡香水 75ml 展示品 無盒 絕版品$2,488已售出 1臺北市萬華區找相似</t>
+  </si>
+  <si>
+    <t>❤Sin小棧❤Issey Miyake三宅一生 一生之水女性淡香水3ml$100 - $150已售出 1高雄市梓官區找相似</t>
+  </si>
+  <si>
+    <t>Issey Miyake 三宅一生Bleue 藍色之水男性淡香水/1瓶/125ml-公司正品$1,750已售出 1新北市新莊區找相似</t>
+  </si>
+  <si>
+    <t>John Varvatos 經典同名男性淡香水禮盒 (淡香水125ml+17ml+1.5ml)【娜娜OUTLET】 香水$2,080臺中市大里區找相似</t>
+  </si>
+  <si>
+    <t>John Varvatos XX Heritage 經典光芒男性淡香水 125ML TESTER(平行輸入)$1,499臺北市大同區找相似</t>
+  </si>
+  <si>
+    <t>John Varvatos  XX Artisan 工匠銀魂男性淡香水  試香$45 - $220已售出 7桃園市龜山區找相似</t>
+  </si>
+  <si>
+    <t>John Varvatos Artisan 工匠藤編男性淡香水125ml$1,690高雄市仁武區找相似</t>
+  </si>
+  <si>
+    <t>John Varvatos Artisan 工匠純淨 男性淡香水 125ml / TESTER『WNP』$989 - $1,250已售出 8臺北市大同區找相似</t>
+  </si>
+  <si>
+    <t>((試香)) John Varvatos DARK REBEL 龐克騎士男性淡香水 分裝$50 - $220已售出 13臺中市豐原區找相似</t>
+  </si>
+  <si>
+    <t>Lancome 蘭蔻 Idole 唯我女性淡香精 50ML / 75ML / 100ML◆NANA◆$2,399 - $3,299臺北市大同區找相似</t>
+  </si>
+  <si>
+    <t>香水💕💕 Loewe Solo Absoluto 絕對之王男性香水 75ml【限定】$2,180高雄市新興區找相似</t>
+  </si>
+  <si>
+    <t>香水 💕💕 LOEWE羅威 AIRE微風女性淡香水100ml 【無盒】$3,800高雄市新興區找相似</t>
+  </si>
+  <si>
+    <t>波妮香水♥ Loewe Solo Origami 摺紙 男性淡香水 100ml Tester$1,490新北市新店區找相似</t>
+  </si>
+  <si>
+    <t>【香舍】LOEWE ESENCIA 黑色圓舞曲 男性淡香水 50ML/100ML9.5折加價購$2,090 - $2,590新北市三重區找相似</t>
+  </si>
+  <si>
+    <t>【香舍】LOEWE 001 MAN 事後清晨 男性淡香水 50ML/100ML9.5折加價購$2,880已售出 1新北市三重區找相似</t>
+  </si>
+  <si>
+    <t>【小香 / 無盒】LOEWE 羅威 AIRE微風 女性淡香水 5ml滿額折$10$300高雄市新興區找相似</t>
+  </si>
+  <si>
+    <t>🔥現貨🔥 Marc Jacobs 親愛雛菊甜蜜女性淡香水 100ml$1,650找相似</t>
+  </si>
+  <si>
+    <t>🌻快速出貨 Marc Jacobs 不羈女郎女性淡香精4ml EDP$400臺中市西屯區找相似</t>
+  </si>
+  <si>
     <t>Bvlgari</t>
   </si>
   <si>
@@ -925,6 +1171,21 @@
     <t>Chloe’</t>
   </si>
   <si>
+    <t>Boucheron</t>
+  </si>
+  <si>
+    <t>ISSEY MIYAKE</t>
+  </si>
+  <si>
+    <t>LOEWE</t>
+  </si>
+  <si>
+    <t>MARC JACOBS</t>
+  </si>
+  <si>
+    <t>愛情故事</t>
+  </si>
+  <si>
     <t>粉晶</t>
   </si>
   <si>
@@ -1048,9 +1309,6 @@
     <t>香戀水晶</t>
   </si>
   <si>
-    <t xml:space="preserve">香戀水晶 </t>
-  </si>
-  <si>
     <t>時尚詩人</t>
   </si>
   <si>
@@ -1309,6 +1567,105 @@
     <t>許願精靈</t>
   </si>
   <si>
+    <t>命運之輪</t>
+  </si>
+  <si>
+    <t>花悅精靈</t>
+  </si>
+  <si>
+    <t>蝶之戀</t>
+  </si>
+  <si>
+    <t>同名經典</t>
+  </si>
+  <si>
+    <t>天生無懼</t>
+  </si>
+  <si>
+    <t>光芒女性</t>
+  </si>
+  <si>
+    <t>絢光</t>
+  </si>
+  <si>
+    <t>玫瑰</t>
+  </si>
+  <si>
+    <t>晨曦</t>
+  </si>
+  <si>
+    <t>芳心之旅</t>
+  </si>
+  <si>
+    <t>經典</t>
+  </si>
+  <si>
+    <t>莎赫札德之淚</t>
+  </si>
+  <si>
+    <t>托斯卡尼沁橘</t>
+  </si>
+  <si>
+    <t>紫藤花</t>
+  </si>
+  <si>
+    <t>環戒豔紅</t>
+  </si>
+  <si>
+    <t>環戒玫瑰之戀</t>
+  </si>
+  <si>
+    <t>璀璨波希</t>
+  </si>
+  <si>
+    <t>經典同名</t>
+  </si>
+  <si>
+    <t>一生之水</t>
+  </si>
+  <si>
+    <t>藍色之水</t>
+  </si>
+  <si>
+    <t>經典光芒</t>
+  </si>
+  <si>
+    <t>工匠銀魂</t>
+  </si>
+  <si>
+    <t>工匠藤編</t>
+  </si>
+  <si>
+    <t>工匠純淨</t>
+  </si>
+  <si>
+    <t>龐克騎士</t>
+  </si>
+  <si>
+    <t>唯我</t>
+  </si>
+  <si>
+    <t>絕對之王</t>
+  </si>
+  <si>
+    <t>微風</t>
+  </si>
+  <si>
+    <t>摺紙</t>
+  </si>
+  <si>
+    <t>黑色圓舞曲</t>
+  </si>
+  <si>
+    <t>事後清晨</t>
+  </si>
+  <si>
+    <t>親愛雛菊</t>
+  </si>
+  <si>
+    <t>不羈女郎</t>
+  </si>
+  <si>
     <t>LOVE MIMOSA</t>
   </si>
   <si>
@@ -1418,6 +1775,21 @@
   </si>
   <si>
     <t>20220723_123545</t>
+  </si>
+  <si>
+    <t>20220801_132422</t>
+  </si>
+  <si>
+    <t>20220723_183035</t>
+  </si>
+  <si>
+    <t>20220723_171208</t>
+  </si>
+  <si>
+    <t>20220723_143736</t>
+  </si>
+  <si>
+    <t>20220723_184744</t>
   </si>
 </sst>
 </file>
@@ -1788,13 +2160,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J131"/>
+  <dimension ref="A1:L171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1825,2617 +2197,3588 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="C2" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E2" t="s">
-        <v>303</v>
+        <v>390</v>
       </c>
       <c r="I2" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>391</v>
       </c>
       <c r="I3" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J3" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>142</v>
+        <v>184</v>
       </c>
       <c r="C4" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>392</v>
       </c>
       <c r="I4" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J4" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="C5" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s">
-        <v>306</v>
+        <v>393</v>
       </c>
       <c r="I5" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J5" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>186</v>
       </c>
       <c r="C6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E6" t="s">
-        <v>307</v>
+        <v>394</v>
       </c>
       <c r="I6" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J6" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>187</v>
       </c>
       <c r="C7" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E7" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="I7" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J7" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="I8" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J8" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>189</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="E9" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="I9" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="J9" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="C10" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="E10" t="s">
-        <v>311</v>
+        <v>398</v>
       </c>
       <c r="I10" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="J10" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>191</v>
       </c>
       <c r="C11" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="E11" t="s">
-        <v>312</v>
+        <v>399</v>
       </c>
       <c r="I11" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="J11" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="C12" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s">
-        <v>313</v>
+        <v>400</v>
       </c>
       <c r="I12" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="J12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C13" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="E13" t="s">
-        <v>314</v>
+        <v>401</v>
       </c>
       <c r="I13" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="J13" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>152</v>
+        <v>194</v>
       </c>
       <c r="C14" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="E14" t="s">
-        <v>315</v>
+        <v>402</v>
       </c>
       <c r="I14" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="J14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>153</v>
+        <v>195</v>
       </c>
       <c r="C15" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="E15" t="s">
-        <v>316</v>
+        <v>403</v>
       </c>
       <c r="I15" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="J15" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>154</v>
+        <v>196</v>
       </c>
       <c r="C16" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="E16" t="s">
-        <v>317</v>
+        <v>404</v>
       </c>
       <c r="I16" t="s">
-        <v>273</v>
+        <v>355</v>
       </c>
       <c r="J16" t="s">
-        <v>438</v>
+        <v>557</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="E17" t="s">
-        <v>318</v>
+        <v>405</v>
       </c>
       <c r="I17" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="J17" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>156</v>
+        <v>198</v>
       </c>
       <c r="C18" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="E18" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="I18" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="J18" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="C19" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="E19" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="I19" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="J19" t="s">
-        <v>440</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>158</v>
+        <v>200</v>
       </c>
       <c r="C20" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
-        <v>321</v>
+        <v>408</v>
       </c>
       <c r="I20" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="J20" t="s">
-        <v>440</v>
+        <v>559</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>159</v>
+        <v>201</v>
       </c>
       <c r="C21" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="E21" t="s">
-        <v>322</v>
+        <v>409</v>
       </c>
       <c r="I21" t="s">
-        <v>276</v>
+        <v>358</v>
       </c>
       <c r="J21" t="s">
-        <v>441</v>
+        <v>560</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>160</v>
+        <v>202</v>
       </c>
       <c r="C22" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E22" t="s">
-        <v>323</v>
+        <v>410</v>
       </c>
       <c r="I22" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="J22" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>203</v>
       </c>
       <c r="C23" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E23" t="s">
-        <v>324</v>
+        <v>411</v>
       </c>
       <c r="I23" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="J23" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>204</v>
       </c>
       <c r="C24" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E24" t="s">
-        <v>325</v>
+        <v>412</v>
       </c>
       <c r="I24" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="J24" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>163</v>
+        <v>205</v>
       </c>
       <c r="C25" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="E25" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="I25" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="J25" t="s">
-        <v>443</v>
+        <v>562</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>164</v>
+        <v>206</v>
       </c>
       <c r="C26" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="E26" t="s">
-        <v>327</v>
+        <v>414</v>
       </c>
       <c r="I26" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="J26" t="s">
-        <v>443</v>
+        <v>562</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>207</v>
       </c>
       <c r="C27" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="E27" t="s">
-        <v>328</v>
+        <v>415</v>
       </c>
       <c r="I27" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="J27" t="s">
-        <v>444</v>
+        <v>563</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>166</v>
+        <v>208</v>
       </c>
       <c r="C28" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="E28" t="s">
-        <v>329</v>
+        <v>416</v>
       </c>
       <c r="I28" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="J28" t="s">
-        <v>445</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>167</v>
+        <v>209</v>
       </c>
       <c r="C29" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="E29" t="s">
-        <v>330</v>
+        <v>417</v>
       </c>
       <c r="I29" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="J29" t="s">
-        <v>445</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>168</v>
+        <v>210</v>
       </c>
       <c r="C30" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="E30" t="s">
-        <v>331</v>
+        <v>418</v>
       </c>
       <c r="I30" t="s">
-        <v>280</v>
+        <v>362</v>
       </c>
       <c r="J30" t="s">
-        <v>445</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>169</v>
+        <v>211</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="E31" t="s">
-        <v>332</v>
+        <v>419</v>
       </c>
       <c r="I31" t="s">
-        <v>281</v>
+        <v>363</v>
       </c>
       <c r="J31" t="s">
-        <v>446</v>
+        <v>565</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>212</v>
       </c>
       <c r="C32" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="E32" t="s">
-        <v>333</v>
+        <v>420</v>
       </c>
       <c r="I32" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="J32" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>171</v>
+        <v>213</v>
       </c>
       <c r="C33" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="E33" t="s">
-        <v>334</v>
+        <v>421</v>
       </c>
       <c r="I33" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="J33" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>172</v>
+        <v>214</v>
       </c>
       <c r="C34" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="E34" t="s">
-        <v>335</v>
+        <v>422</v>
       </c>
       <c r="I34" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="J34" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="C35" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="E35" t="s">
-        <v>336</v>
+        <v>423</v>
       </c>
       <c r="I35" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="J35" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>174</v>
+        <v>216</v>
       </c>
       <c r="C36" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="E36" t="s">
-        <v>337</v>
+        <v>424</v>
       </c>
       <c r="I36" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="J36" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>175</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="E37" t="s">
-        <v>338</v>
+        <v>425</v>
       </c>
       <c r="I37" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="J37" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>176</v>
+        <v>218</v>
       </c>
       <c r="C38" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="E38" t="s">
-        <v>339</v>
+        <v>426</v>
       </c>
       <c r="I38" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="J38" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>177</v>
+        <v>219</v>
       </c>
       <c r="C39" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="E39" t="s">
-        <v>340</v>
+        <v>427</v>
       </c>
       <c r="I39" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="J39" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>178</v>
+        <v>220</v>
       </c>
       <c r="C40" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="E40" t="s">
-        <v>341</v>
+        <v>428</v>
       </c>
       <c r="I40" t="s">
-        <v>284</v>
+        <v>366</v>
       </c>
       <c r="J40" t="s">
-        <v>449</v>
+        <v>568</v>
       </c>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>179</v>
+        <v>221</v>
       </c>
       <c r="C41" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="E41" t="s">
-        <v>342</v>
+        <v>429</v>
       </c>
       <c r="I41" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="J41" t="s">
-        <v>450</v>
+        <v>569</v>
       </c>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="C42" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="E42" t="s">
-        <v>343</v>
+        <v>430</v>
       </c>
       <c r="I42" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="J42" t="s">
-        <v>450</v>
+        <v>569</v>
       </c>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>181</v>
+        <v>223</v>
       </c>
       <c r="C43" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="E43" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="I43" t="s">
-        <v>285</v>
+        <v>367</v>
       </c>
       <c r="J43" t="s">
-        <v>450</v>
+        <v>569</v>
       </c>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>182</v>
+        <v>224</v>
       </c>
       <c r="C44" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="E44" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="I44" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="J44" t="s">
-        <v>451</v>
+        <v>570</v>
       </c>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>183</v>
+        <v>225</v>
       </c>
       <c r="C45" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="E45" t="s">
-        <v>346</v>
+        <v>432</v>
       </c>
       <c r="I45" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="J45" t="s">
-        <v>451</v>
+        <v>570</v>
       </c>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>184</v>
+        <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="E46" t="s">
-        <v>347</v>
+        <v>433</v>
       </c>
       <c r="I46" t="s">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="J46" t="s">
-        <v>451</v>
+        <v>570</v>
       </c>
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>185</v>
+        <v>227</v>
       </c>
       <c r="C47" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="E47" t="s">
-        <v>348</v>
+        <v>434</v>
       </c>
       <c r="I47" t="s">
-        <v>287</v>
+        <v>369</v>
       </c>
       <c r="J47" t="s">
-        <v>452</v>
+        <v>571</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>186</v>
+        <v>228</v>
       </c>
       <c r="C48" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="E48" t="s">
-        <v>349</v>
+        <v>435</v>
       </c>
       <c r="I48" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="J48" t="s">
-        <v>440</v>
+        <v>559</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>187</v>
+        <v>229</v>
       </c>
       <c r="C49" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="E49" t="s">
-        <v>350</v>
+        <v>436</v>
       </c>
       <c r="I49" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="J49" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>188</v>
+        <v>230</v>
       </c>
       <c r="C50" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>437</v>
       </c>
       <c r="I50" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="J50" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>189</v>
+        <v>231</v>
       </c>
       <c r="C51" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>438</v>
       </c>
       <c r="I51" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="J51" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>232</v>
       </c>
       <c r="C52" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="E52" t="s">
-        <v>353</v>
+        <v>439</v>
       </c>
       <c r="I52" t="s">
-        <v>277</v>
+        <v>359</v>
       </c>
       <c r="J52" t="s">
-        <v>442</v>
+        <v>561</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="E53" t="s">
-        <v>354</v>
+        <v>440</v>
       </c>
       <c r="I53" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="J53" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>192</v>
+        <v>234</v>
       </c>
       <c r="C54" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="E54" t="s">
-        <v>355</v>
+        <v>441</v>
       </c>
       <c r="I54" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="J54" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>193</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="E55" t="s">
-        <v>356</v>
+        <v>442</v>
       </c>
       <c r="I55" t="s">
-        <v>283</v>
+        <v>365</v>
       </c>
       <c r="J55" t="s">
-        <v>448</v>
+        <v>567</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>194</v>
+        <v>236</v>
       </c>
       <c r="C56" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E56" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
       <c r="I56" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J56" t="s">
-        <v>435</v>
+        <v>554</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>195</v>
+        <v>237</v>
       </c>
       <c r="C57" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="E57" t="s">
-        <v>358</v>
+        <v>444</v>
       </c>
       <c r="I57" t="s">
-        <v>271</v>
+        <v>353</v>
       </c>
       <c r="J57" t="s">
-        <v>436</v>
+        <v>555</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>196</v>
+        <v>238</v>
       </c>
       <c r="C58" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="E58" t="s">
-        <v>359</v>
+        <v>445</v>
       </c>
       <c r="I58" t="s">
-        <v>282</v>
+        <v>364</v>
       </c>
       <c r="J58" t="s">
-        <v>447</v>
+        <v>566</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>197</v>
+        <v>239</v>
       </c>
       <c r="C59" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="E59" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="I59" t="s">
-        <v>272</v>
+        <v>354</v>
       </c>
       <c r="J59" t="s">
-        <v>437</v>
+        <v>556</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="E60" t="s">
+        <v>447</v>
+      </c>
+      <c r="I60" t="s">
         <v>361</v>
       </c>
-      <c r="I60" t="s">
-        <v>279</v>
-      </c>
       <c r="J60" t="s">
-        <v>444</v>
+        <v>563</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>199</v>
+        <v>241</v>
       </c>
       <c r="C61" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="E61" t="s">
-        <v>326</v>
+        <v>413</v>
       </c>
       <c r="I61" t="s">
-        <v>279</v>
+        <v>361</v>
       </c>
       <c r="J61" t="s">
-        <v>444</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="E62" t="s">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="I62" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="J62" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>201</v>
+        <v>243</v>
       </c>
       <c r="C63" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="E63" t="s">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="I63" t="s">
-        <v>274</v>
+        <v>356</v>
       </c>
       <c r="J63" t="s">
-        <v>439</v>
+        <v>558</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>202</v>
+        <v>244</v>
       </c>
       <c r="C64" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="E64" t="s">
-        <v>364</v>
+        <v>450</v>
       </c>
       <c r="I64" t="s">
-        <v>270</v>
+        <v>352</v>
       </c>
       <c r="J64" t="s">
-        <v>435</v>
+        <v>554</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>203</v>
+        <v>245</v>
       </c>
       <c r="C65" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="E65" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="I65" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="J65" t="s">
-        <v>453</v>
+        <v>572</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="C66" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="E66" t="s">
-        <v>366</v>
+        <v>452</v>
       </c>
       <c r="I66" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="J66" t="s">
-        <v>453</v>
+        <v>572</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>205</v>
+        <v>247</v>
       </c>
       <c r="C67" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="E67" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="I67" t="s">
-        <v>278</v>
+        <v>360</v>
       </c>
       <c r="J67" t="s">
-        <v>443</v>
+        <v>562</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>206</v>
+        <v>248</v>
       </c>
       <c r="C68" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="E68" t="s">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="I68" t="s">
-        <v>275</v>
+        <v>357</v>
       </c>
       <c r="J68" t="s">
-        <v>440</v>
+        <v>559</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>207</v>
+        <v>249</v>
       </c>
       <c r="C69" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E69" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="I69" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J69" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>208</v>
+        <v>250</v>
       </c>
       <c r="C70" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E70" t="s">
-        <v>370</v>
+        <v>456</v>
       </c>
       <c r="I70" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J70" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="C71" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E71" t="s">
+        <v>457</v>
+      </c>
+      <c r="I71" t="s">
         <v>371</v>
       </c>
-      <c r="I71" t="s">
-        <v>289</v>
-      </c>
       <c r="J71" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="C72" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="E72" t="s">
+        <v>458</v>
+      </c>
+      <c r="F72" t="s">
+        <v>550</v>
+      </c>
+      <c r="I72" t="s">
         <v>372</v>
       </c>
-      <c r="F72" t="s">
-        <v>431</v>
-      </c>
-      <c r="I72" t="s">
-        <v>290</v>
-      </c>
       <c r="J72" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>253</v>
       </c>
       <c r="C73" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="E73" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
       <c r="F73" t="s">
-        <v>432</v>
+        <v>551</v>
       </c>
       <c r="I73" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="J73" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>212</v>
+        <v>254</v>
       </c>
       <c r="C74" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="E74" t="s">
-        <v>374</v>
+        <v>460</v>
       </c>
       <c r="I74" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="J74" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
       <c r="C75" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="E75" t="s">
-        <v>375</v>
+        <v>461</v>
       </c>
       <c r="F75" t="s">
-        <v>433</v>
+        <v>552</v>
       </c>
       <c r="I75" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="J75" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>214</v>
+        <v>256</v>
       </c>
       <c r="C76" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="E76" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="F76" t="s">
-        <v>434</v>
+        <v>553</v>
       </c>
       <c r="I76" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="J76" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="C77" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="E77" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="I77" t="s">
-        <v>290</v>
+        <v>372</v>
       </c>
       <c r="J77" t="s">
-        <v>455</v>
+        <v>574</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>216</v>
+        <v>258</v>
       </c>
       <c r="C78" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="E78" t="s">
-        <v>378</v>
+        <v>464</v>
       </c>
       <c r="I78" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="J78" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>259</v>
       </c>
       <c r="C79" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="E79" t="s">
-        <v>379</v>
+        <v>465</v>
       </c>
       <c r="I79" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="J79" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>218</v>
+        <v>260</v>
       </c>
       <c r="C80" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="E80" t="s">
-        <v>380</v>
+        <v>466</v>
       </c>
       <c r="I80" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="J80" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>219</v>
+        <v>261</v>
       </c>
       <c r="C81" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="E81" t="s">
-        <v>381</v>
+        <v>467</v>
       </c>
       <c r="I81" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="J81" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>220</v>
+        <v>262</v>
       </c>
       <c r="C82" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="E82" t="s">
-        <v>382</v>
+        <v>468</v>
       </c>
       <c r="I82" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="J82" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>263</v>
       </c>
       <c r="C83" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="E83" t="s">
-        <v>383</v>
+        <v>469</v>
       </c>
       <c r="I83" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="J83" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>222</v>
+        <v>264</v>
       </c>
       <c r="C84" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="E84" t="s">
-        <v>384</v>
+        <v>470</v>
       </c>
       <c r="I84" t="s">
-        <v>292</v>
+        <v>374</v>
       </c>
       <c r="J84" t="s">
-        <v>457</v>
+        <v>576</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>223</v>
+        <v>265</v>
       </c>
       <c r="C85" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="E85" t="s">
-        <v>385</v>
+        <v>471</v>
       </c>
       <c r="I85" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="J85" t="s">
-        <v>458</v>
+        <v>577</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>224</v>
+        <v>266</v>
       </c>
       <c r="C86" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="E86" t="s">
-        <v>386</v>
+        <v>472</v>
       </c>
       <c r="I86" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="J86" t="s">
-        <v>458</v>
+        <v>577</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>225</v>
+        <v>267</v>
       </c>
       <c r="C87" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="E87" t="s">
-        <v>387</v>
+        <v>473</v>
       </c>
       <c r="I87" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="J87" t="s">
-        <v>458</v>
+        <v>577</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>226</v>
+        <v>268</v>
       </c>
       <c r="C88" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="E88" t="s">
-        <v>388</v>
+        <v>474</v>
       </c>
       <c r="I88" t="s">
-        <v>294</v>
+        <v>376</v>
       </c>
       <c r="J88" t="s">
-        <v>459</v>
+        <v>578</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>227</v>
+        <v>269</v>
       </c>
       <c r="C89" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="E89" t="s">
-        <v>389</v>
+        <v>475</v>
       </c>
       <c r="I89" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="J89" t="s">
-        <v>460</v>
+        <v>579</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>228</v>
+        <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="E90" t="s">
-        <v>390</v>
+        <v>476</v>
       </c>
       <c r="I90" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="J90" t="s">
-        <v>460</v>
+        <v>579</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>229</v>
+        <v>271</v>
       </c>
       <c r="C91" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="E91" t="s">
-        <v>391</v>
+        <v>477</v>
       </c>
       <c r="I91" t="s">
-        <v>295</v>
+        <v>377</v>
       </c>
       <c r="J91" t="s">
-        <v>460</v>
+        <v>579</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>230</v>
+        <v>272</v>
       </c>
       <c r="C92" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E92" t="s">
-        <v>392</v>
+        <v>478</v>
       </c>
       <c r="I92" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="J92" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>231</v>
+        <v>273</v>
       </c>
       <c r="C93" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E93" t="s">
-        <v>393</v>
+        <v>479</v>
       </c>
       <c r="I93" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="J93" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="C94" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E94" t="s">
-        <v>394</v>
+        <v>480</v>
       </c>
       <c r="I94" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="J94" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>233</v>
+        <v>275</v>
       </c>
       <c r="C95" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E95" t="s">
-        <v>395</v>
+        <v>481</v>
       </c>
       <c r="I95" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="J95" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>234</v>
+        <v>276</v>
       </c>
       <c r="C96" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E96" t="s">
-        <v>396</v>
+        <v>482</v>
       </c>
       <c r="I96" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="J96" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>235</v>
+        <v>277</v>
       </c>
       <c r="C97" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E97" t="s">
-        <v>397</v>
+        <v>483</v>
       </c>
       <c r="I97" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="J97" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>236</v>
+        <v>278</v>
       </c>
       <c r="C98" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E98" t="s">
-        <v>398</v>
+        <v>484</v>
       </c>
       <c r="I98" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="J98" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>237</v>
+        <v>279</v>
       </c>
       <c r="C99" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="E99" t="s">
-        <v>399</v>
+        <v>485</v>
       </c>
       <c r="I99" t="s">
-        <v>296</v>
+        <v>378</v>
       </c>
       <c r="J99" t="s">
-        <v>461</v>
+        <v>580</v>
       </c>
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>238</v>
+        <v>280</v>
       </c>
       <c r="C100" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="E100" t="s">
-        <v>400</v>
+        <v>486</v>
       </c>
       <c r="I100" t="s">
-        <v>297</v>
+        <v>379</v>
       </c>
       <c r="J100" t="s">
-        <v>462</v>
+        <v>581</v>
       </c>
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>239</v>
+        <v>281</v>
       </c>
       <c r="C101" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="E101" t="s">
-        <v>401</v>
+        <v>487</v>
       </c>
       <c r="I101" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="J101" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>240</v>
+        <v>282</v>
       </c>
       <c r="C102" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="E102" t="s">
-        <v>402</v>
+        <v>488</v>
       </c>
       <c r="I102" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="J102" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>241</v>
+        <v>283</v>
       </c>
       <c r="C103" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="E103" t="s">
-        <v>403</v>
+        <v>489</v>
       </c>
       <c r="I103" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="J103" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>242</v>
+        <v>284</v>
       </c>
       <c r="C104" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="E104" t="s">
-        <v>404</v>
+        <v>490</v>
       </c>
       <c r="I104" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="J104" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="C105" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="E105" t="s">
-        <v>405</v>
+        <v>491</v>
       </c>
       <c r="I105" t="s">
-        <v>298</v>
+        <v>380</v>
       </c>
       <c r="J105" t="s">
-        <v>463</v>
+        <v>582</v>
       </c>
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C106" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E106" t="s">
-        <v>406</v>
+        <v>492</v>
       </c>
       <c r="I106" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J106" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>245</v>
+        <v>287</v>
       </c>
       <c r="C107" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E107" t="s">
-        <v>407</v>
+        <v>493</v>
       </c>
       <c r="I107" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J107" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>246</v>
+        <v>288</v>
       </c>
       <c r="C108" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E108" t="s">
-        <v>408</v>
+        <v>494</v>
       </c>
       <c r="I108" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J108" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>247</v>
+        <v>289</v>
       </c>
       <c r="C109" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="E109" t="s">
-        <v>320</v>
+        <v>407</v>
       </c>
       <c r="I109" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="J109" t="s">
-        <v>464</v>
+        <v>583</v>
       </c>
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>248</v>
+        <v>290</v>
       </c>
       <c r="C110" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="E110" t="s">
-        <v>409</v>
+        <v>495</v>
       </c>
       <c r="I110" t="s">
-        <v>299</v>
+        <v>381</v>
       </c>
       <c r="J110" t="s">
-        <v>464</v>
+        <v>583</v>
       </c>
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>249</v>
+        <v>291</v>
       </c>
       <c r="C111" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="E111" t="s">
-        <v>410</v>
+        <v>496</v>
       </c>
       <c r="I111" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="J111" t="s">
-        <v>465</v>
+        <v>584</v>
       </c>
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>292</v>
       </c>
       <c r="C112" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="E112" t="s">
-        <v>411</v>
+        <v>497</v>
       </c>
       <c r="I112" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="J112" t="s">
-        <v>465</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>251</v>
+        <v>293</v>
       </c>
       <c r="C113" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="E113" t="s">
-        <v>412</v>
+        <v>498</v>
       </c>
       <c r="I113" t="s">
-        <v>300</v>
+        <v>382</v>
       </c>
       <c r="J113" t="s">
-        <v>465</v>
+        <v>584</v>
       </c>
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>252</v>
+        <v>294</v>
       </c>
       <c r="C114" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="E114" t="s">
-        <v>413</v>
+        <v>499</v>
       </c>
       <c r="I114" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="J114" t="s">
-        <v>466</v>
+        <v>585</v>
       </c>
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>253</v>
+        <v>295</v>
       </c>
       <c r="C115" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="E115" t="s">
-        <v>414</v>
+        <v>500</v>
       </c>
       <c r="I115" t="s">
-        <v>301</v>
+        <v>383</v>
       </c>
       <c r="J115" t="s">
-        <v>466</v>
+        <v>585</v>
       </c>
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>254</v>
+        <v>296</v>
       </c>
       <c r="C116" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="E116" t="s">
-        <v>415</v>
+        <v>501</v>
       </c>
       <c r="I116" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="J116" t="s">
-        <v>467</v>
+        <v>586</v>
       </c>
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>255</v>
+        <v>297</v>
       </c>
       <c r="C117" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="E117" t="s">
-        <v>416</v>
+        <v>502</v>
       </c>
       <c r="I117" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="J117" t="s">
-        <v>467</v>
+        <v>586</v>
       </c>
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>256</v>
+        <v>298</v>
       </c>
       <c r="C118" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="E118" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="I118" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="J118" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>257</v>
+        <v>299</v>
       </c>
       <c r="C119" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="E119" t="s">
-        <v>418</v>
+        <v>504</v>
       </c>
       <c r="I119" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="J119" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>258</v>
+        <v>300</v>
       </c>
       <c r="C120" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="E120" t="s">
-        <v>419</v>
+        <v>505</v>
       </c>
       <c r="I120" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="J120" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>259</v>
+        <v>301</v>
       </c>
       <c r="C121" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="E121" t="s">
-        <v>420</v>
+        <v>506</v>
       </c>
       <c r="I121" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="J121" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>260</v>
+        <v>302</v>
       </c>
       <c r="C122" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="E122" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="I122" t="s">
-        <v>291</v>
+        <v>373</v>
       </c>
       <c r="J122" t="s">
-        <v>456</v>
+        <v>575</v>
       </c>
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>261</v>
+        <v>303</v>
       </c>
       <c r="C123" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="E123" t="s">
-        <v>422</v>
+        <v>508</v>
       </c>
       <c r="I123" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="J123" t="s">
-        <v>458</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>304</v>
       </c>
       <c r="C124" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="E124" t="s">
-        <v>423</v>
+        <v>509</v>
       </c>
       <c r="I124" t="s">
-        <v>293</v>
+        <v>375</v>
       </c>
       <c r="J124" t="s">
-        <v>458</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>263</v>
+        <v>305</v>
       </c>
       <c r="C125" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E125" t="s">
-        <v>424</v>
+        <v>510</v>
       </c>
       <c r="I125" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J125" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>264</v>
+        <v>306</v>
       </c>
       <c r="C126" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E126" t="s">
-        <v>425</v>
+        <v>511</v>
       </c>
       <c r="I126" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J126" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
+        <v>307</v>
       </c>
       <c r="C127" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E127" t="s">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="I127" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J127" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>266</v>
+        <v>308</v>
       </c>
       <c r="C128" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="E128" t="s">
-        <v>427</v>
+        <v>513</v>
       </c>
       <c r="I128" t="s">
-        <v>302</v>
+        <v>384</v>
       </c>
       <c r="J128" t="s">
-        <v>467</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>267</v>
+        <v>309</v>
       </c>
       <c r="C129" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E129" t="s">
-        <v>428</v>
+        <v>514</v>
       </c>
       <c r="I129" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J129" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
+        <v>310</v>
       </c>
       <c r="C130" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E130" t="s">
-        <v>429</v>
+        <v>515</v>
       </c>
       <c r="I130" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J130" t="s">
-        <v>454</v>
+        <v>573</v>
       </c>
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="E131" t="s">
-        <v>430</v>
+        <v>516</v>
       </c>
       <c r="I131" t="s">
-        <v>289</v>
+        <v>371</v>
       </c>
       <c r="J131" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B132" t="s">
+        <v>312</v>
+      </c>
+      <c r="C132" t="s">
+        <v>372</v>
+      </c>
+      <c r="E132" t="s">
+        <v>517</v>
+      </c>
+      <c r="I132" t="s">
+        <v>372</v>
+      </c>
+      <c r="J132" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B133" t="s">
+        <v>313</v>
+      </c>
+      <c r="C133" t="s">
+        <v>371</v>
+      </c>
+      <c r="E133" t="s">
+        <v>518</v>
+      </c>
+      <c r="I133" t="s">
+        <v>371</v>
+      </c>
+      <c r="J133" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B134" t="s">
+        <v>314</v>
+      </c>
+      <c r="C134" t="s">
+        <v>371</v>
+      </c>
+      <c r="E134" t="s">
+        <v>519</v>
+      </c>
+      <c r="I134" t="s">
+        <v>371</v>
+      </c>
+      <c r="J134" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B135" t="s">
+        <v>315</v>
+      </c>
+      <c r="C135" t="s">
+        <v>381</v>
+      </c>
+      <c r="E135" t="s">
+        <v>520</v>
+      </c>
+      <c r="I135" t="s">
+        <v>381</v>
+      </c>
+      <c r="J135" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B136" t="s">
+        <v>316</v>
+      </c>
+      <c r="C136" t="s">
+        <v>381</v>
+      </c>
+      <c r="E136" t="s">
+        <v>435</v>
+      </c>
+      <c r="I136" t="s">
+        <v>381</v>
+      </c>
+      <c r="J136" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B137" t="s">
+        <v>317</v>
+      </c>
+      <c r="C137" t="s">
+        <v>381</v>
+      </c>
+      <c r="E137" t="s">
+        <v>521</v>
+      </c>
+      <c r="I137" t="s">
+        <v>381</v>
+      </c>
+      <c r="J137" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B138" t="s">
+        <v>318</v>
+      </c>
+      <c r="C138" t="s">
+        <v>381</v>
+      </c>
+      <c r="E138" t="s">
+        <v>522</v>
+      </c>
+      <c r="I138" t="s">
+        <v>381</v>
+      </c>
+      <c r="J138" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B139" t="s">
+        <v>319</v>
+      </c>
+      <c r="C139" t="s">
+        <v>381</v>
+      </c>
+      <c r="E139" t="s">
         <v>454</v>
+      </c>
+      <c r="I139" t="s">
+        <v>381</v>
+      </c>
+      <c r="J139" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B140" t="s">
+        <v>320</v>
+      </c>
+      <c r="C140" t="s">
+        <v>385</v>
+      </c>
+      <c r="E140" t="s">
+        <v>523</v>
+      </c>
+      <c r="I140" t="s">
+        <v>385</v>
+      </c>
+      <c r="J140" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B141" t="s">
+        <v>321</v>
+      </c>
+      <c r="C141" t="s">
+        <v>384</v>
+      </c>
+      <c r="E141" t="s">
+        <v>524</v>
+      </c>
+      <c r="I141" t="s">
+        <v>384</v>
+      </c>
+      <c r="J141" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B142" t="s">
+        <v>322</v>
+      </c>
+      <c r="C142" t="s">
+        <v>384</v>
+      </c>
+      <c r="E142" t="s">
+        <v>520</v>
+      </c>
+      <c r="I142" t="s">
+        <v>384</v>
+      </c>
+      <c r="J142" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B143" t="s">
+        <v>323</v>
+      </c>
+      <c r="C143" t="s">
+        <v>384</v>
+      </c>
+      <c r="D143" t="s">
+        <v>389</v>
+      </c>
+      <c r="E143" t="s">
+        <v>525</v>
+      </c>
+      <c r="I143" t="s">
+        <v>384</v>
+      </c>
+      <c r="J143" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B144" t="s">
+        <v>324</v>
+      </c>
+      <c r="C144" t="s">
+        <v>384</v>
+      </c>
+      <c r="E144" t="s">
+        <v>526</v>
+      </c>
+      <c r="I144" t="s">
+        <v>384</v>
+      </c>
+      <c r="J144" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B145" t="s">
+        <v>325</v>
+      </c>
+      <c r="C145" t="s">
+        <v>372</v>
+      </c>
+      <c r="E145" t="s">
+        <v>527</v>
+      </c>
+      <c r="I145" t="s">
+        <v>372</v>
+      </c>
+      <c r="J145" t="s">
+        <v>574</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B146" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" t="s">
+        <v>372</v>
+      </c>
+      <c r="E146" t="s">
+        <v>527</v>
+      </c>
+      <c r="I146" t="s">
+        <v>372</v>
+      </c>
+      <c r="J146" t="s">
+        <v>574</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B147" t="s">
+        <v>327</v>
+      </c>
+      <c r="C147" t="s">
+        <v>372</v>
+      </c>
+      <c r="E147" t="s">
+        <v>528</v>
+      </c>
+      <c r="I147" t="s">
+        <v>372</v>
+      </c>
+      <c r="J147" t="s">
+        <v>574</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B148" t="s">
+        <v>328</v>
+      </c>
+      <c r="C148" t="s">
+        <v>382</v>
+      </c>
+      <c r="E148" t="s">
+        <v>529</v>
+      </c>
+      <c r="I148" t="s">
+        <v>382</v>
+      </c>
+      <c r="J148" t="s">
+        <v>584</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B149" t="s">
+        <v>329</v>
+      </c>
+      <c r="C149" t="s">
+        <v>382</v>
+      </c>
+      <c r="E149" t="s">
+        <v>530</v>
+      </c>
+      <c r="I149" t="s">
+        <v>382</v>
+      </c>
+      <c r="J149" t="s">
+        <v>584</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B150" t="s">
+        <v>330</v>
+      </c>
+      <c r="C150" t="s">
+        <v>382</v>
+      </c>
+      <c r="E150" t="s">
+        <v>413</v>
+      </c>
+      <c r="I150" t="s">
+        <v>382</v>
+      </c>
+      <c r="J150" t="s">
+        <v>584</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B151" t="s">
+        <v>331</v>
+      </c>
+      <c r="C151" t="s">
+        <v>385</v>
+      </c>
+      <c r="E151" t="s">
+        <v>531</v>
+      </c>
+      <c r="I151" t="s">
+        <v>385</v>
+      </c>
+      <c r="J151" t="s">
+        <v>587</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B152" t="s">
+        <v>332</v>
+      </c>
+      <c r="C152" t="s">
+        <v>385</v>
+      </c>
+      <c r="E152" t="s">
+        <v>532</v>
+      </c>
+      <c r="I152" t="s">
+        <v>385</v>
+      </c>
+      <c r="J152" t="s">
+        <v>587</v>
+      </c>
+      <c r="K152">
+        <v>1</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B153" t="s">
+        <v>333</v>
+      </c>
+      <c r="C153" t="s">
+        <v>385</v>
+      </c>
+      <c r="E153" t="s">
+        <v>533</v>
+      </c>
+      <c r="I153" t="s">
+        <v>385</v>
+      </c>
+      <c r="J153" t="s">
+        <v>587</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B154" t="s">
+        <v>334</v>
+      </c>
+      <c r="C154" t="s">
+        <v>384</v>
+      </c>
+      <c r="E154" t="s">
+        <v>534</v>
+      </c>
+      <c r="I154" t="s">
+        <v>384</v>
+      </c>
+      <c r="J154" t="s">
+        <v>586</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B155" t="s">
+        <v>335</v>
+      </c>
+      <c r="C155" t="s">
+        <v>386</v>
+      </c>
+      <c r="E155" t="s">
+        <v>535</v>
+      </c>
+      <c r="I155" t="s">
+        <v>386</v>
+      </c>
+      <c r="J155" t="s">
+        <v>588</v>
+      </c>
+      <c r="K155">
+        <v>1</v>
+      </c>
+      <c r="L155">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" t="s">
+        <v>336</v>
+      </c>
+      <c r="C156" t="s">
+        <v>386</v>
+      </c>
+      <c r="E156" t="s">
+        <v>536</v>
+      </c>
+      <c r="I156" t="s">
+        <v>386</v>
+      </c>
+      <c r="J156" t="s">
+        <v>588</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B157" t="s">
+        <v>337</v>
+      </c>
+      <c r="C157" t="s">
+        <v>363</v>
+      </c>
+      <c r="E157" t="s">
+        <v>534</v>
+      </c>
+      <c r="I157" t="s">
+        <v>363</v>
+      </c>
+      <c r="J157" t="s">
+        <v>589</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B158" t="s">
+        <v>338</v>
+      </c>
+      <c r="C158" t="s">
+        <v>363</v>
+      </c>
+      <c r="E158" t="s">
+        <v>537</v>
+      </c>
+      <c r="I158" t="s">
+        <v>363</v>
+      </c>
+      <c r="J158" t="s">
+        <v>589</v>
+      </c>
+      <c r="K158">
+        <v>1</v>
+      </c>
+      <c r="L158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B159" t="s">
+        <v>339</v>
+      </c>
+      <c r="C159" t="s">
+        <v>363</v>
+      </c>
+      <c r="E159" t="s">
+        <v>538</v>
+      </c>
+      <c r="I159" t="s">
+        <v>363</v>
+      </c>
+      <c r="J159" t="s">
+        <v>589</v>
+      </c>
+      <c r="K159">
+        <v>1</v>
+      </c>
+      <c r="L159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B160" t="s">
+        <v>340</v>
+      </c>
+      <c r="C160" t="s">
+        <v>363</v>
+      </c>
+      <c r="E160" t="s">
+        <v>539</v>
+      </c>
+      <c r="I160" t="s">
+        <v>363</v>
+      </c>
+      <c r="J160" t="s">
+        <v>589</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B161" t="s">
+        <v>341</v>
+      </c>
+      <c r="C161" t="s">
+        <v>363</v>
+      </c>
+      <c r="E161" t="s">
+        <v>540</v>
+      </c>
+      <c r="I161" t="s">
+        <v>363</v>
+      </c>
+      <c r="J161" t="s">
+        <v>589</v>
+      </c>
+      <c r="K161">
+        <v>1</v>
+      </c>
+      <c r="L161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B162" t="s">
+        <v>342</v>
+      </c>
+      <c r="C162" t="s">
+        <v>363</v>
+      </c>
+      <c r="E162" t="s">
+        <v>541</v>
+      </c>
+      <c r="I162" t="s">
+        <v>363</v>
+      </c>
+      <c r="J162" t="s">
+        <v>589</v>
+      </c>
+      <c r="K162">
+        <v>1</v>
+      </c>
+      <c r="L162">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B163" t="s">
+        <v>343</v>
+      </c>
+      <c r="C163" t="s">
+        <v>374</v>
+      </c>
+      <c r="E163" t="s">
+        <v>542</v>
+      </c>
+      <c r="I163" t="s">
+        <v>374</v>
+      </c>
+      <c r="J163" t="s">
+        <v>576</v>
+      </c>
+      <c r="K163">
+        <v>1</v>
+      </c>
+      <c r="L163">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B164" t="s">
+        <v>344</v>
+      </c>
+      <c r="C164" t="s">
+        <v>387</v>
+      </c>
+      <c r="E164" t="s">
+        <v>543</v>
+      </c>
+      <c r="I164" t="s">
+        <v>387</v>
+      </c>
+      <c r="J164" t="s">
+        <v>590</v>
+      </c>
+      <c r="K164">
+        <v>1</v>
+      </c>
+      <c r="L164">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B165" t="s">
+        <v>345</v>
+      </c>
+      <c r="C165" t="s">
+        <v>387</v>
+      </c>
+      <c r="E165" t="s">
+        <v>544</v>
+      </c>
+      <c r="I165" t="s">
+        <v>387</v>
+      </c>
+      <c r="J165" t="s">
+        <v>590</v>
+      </c>
+      <c r="K165">
+        <v>1</v>
+      </c>
+      <c r="L165">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B166" t="s">
+        <v>346</v>
+      </c>
+      <c r="C166" t="s">
+        <v>387</v>
+      </c>
+      <c r="E166" t="s">
+        <v>545</v>
+      </c>
+      <c r="I166" t="s">
+        <v>387</v>
+      </c>
+      <c r="J166" t="s">
+        <v>590</v>
+      </c>
+      <c r="K166">
+        <v>1</v>
+      </c>
+      <c r="L166">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B167" t="s">
+        <v>347</v>
+      </c>
+      <c r="C167" t="s">
+        <v>387</v>
+      </c>
+      <c r="E167" t="s">
+        <v>546</v>
+      </c>
+      <c r="I167" t="s">
+        <v>387</v>
+      </c>
+      <c r="J167" t="s">
+        <v>590</v>
+      </c>
+      <c r="K167">
+        <v>1</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B168" t="s">
+        <v>348</v>
+      </c>
+      <c r="C168" t="s">
+        <v>387</v>
+      </c>
+      <c r="E168" t="s">
+        <v>547</v>
+      </c>
+      <c r="I168" t="s">
+        <v>387</v>
+      </c>
+      <c r="J168" t="s">
+        <v>590</v>
+      </c>
+      <c r="K168">
+        <v>1</v>
+      </c>
+      <c r="L168">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B169" t="s">
+        <v>349</v>
+      </c>
+      <c r="C169" t="s">
+        <v>387</v>
+      </c>
+      <c r="E169" t="s">
+        <v>544</v>
+      </c>
+      <c r="I169" t="s">
+        <v>387</v>
+      </c>
+      <c r="J169" t="s">
+        <v>590</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B170" t="s">
+        <v>350</v>
+      </c>
+      <c r="C170" t="s">
+        <v>388</v>
+      </c>
+      <c r="E170" t="s">
+        <v>548</v>
+      </c>
+      <c r="I170" t="s">
+        <v>388</v>
+      </c>
+      <c r="J170" t="s">
+        <v>591</v>
+      </c>
+      <c r="K170">
+        <v>1</v>
+      </c>
+      <c r="L170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B171" t="s">
+        <v>351</v>
+      </c>
+      <c r="C171" t="s">
+        <v>388</v>
+      </c>
+      <c r="E171" t="s">
+        <v>549</v>
+      </c>
+      <c r="I171" t="s">
+        <v>388</v>
+      </c>
+      <c r="J171" t="s">
+        <v>591</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4570,6 +5913,46 @@
     <hyperlink ref="A129" r:id="rId128"/>
     <hyperlink ref="A130" r:id="rId129"/>
     <hyperlink ref="A131" r:id="rId130"/>
+    <hyperlink ref="A132" r:id="rId131"/>
+    <hyperlink ref="A133" r:id="rId132"/>
+    <hyperlink ref="A134" r:id="rId133"/>
+    <hyperlink ref="A135" r:id="rId134"/>
+    <hyperlink ref="A136" r:id="rId135"/>
+    <hyperlink ref="A137" r:id="rId136"/>
+    <hyperlink ref="A138" r:id="rId137"/>
+    <hyperlink ref="A139" r:id="rId138"/>
+    <hyperlink ref="A140" r:id="rId139"/>
+    <hyperlink ref="A141" r:id="rId140"/>
+    <hyperlink ref="A142" r:id="rId141"/>
+    <hyperlink ref="A143" r:id="rId142"/>
+    <hyperlink ref="A144" r:id="rId143"/>
+    <hyperlink ref="A145" r:id="rId144"/>
+    <hyperlink ref="A146" r:id="rId145"/>
+    <hyperlink ref="A147" r:id="rId146"/>
+    <hyperlink ref="A148" r:id="rId147"/>
+    <hyperlink ref="A149" r:id="rId148"/>
+    <hyperlink ref="A150" r:id="rId149"/>
+    <hyperlink ref="A151" r:id="rId150"/>
+    <hyperlink ref="A152" r:id="rId151"/>
+    <hyperlink ref="A153" r:id="rId152"/>
+    <hyperlink ref="A154" r:id="rId153"/>
+    <hyperlink ref="A155" r:id="rId154"/>
+    <hyperlink ref="A156" r:id="rId155"/>
+    <hyperlink ref="A157" r:id="rId156"/>
+    <hyperlink ref="A158" r:id="rId157"/>
+    <hyperlink ref="A159" r:id="rId158"/>
+    <hyperlink ref="A160" r:id="rId159"/>
+    <hyperlink ref="A161" r:id="rId160"/>
+    <hyperlink ref="A162" r:id="rId161"/>
+    <hyperlink ref="A163" r:id="rId162"/>
+    <hyperlink ref="A164" r:id="rId163"/>
+    <hyperlink ref="A165" r:id="rId164"/>
+    <hyperlink ref="A166" r:id="rId165"/>
+    <hyperlink ref="A167" r:id="rId166"/>
+    <hyperlink ref="A168" r:id="rId167"/>
+    <hyperlink ref="A169" r:id="rId168"/>
+    <hyperlink ref="A170" r:id="rId169"/>
+    <hyperlink ref="A171" r:id="rId170"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_NLP/Export/ner_done.xlsx
+++ b/2_NLP/Export/ner_done.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1037" uniqueCount="592">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="678">
   <si>
     <t>link</t>
   </si>
@@ -562,6 +562,87 @@
     <t>https://shopee.tw/🌻快速出貨-Marc-Jacobs-不羈女郎女性淡香精4ml-EDP-i.1974741.4679731661?sp_atk=3c164420-1e05-4b03-a86e-3afbb10cafa9&amp;xptdk=3c164420-1e05-4b03-a86e-3afbb10cafa9</t>
   </si>
   <si>
+    <t>https://shopee.tw/《尋香小站-》-Abercrombie-Fitch-A-F-極致魅力男性淡香精-100ml-TESTER-包裝-i.6261367.2451937831?sp_atk=2b75d756-b144-4dae-a092-e5a21512fda8&amp;xptdk=2b75d756-b144-4dae-a092-e5a21512fda8</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Abercrombie-Fitch遇見女性淡香精50ml-Vivo薇朵-i.22056733.6641046945?sp_atk=883e4610-45c1-4582-a0a4-e375327209e8&amp;xptdk=883e4610-45c1-4582-a0a4-e375327209e8</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【金萊美】Elizabeth-Arden-雅頓綠茶竹子中性淡香水-分裝試管-針管-2.5ML-i.117900058.2730805023?sp_atk=0fd11328-fb7e-4474-9951-c6f04690ba7a&amp;xptdk=0fd11328-fb7e-4474-9951-c6f04690ba7a</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【金萊美】Elizabeth-Arden-雅頓綠茶柚子中性淡香水-分裝試管-針管-2.5ML-i.117900058.2730914574?sp_atk=85891cf9-6a8b-440d-b9b3-65a07d799c1f&amp;xptdk=85891cf9-6a8b-440d-b9b3-65a07d799c1f</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【米】Elizabeth-Arden-雅頓-白茶溫煦香草蘭女性淡香水-100ml-i.88577429.13652992030?sp_atk=d38d5432-3d5f-410f-9c20-4f48b58cf428&amp;xptdk=d38d5432-3d5f-410f-9c20-4f48b58cf428</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【Elizabeth-Arden-雅頓】真愛女性淡香水100ml-台南5顏6色香水化妝品保養品-i.251069550.4134735947?sp_atk=2c23f49b-3ecd-4d9a-8a87-312e0a9fa466&amp;xptdk=2c23f49b-3ecd-4d9a-8a87-312e0a9fa466</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【Elizabeth-Arden-伊麗莎白雅頓】Red-Door-紅門-女性淡香水-100ml(全新正品)-i.16349465.21113048590?sp_atk=de7c8706-2fda-4c4c-be56-d96c7ed1efeb&amp;xptdk=de7c8706-2fda-4c4c-be56-d96c7ed1efeb</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/◇MOLI-莫麗◇Elizabeth-Arden-雅頓白茶女性淡香水100ml-TESTER-101-5348-i.2299401.7658409425?sp_atk=d8c2cb59-8c75-40f5-8b4c-b9bd391283e3&amp;xptdk=d8c2cb59-8c75-40f5-8b4c-b9bd391283e3</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/~誘香水~Elizabeth-Arden-Green-Tea-雅頓綠茶中性淡香水(1ML分裝試香)-i.4283796.2874238922?sp_atk=26a9ca2d-5b87-47cf-b294-0d5a46852d75&amp;xptdk=26a9ca2d-5b87-47cf-b294-0d5a46852d75</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/~歐巴-歐尼~Elizabeth-Arden-雅頓白茶花漾甜橘女性淡香水-100ml-tester-i.7520398.8528969465?sp_atk=56054c39-08bc-4b79-9e59-f9616fbc134a&amp;xptdk=56054c39-08bc-4b79-9e59-f9616fbc134a</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/已保留《試香》Gres-Homme-de-Gres-清秀佳人男性淡香水-試香紙-i.1559866.4735940058?sp_atk=4f561615-3b82-4200-8bbb-918368a85a5b&amp;xptdk=4f561615-3b82-4200-8bbb-918368a85a5b</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【East-279東貳柒玖服飾】Gres-Cabotine卡布丁-粉紅佳人女性淡香水30ML-在台現貨-i.677759490.17731155209?sp_atk=bea92e1a-07ca-4659-aae7-421585968310&amp;xptdk=bea92e1a-07ca-4659-aae7-421585968310</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/❤️愛妮❤️Gres-Cabotine-Rosalie-瑰麗佳人-女性淡香水-100ml♫-i.48341460.17554151348?sp_atk=759bb240-5fe4-487b-bc52-4618c5081ed8&amp;xptdk=759bb240-5fe4-487b-bc52-4618c5081ed8</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Gres-Cabotine-Gold-金色佳人女性淡香水-30ML-i.6849096.8665413080?sp_atk=2b80eb8f-6ca0-4eff-9974-82e62dae81d3&amp;xptdk=2b80eb8f-6ca0-4eff-9974-82e62dae81d3</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/💯正品-HERMES愛馬仕-大地男性淡香水-12.5ml-男香【髮拉麗香水美妝x現貨供應中】-i.4019111.3755187033?sp_atk=b794727d-d654-4d19-bd6e-126b76b65460&amp;xptdk=b794727d-d654-4d19-bd6e-126b76b65460</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/波妮香水♥-Hermes-愛馬仕-橘采星光-女性淡香水-30ml-50ml-100ml-i.81930378.1491398028?sp_atk=205d345c-9358-43e8-aa73-71a1d2f37711&amp;xptdk=205d345c-9358-43e8-aa73-71a1d2f37711</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/波妮香水♥-Hermes-愛馬仕-李先生的花園-中性淡香水-50ml-100ml-i.81930378.1491483613?sp_atk=57fdf7bc-7ce4-44f8-8d8a-37af0064ebdd&amp;xptdk=57fdf7bc-7ce4-44f8-8d8a-37af0064ebdd</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/正品分裝香水-Hermes-愛馬仕-尼羅河花園-中性淡香水-香水-i.189414679.17650374194?sp_atk=17b42805-7125-46b9-a3be-2dcd9040dda6&amp;xptdk=17b42805-7125-46b9-a3be-2dcd9040dda6</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/正品分裝香水-HERMES-愛馬仕-地中海花園-Jardin-En-Mediterranee-中性淡香水-香水-i.189414679.15277550797?sp_atk=1b8bbce1-23aa-4232-a8a9-014c97c8e924&amp;xptdk=1b8bbce1-23aa-4232-a8a9-014c97c8e924</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/-馬蹄鐵-Ω-Hermes-kelly-caleche-凱莉驛馬車女性淡香水-100ml-i.8163608.1134665900?sp_atk=e755cd01-d757-431f-b8fa-2fb279705d78&amp;xptdk=e755cd01-d757-431f-b8fa-2fb279705d78</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/🔆-試香🔆-Issey-Miyake-三宅一生-果漾樂園-女性淡香水-1ml-2ml-5ml-玻璃瓶分裝-i.235864816.8211418400?sp_atk=3e05dea1-569d-428e-9671-32b13bb96981&amp;xptdk=3e05dea1-569d-428e-9671-32b13bb96981</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/現貨！ISSEY-MIYAKE三宅一生-印彩大地男性淡香水125ml-〔活顏香水〕-i.4102445.9086693525?sp_atk=8d093428-37e7-497c-99f0-76e1c9c13578&amp;xptdk=8d093428-37e7-497c-99f0-76e1c9c13578</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【七夕情人香】Issey-Miyake-Pleats-Please-三宅一生-花悅-女性淡香水-女香-50ml-送禮生日-i.444142819.10938402650?sp_atk=adf23f99-495d-4bc9-b2aa-c5bdc3230cbd&amp;xptdk=adf23f99-495d-4bc9-b2aa-c5bdc3230cbd</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/《尋香小站-》Issey-Miyake-三宅一生極地探險冷山男性淡香水-125ML-TESTER-全新-無盒-i.6261367.17451925027?sp_atk=28d84230-4384-48fd-b7c4-001b6c231530&amp;xptdk=28d84230-4384-48fd-b7c4-001b6c231530</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/❤️試香❤️Issey-Miyake-三宅一生雲之水女性淡香水-1ml-2ml-5ml-分裝-i.11003780.3181189988?sp_atk=7ad4b7a3-ff45-44eb-82d8-015d59f3b5a3&amp;xptdk=7ad4b7a3-ff45-44eb-82d8-015d59f3b5a3</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/☆YOYO小棧☆-Issey-Miyake-三宅一生-Super-Majeure-超激浪-男性淡香水-i.2921966.2624818833?sp_atk=d9f6972a-ae1a-4b19-ba43-d8d6d7064afe&amp;xptdk=d9f6972a-ae1a-4b19-ba43-d8d6d7064afe</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Issey-Miyake-Fusion-三宅一生-峰暴-男性淡香水-50ml-〔-10點半香水美妝-〕-i.54574900.9802841032?sp_atk=6de337c1-d886-4d90-82cf-90d7f84cfc76&amp;xptdk=6de337c1-d886-4d90-82cf-90d7f84cfc76</t>
+  </si>
+  <si>
     <t>✰YENGEE✰BVLGARI Omnia Pink Sapphire 寶格麗 粉晶 女性淡香水 5ml / 15ml$320已售出 20臺北市大同區找相似</t>
   </si>
   <si>
@@ -1072,6 +1153,87 @@
     <t>🌻快速出貨 Marc Jacobs 不羈女郎女性淡香精4ml EDP$400臺中市西屯區找相似</t>
   </si>
   <si>
+    <t>《尋香小站 》 Abercrombie &amp; Fitch A&amp;F 極致魅力男性淡香精 100ml TESTER 包裝$1,750新北市三重區找相似</t>
+  </si>
+  <si>
+    <t>Abercrombie&amp;Fitch遇見女性淡香精50ml Vivo薇朵滿額折$20$1,590臺北市大安區找相似</t>
+  </si>
+  <si>
+    <t>【金萊美】Elizabeth Arden 雅頓綠茶竹子中性淡香水 分裝試管 針管 2.5ML$40 - $70已售出 28彰化縣員林市找相似</t>
+  </si>
+  <si>
+    <t>【金萊美】Elizabeth Arden 雅頓綠茶柚子中性淡香水 分裝試管 針管 2.5ML$40 - $70已售出 50彰化縣員林市找相似</t>
+  </si>
+  <si>
+    <t>【米】Elizabeth Arden 雅頓 白茶溫煦香草蘭女性淡香水 100ml$850已售出 1臺北市中正區找相似</t>
+  </si>
+  <si>
+    <t>【Elizabeth Arden 雅頓】真愛女性淡香水100ml 台南5顏6色香水化妝品保養品$509臺南市中西區找相似</t>
+  </si>
+  <si>
+    <t>【Elizabeth Arden 伊麗莎白雅頓】Red Door 紅門 女性淡香水 100ml(全新正品)$880高雄市三民區找相似</t>
+  </si>
+  <si>
+    <t>◇MOLI 莫麗◇Elizabeth Arden 雅頓白茶女性淡香水100ml TESTER 101-5348$699已售出 3臺北市中正區找相似</t>
+  </si>
+  <si>
+    <t>~誘香水~Elizabeth Arden Green Tea 雅頓綠茶中性淡香水(1ML分裝試香)$30已售出 3嘉義市東區找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選~歐巴&amp;歐尼~Elizabeth Arden 雅頓白茶花漾甜橘女性淡香水 100ml tester$850 - $899已售出 4新北市三重區找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選已保留《試香》Gres Homme de Gres 清秀佳人男性淡香水 試香紙$268已售出 4新北市汐止區找相似</t>
+  </si>
+  <si>
+    <t>【East 279東貳柒玖服飾】Gres Cabotine卡布丁  粉紅佳人女性淡香水30ML#在台現貨加價購$280臺南市東區找相似</t>
+  </si>
+  <si>
+    <t>❤️愛妮❤️Gres Cabotine Rosalie 瑰麗佳人 女性淡香水 100ml♫$620已售出 1高雄市路竹區找相似</t>
+  </si>
+  <si>
+    <t>Gres Cabotine Gold 金色佳人女性淡香水 30ML$490臺中市烏日區找相似</t>
+  </si>
+  <si>
+    <t>💯正品 HERMES愛馬仕 大地男性淡香水 12.5ml 男香【髮拉麗香水美妝x現貨供應中】$650新北市新莊區找相似</t>
+  </si>
+  <si>
+    <t>波妮香水♥ Hermes 愛馬仕 橘采星光 女性淡香水 30ml / 50ml / 100ml$1,490 - $2,750已售出 2新北市新店區找相似</t>
+  </si>
+  <si>
+    <t>波妮香水♥ Hermes 愛馬仕 李先生的花園 中性淡香水 50ml / 100ml$1,899已售出 7新北市新店區找相似</t>
+  </si>
+  <si>
+    <t>正品分裝香水 Hermes 愛馬仕 尼羅河花園 中性淡香水 香水5 件 9.6折$45 - $145已售出 3臺北市中山區找相似</t>
+  </si>
+  <si>
+    <t>正品分裝香水 HERMES 愛馬仕 地中海花園 Jardin En Mediterranee 中性淡香水 香水5 件 9.6折$45 - $145臺北市中山區找相似</t>
+  </si>
+  <si>
+    <t>{ 馬蹄鐵 Ω }Hermes kelly caleche 凱莉驛馬車女性淡香水 100ml$2,490已售出 3新北市板橋區找相似</t>
+  </si>
+  <si>
+    <t>🔆 試香🔆 Issey Miyake 三宅一生 果漾樂園 女性淡香水 1ml/2ml/5ml 玻璃瓶分裝$30 - $100高雄市三民區找相似</t>
+  </si>
+  <si>
+    <t>現貨！ISSEY MIYAKE三宅一生 印彩大地男性淡香水125ml 〔活顏香水〕$1,680南投縣草屯鎮找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選【七夕情人香】Issey Miyake Pleats Please 三宅一生 花悅 女性淡香水 女香 50ml 送禮生日滿額折$59多件優惠$1,620已售出 5臺北市大安區找相似</t>
+  </si>
+  <si>
+    <t>《尋香小站 》Issey Miyake 三宅一生極地探險冷山男性淡香水 125ML TESTER 全新/無盒$1,250 - $1,280新北市三重區找相似</t>
+  </si>
+  <si>
+    <t>❤️試香❤️Issey Miyake 三宅一生雲之水女性淡香水 1ml/2ml/5ml 分裝$55 - $210已售出 5高雄市新興區找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選☆YOYO小棧☆  Issey Miyake 三宅一生 Super Majeure 超激浪 男性淡香水$1,250 - $1,650已售出 2臺北市萬華區找相似</t>
+  </si>
+  <si>
+    <t>6.5折Issey Miyake Fusion 三宅一生 峰暴 男性淡香水 50ml 〔 10點半香水美妝 〕$2,400$1,550已售出 1臺中市西區找相似</t>
+  </si>
+  <si>
     <t>Bvlgari</t>
   </si>
   <si>
@@ -1183,6 +1345,15 @@
     <t>MARC JACOBS</t>
   </si>
   <si>
+    <t>Elizabeth Arden</t>
+  </si>
+  <si>
+    <t>Gres</t>
+  </si>
+  <si>
+    <t>Hermes</t>
+  </si>
+  <si>
     <t>愛情故事</t>
   </si>
   <si>
@@ -1666,6 +1837,84 @@
     <t>不羈女郎</t>
   </si>
   <si>
+    <t>極致魅力</t>
+  </si>
+  <si>
+    <t>茶竹子</t>
+  </si>
+  <si>
+    <t>茶柚子</t>
+  </si>
+  <si>
+    <t>白茶溫煦香草蘭</t>
+  </si>
+  <si>
+    <t>真愛</t>
+  </si>
+  <si>
+    <t>紅門</t>
+  </si>
+  <si>
+    <t>白茶</t>
+  </si>
+  <si>
+    <t>綠茶</t>
+  </si>
+  <si>
+    <t>白茶花漾甜橘</t>
+  </si>
+  <si>
+    <t>清秀佳人</t>
+  </si>
+  <si>
+    <t>粉紅佳人</t>
+  </si>
+  <si>
+    <t>瑰麗佳人</t>
+  </si>
+  <si>
+    <t>金色佳人</t>
+  </si>
+  <si>
+    <t>大地</t>
+  </si>
+  <si>
+    <t>橘采星光</t>
+  </si>
+  <si>
+    <t>李先生的花園</t>
+  </si>
+  <si>
+    <t>尼羅河花園</t>
+  </si>
+  <si>
+    <t>地中海花園</t>
+  </si>
+  <si>
+    <t>凱莉驛馬車</t>
+  </si>
+  <si>
+    <t xml:space="preserve">果漾樂園 </t>
+  </si>
+  <si>
+    <t>印彩大地</t>
+  </si>
+  <si>
+    <t>花悅</t>
+  </si>
+  <si>
+    <t>極地探險冷山</t>
+  </si>
+  <si>
+    <t>雲之水</t>
+  </si>
+  <si>
+    <t>超激浪</t>
+  </si>
+  <si>
+    <t>峰暴</t>
+  </si>
+  <si>
     <t>LOVE MIMOSA</t>
   </si>
   <si>
@@ -1790,6 +2039,15 @@
   </si>
   <si>
     <t>20220723_184744</t>
+  </si>
+  <si>
+    <t>20220723_165337</t>
+  </si>
+  <si>
+    <t>20220723_142200</t>
+  </si>
+  <si>
+    <t>20220723_131942</t>
   </si>
 </sst>
 </file>
@@ -2160,7 +2418,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L171"/>
+  <dimension ref="A1:L198"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2209,19 +2467,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E2" t="s">
-        <v>390</v>
+        <v>447</v>
       </c>
       <c r="I2" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J2" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2229,19 +2487,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E3" t="s">
-        <v>391</v>
+        <v>448</v>
       </c>
       <c r="I3" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J3" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2249,19 +2507,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="C4" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E4" t="s">
-        <v>392</v>
+        <v>449</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J4" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2269,19 +2527,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E5" t="s">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="I5" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J5" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2289,19 +2547,19 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E6" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="I6" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J6" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2309,19 +2567,19 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E7" t="s">
-        <v>395</v>
+        <v>452</v>
       </c>
       <c r="I7" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J7" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2329,19 +2587,19 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="C8" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E8" t="s">
-        <v>396</v>
+        <v>453</v>
       </c>
       <c r="I8" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J8" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2349,19 +2607,19 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="E9" t="s">
-        <v>397</v>
+        <v>454</v>
       </c>
       <c r="I9" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="J9" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2369,19 +2627,19 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="C10" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="E10" t="s">
-        <v>398</v>
+        <v>455</v>
       </c>
       <c r="I10" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="J10" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2389,19 +2647,19 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="C11" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="E11" t="s">
-        <v>399</v>
+        <v>456</v>
       </c>
       <c r="I11" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="J11" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2409,19 +2667,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="C12" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="E12" t="s">
-        <v>400</v>
+        <v>457</v>
       </c>
       <c r="I12" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="J12" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2429,19 +2687,19 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="C13" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="E13" t="s">
-        <v>401</v>
+        <v>458</v>
       </c>
       <c r="I13" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="J13" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2449,19 +2707,19 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="C14" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="E14" t="s">
-        <v>402</v>
+        <v>459</v>
       </c>
       <c r="I14" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="J14" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2469,19 +2727,19 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>222</v>
       </c>
       <c r="C15" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="E15" t="s">
-        <v>403</v>
+        <v>460</v>
       </c>
       <c r="I15" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="J15" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2489,19 +2747,19 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="C16" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="E16" t="s">
-        <v>404</v>
+        <v>461</v>
       </c>
       <c r="I16" t="s">
-        <v>355</v>
+        <v>409</v>
       </c>
       <c r="J16" t="s">
-        <v>557</v>
+        <v>640</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2509,19 +2767,19 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="C17" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="E17" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="I17" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="J17" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2529,19 +2787,19 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C18" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="E18" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="I18" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="J18" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2549,19 +2807,19 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C19" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="E19" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="I19" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="J19" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2569,19 +2827,19 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>200</v>
+        <v>227</v>
       </c>
       <c r="C20" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="E20" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="I20" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="J20" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2589,19 +2847,19 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>228</v>
       </c>
       <c r="C21" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="E21" t="s">
-        <v>409</v>
+        <v>466</v>
       </c>
       <c r="I21" t="s">
-        <v>358</v>
+        <v>412</v>
       </c>
       <c r="J21" t="s">
-        <v>560</v>
+        <v>643</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2609,19 +2867,19 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>202</v>
+        <v>229</v>
       </c>
       <c r="C22" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="E22" t="s">
-        <v>410</v>
+        <v>467</v>
       </c>
       <c r="I22" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="J22" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2629,19 +2887,19 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>203</v>
+        <v>230</v>
       </c>
       <c r="C23" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="E23" t="s">
-        <v>411</v>
+        <v>468</v>
       </c>
       <c r="I23" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="J23" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2649,19 +2907,19 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C24" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="E24" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="I24" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="J24" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2669,19 +2927,19 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="C25" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="E25" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="I25" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="J25" t="s">
-        <v>562</v>
+        <v>645</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2689,19 +2947,19 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="C26" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="E26" t="s">
+        <v>471</v>
+      </c>
+      <c r="I26" t="s">
         <v>414</v>
       </c>
-      <c r="I26" t="s">
-        <v>360</v>
-      </c>
       <c r="J26" t="s">
-        <v>562</v>
+        <v>645</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2709,19 +2967,19 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>207</v>
+        <v>234</v>
       </c>
       <c r="C27" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="E27" t="s">
+        <v>472</v>
+      </c>
+      <c r="I27" t="s">
         <v>415</v>
       </c>
-      <c r="I27" t="s">
-        <v>361</v>
-      </c>
       <c r="J27" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2729,19 +2987,19 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>208</v>
+        <v>235</v>
       </c>
       <c r="C28" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="E28" t="s">
+        <v>473</v>
+      </c>
+      <c r="I28" t="s">
         <v>416</v>
       </c>
-      <c r="I28" t="s">
-        <v>362</v>
-      </c>
       <c r="J28" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2749,19 +3007,19 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>209</v>
+        <v>236</v>
       </c>
       <c r="C29" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="E29" t="s">
-        <v>417</v>
+        <v>474</v>
       </c>
       <c r="I29" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="J29" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -2769,19 +3027,19 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>210</v>
+        <v>237</v>
       </c>
       <c r="C30" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="E30" t="s">
-        <v>418</v>
+        <v>475</v>
       </c>
       <c r="I30" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="J30" t="s">
-        <v>564</v>
+        <v>647</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2789,19 +3047,19 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>211</v>
+        <v>238</v>
       </c>
       <c r="C31" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="E31" t="s">
-        <v>419</v>
+        <v>476</v>
       </c>
       <c r="I31" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J31" t="s">
-        <v>565</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -2809,19 +3067,19 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>212</v>
+        <v>239</v>
       </c>
       <c r="C32" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="E32" t="s">
-        <v>420</v>
+        <v>477</v>
       </c>
       <c r="I32" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="J32" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2829,19 +3087,19 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>240</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="E33" t="s">
-        <v>421</v>
+        <v>478</v>
       </c>
       <c r="I33" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J33" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2849,19 +3107,19 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="C34" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="E34" t="s">
-        <v>422</v>
+        <v>479</v>
       </c>
       <c r="I34" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J34" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2869,19 +3127,19 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="C35" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="E35" t="s">
-        <v>423</v>
+        <v>480</v>
       </c>
       <c r="I35" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J35" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2889,19 +3147,19 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="C36" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="E36" t="s">
-        <v>424</v>
+        <v>481</v>
       </c>
       <c r="I36" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J36" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -2909,19 +3167,19 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="C37" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="E37" t="s">
-        <v>425</v>
+        <v>482</v>
       </c>
       <c r="I37" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="J37" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2929,19 +3187,19 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="C38" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="E38" t="s">
-        <v>426</v>
+        <v>483</v>
       </c>
       <c r="I38" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="J38" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -2949,19 +3207,19 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="C39" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="E39" t="s">
-        <v>427</v>
+        <v>484</v>
       </c>
       <c r="I39" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="J39" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -2969,19 +3227,19 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="C40" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="E40" t="s">
-        <v>428</v>
+        <v>485</v>
       </c>
       <c r="I40" t="s">
-        <v>366</v>
+        <v>420</v>
       </c>
       <c r="J40" t="s">
-        <v>568</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -2989,19 +3247,19 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="C41" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="E41" t="s">
-        <v>429</v>
+        <v>486</v>
       </c>
       <c r="I41" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="J41" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3009,19 +3267,19 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
       <c r="C42" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="E42" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="I42" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="J42" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3029,19 +3287,19 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="C43" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="E43" t="s">
-        <v>430</v>
+        <v>487</v>
       </c>
       <c r="I43" t="s">
-        <v>367</v>
+        <v>421</v>
       </c>
       <c r="J43" t="s">
-        <v>569</v>
+        <v>652</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3049,19 +3307,19 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>224</v>
+        <v>251</v>
       </c>
       <c r="C44" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="E44" t="s">
-        <v>431</v>
+        <v>488</v>
       </c>
       <c r="I44" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="J44" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3069,19 +3327,19 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>225</v>
+        <v>252</v>
       </c>
       <c r="C45" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="E45" t="s">
-        <v>432</v>
+        <v>489</v>
       </c>
       <c r="I45" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="J45" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3089,19 +3347,19 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>226</v>
+        <v>253</v>
       </c>
       <c r="C46" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="E46" t="s">
-        <v>433</v>
+        <v>490</v>
       </c>
       <c r="I46" t="s">
-        <v>368</v>
+        <v>422</v>
       </c>
       <c r="J46" t="s">
-        <v>570</v>
+        <v>653</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3109,19 +3367,19 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>227</v>
+        <v>254</v>
       </c>
       <c r="C47" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="E47" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="I47" t="s">
-        <v>369</v>
+        <v>423</v>
       </c>
       <c r="J47" t="s">
-        <v>571</v>
+        <v>654</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3129,19 +3387,19 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>228</v>
+        <v>255</v>
       </c>
       <c r="C48" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="E48" t="s">
-        <v>435</v>
+        <v>492</v>
       </c>
       <c r="I48" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="J48" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3149,19 +3407,19 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>229</v>
+        <v>256</v>
       </c>
       <c r="C49" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="E49" t="s">
-        <v>436</v>
+        <v>493</v>
       </c>
       <c r="I49" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="J49" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3169,19 +3427,19 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>230</v>
+        <v>257</v>
       </c>
       <c r="C50" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="E50" t="s">
-        <v>437</v>
+        <v>494</v>
       </c>
       <c r="I50" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="J50" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3189,19 +3447,19 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>231</v>
+        <v>258</v>
       </c>
       <c r="C51" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="E51" t="s">
-        <v>438</v>
+        <v>495</v>
       </c>
       <c r="I51" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="J51" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3209,19 +3467,19 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="C52" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="E52" t="s">
-        <v>439</v>
+        <v>496</v>
       </c>
       <c r="I52" t="s">
-        <v>359</v>
+        <v>413</v>
       </c>
       <c r="J52" t="s">
-        <v>561</v>
+        <v>644</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3229,19 +3487,19 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="C53" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="E53" t="s">
-        <v>440</v>
+        <v>497</v>
       </c>
       <c r="I53" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J53" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3249,19 +3507,19 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="C54" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="E54" t="s">
-        <v>441</v>
+        <v>498</v>
       </c>
       <c r="I54" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J54" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3269,19 +3527,19 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="C55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="E55" t="s">
-        <v>442</v>
+        <v>499</v>
       </c>
       <c r="I55" t="s">
-        <v>365</v>
+        <v>419</v>
       </c>
       <c r="J55" t="s">
-        <v>567</v>
+        <v>650</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3289,19 +3547,19 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="C56" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E56" t="s">
-        <v>443</v>
+        <v>500</v>
       </c>
       <c r="I56" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J56" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3309,19 +3567,19 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>237</v>
+        <v>264</v>
       </c>
       <c r="C57" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="E57" t="s">
-        <v>444</v>
+        <v>501</v>
       </c>
       <c r="I57" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="J57" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3329,19 +3587,19 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>238</v>
+        <v>265</v>
       </c>
       <c r="C58" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="E58" t="s">
-        <v>445</v>
+        <v>502</v>
       </c>
       <c r="I58" t="s">
-        <v>364</v>
+        <v>418</v>
       </c>
       <c r="J58" t="s">
-        <v>566</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3349,19 +3607,19 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>239</v>
+        <v>266</v>
       </c>
       <c r="C59" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="E59" t="s">
-        <v>446</v>
+        <v>503</v>
       </c>
       <c r="I59" t="s">
-        <v>354</v>
+        <v>408</v>
       </c>
       <c r="J59" t="s">
-        <v>556</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3369,19 +3627,19 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>240</v>
+        <v>267</v>
       </c>
       <c r="C60" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="E60" t="s">
-        <v>447</v>
+        <v>504</v>
       </c>
       <c r="I60" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="J60" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3389,19 +3647,19 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>241</v>
+        <v>268</v>
       </c>
       <c r="C61" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="E61" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="I61" t="s">
-        <v>361</v>
+        <v>415</v>
       </c>
       <c r="J61" t="s">
-        <v>563</v>
+        <v>646</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3409,19 +3667,19 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>242</v>
+        <v>269</v>
       </c>
       <c r="C62" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="E62" t="s">
-        <v>448</v>
+        <v>505</v>
       </c>
       <c r="I62" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="J62" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3429,19 +3687,19 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="C63" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="E63" t="s">
-        <v>449</v>
+        <v>506</v>
       </c>
       <c r="I63" t="s">
-        <v>356</v>
+        <v>410</v>
       </c>
       <c r="J63" t="s">
-        <v>558</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3449,19 +3707,19 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="C64" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="E64" t="s">
-        <v>450</v>
+        <v>507</v>
       </c>
       <c r="I64" t="s">
-        <v>352</v>
+        <v>406</v>
       </c>
       <c r="J64" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3469,19 +3727,19 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>245</v>
+        <v>272</v>
       </c>
       <c r="C65" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="E65" t="s">
-        <v>451</v>
+        <v>508</v>
       </c>
       <c r="I65" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="J65" t="s">
-        <v>572</v>
+        <v>655</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3489,19 +3747,19 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="C66" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="E66" t="s">
-        <v>452</v>
+        <v>509</v>
       </c>
       <c r="I66" t="s">
-        <v>370</v>
+        <v>424</v>
       </c>
       <c r="J66" t="s">
-        <v>572</v>
+        <v>655</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3509,19 +3767,19 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>247</v>
+        <v>274</v>
       </c>
       <c r="C67" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="E67" t="s">
-        <v>453</v>
+        <v>510</v>
       </c>
       <c r="I67" t="s">
-        <v>360</v>
+        <v>414</v>
       </c>
       <c r="J67" t="s">
-        <v>562</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3529,19 +3787,19 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>248</v>
+        <v>275</v>
       </c>
       <c r="C68" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="E68" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="I68" t="s">
-        <v>357</v>
+        <v>411</v>
       </c>
       <c r="J68" t="s">
-        <v>559</v>
+        <v>642</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3549,19 +3807,19 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>249</v>
+        <v>276</v>
       </c>
       <c r="C69" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E69" t="s">
-        <v>455</v>
+        <v>512</v>
       </c>
       <c r="I69" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J69" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3569,19 +3827,19 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>250</v>
+        <v>277</v>
       </c>
       <c r="C70" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E70" t="s">
-        <v>456</v>
+        <v>513</v>
       </c>
       <c r="I70" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J70" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3589,19 +3847,19 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>251</v>
+        <v>278</v>
       </c>
       <c r="C71" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E71" t="s">
-        <v>457</v>
+        <v>514</v>
       </c>
       <c r="I71" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J71" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3609,22 +3867,22 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>252</v>
+        <v>279</v>
       </c>
       <c r="C72" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E72" t="s">
-        <v>458</v>
+        <v>515</v>
       </c>
       <c r="F72" t="s">
-        <v>550</v>
+        <v>633</v>
       </c>
       <c r="I72" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J72" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3632,22 +3890,22 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>253</v>
+        <v>280</v>
       </c>
       <c r="C73" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E73" t="s">
-        <v>459</v>
+        <v>516</v>
       </c>
       <c r="F73" t="s">
-        <v>551</v>
+        <v>634</v>
       </c>
       <c r="I73" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J73" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3655,19 +3913,19 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="C74" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E74" t="s">
-        <v>460</v>
+        <v>517</v>
       </c>
       <c r="I74" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J74" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3675,22 +3933,22 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>255</v>
+        <v>282</v>
       </c>
       <c r="C75" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E75" t="s">
-        <v>461</v>
+        <v>518</v>
       </c>
       <c r="F75" t="s">
-        <v>552</v>
+        <v>635</v>
       </c>
       <c r="I75" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J75" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3698,22 +3956,22 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="C76" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E76" t="s">
-        <v>462</v>
+        <v>519</v>
       </c>
       <c r="F76" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="I76" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J76" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3721,19 +3979,19 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="C77" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E77" t="s">
-        <v>463</v>
+        <v>520</v>
       </c>
       <c r="I77" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J77" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3741,19 +3999,19 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="C78" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="E78" t="s">
-        <v>464</v>
+        <v>521</v>
       </c>
       <c r="I78" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J78" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -3761,19 +4019,19 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="C79" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="E79" t="s">
-        <v>465</v>
+        <v>522</v>
       </c>
       <c r="I79" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J79" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -3781,19 +4039,19 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="C80" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="E80" t="s">
-        <v>466</v>
+        <v>523</v>
       </c>
       <c r="I80" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J80" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3801,19 +4059,19 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="C81" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="E81" t="s">
-        <v>467</v>
+        <v>524</v>
       </c>
       <c r="I81" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="J81" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -3821,19 +4079,19 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="C82" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="E82" t="s">
-        <v>468</v>
+        <v>525</v>
       </c>
       <c r="I82" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="J82" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -3841,19 +4099,19 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="C83" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="E83" t="s">
-        <v>469</v>
+        <v>526</v>
       </c>
       <c r="I83" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="J83" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -3861,19 +4119,19 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="C84" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="E84" t="s">
-        <v>470</v>
+        <v>527</v>
       </c>
       <c r="I84" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="J84" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -3881,19 +4139,19 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>265</v>
+        <v>292</v>
       </c>
       <c r="C85" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="E85" t="s">
-        <v>471</v>
+        <v>528</v>
       </c>
       <c r="I85" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="J85" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -3901,19 +4159,19 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>293</v>
       </c>
       <c r="C86" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="E86" t="s">
-        <v>472</v>
+        <v>529</v>
       </c>
       <c r="I86" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="J86" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3921,19 +4179,19 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>267</v>
+        <v>294</v>
       </c>
       <c r="C87" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="E87" t="s">
-        <v>473</v>
+        <v>530</v>
       </c>
       <c r="I87" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="J87" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3941,19 +4199,19 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>295</v>
       </c>
       <c r="C88" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="E88" t="s">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="I88" t="s">
-        <v>376</v>
+        <v>430</v>
       </c>
       <c r="J88" t="s">
-        <v>578</v>
+        <v>661</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3961,19 +4219,19 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>296</v>
       </c>
       <c r="C89" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="E89" t="s">
-        <v>475</v>
+        <v>532</v>
       </c>
       <c r="I89" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="J89" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3981,19 +4239,19 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>270</v>
+        <v>297</v>
       </c>
       <c r="C90" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="E90" t="s">
-        <v>476</v>
+        <v>533</v>
       </c>
       <c r="I90" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="J90" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4001,19 +4259,19 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>298</v>
       </c>
       <c r="C91" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="E91" t="s">
-        <v>477</v>
+        <v>534</v>
       </c>
       <c r="I91" t="s">
-        <v>377</v>
+        <v>431</v>
       </c>
       <c r="J91" t="s">
-        <v>579</v>
+        <v>662</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4021,19 +4279,19 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>299</v>
       </c>
       <c r="C92" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="E92" t="s">
-        <v>478</v>
+        <v>535</v>
       </c>
       <c r="I92" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J92" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4041,19 +4299,19 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="C93" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="E93" t="s">
-        <v>479</v>
+        <v>536</v>
       </c>
       <c r="I93" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J93" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4061,19 +4319,19 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>301</v>
       </c>
       <c r="C94" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="E94" t="s">
-        <v>480</v>
+        <v>537</v>
       </c>
       <c r="I94" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J94" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4081,19 +4339,19 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>302</v>
       </c>
       <c r="C95" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="E95" t="s">
-        <v>481</v>
+        <v>538</v>
       </c>
       <c r="I95" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J95" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4101,19 +4359,19 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>303</v>
       </c>
       <c r="C96" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="E96" t="s">
-        <v>482</v>
+        <v>539</v>
       </c>
       <c r="I96" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J96" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4121,19 +4379,19 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>277</v>
+        <v>304</v>
       </c>
       <c r="C97" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="E97" t="s">
-        <v>483</v>
+        <v>540</v>
       </c>
       <c r="I97" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J97" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4141,19 +4399,19 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>305</v>
       </c>
       <c r="C98" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="E98" t="s">
-        <v>484</v>
+        <v>541</v>
       </c>
       <c r="I98" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J98" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4161,19 +4419,19 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>306</v>
       </c>
       <c r="C99" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="E99" t="s">
-        <v>485</v>
+        <v>542</v>
       </c>
       <c r="I99" t="s">
-        <v>378</v>
+        <v>432</v>
       </c>
       <c r="J99" t="s">
-        <v>580</v>
+        <v>663</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4181,19 +4439,19 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>280</v>
+        <v>307</v>
       </c>
       <c r="C100" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="E100" t="s">
-        <v>486</v>
+        <v>543</v>
       </c>
       <c r="I100" t="s">
-        <v>379</v>
+        <v>433</v>
       </c>
       <c r="J100" t="s">
-        <v>581</v>
+        <v>664</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4201,19 +4459,19 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>308</v>
       </c>
       <c r="C101" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="E101" t="s">
-        <v>487</v>
+        <v>544</v>
       </c>
       <c r="I101" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="J101" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4221,19 +4479,19 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>282</v>
+        <v>309</v>
       </c>
       <c r="C102" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="E102" t="s">
-        <v>488</v>
+        <v>545</v>
       </c>
       <c r="I102" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="J102" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4241,19 +4499,19 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>283</v>
+        <v>310</v>
       </c>
       <c r="C103" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="E103" t="s">
-        <v>489</v>
+        <v>546</v>
       </c>
       <c r="I103" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="J103" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4261,19 +4519,19 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>284</v>
+        <v>311</v>
       </c>
       <c r="C104" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="E104" t="s">
-        <v>490</v>
+        <v>547</v>
       </c>
       <c r="I104" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="J104" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4281,19 +4539,19 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>285</v>
+        <v>312</v>
       </c>
       <c r="C105" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="E105" t="s">
-        <v>491</v>
+        <v>548</v>
       </c>
       <c r="I105" t="s">
-        <v>380</v>
+        <v>434</v>
       </c>
       <c r="J105" t="s">
-        <v>582</v>
+        <v>665</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4301,19 +4559,19 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>313</v>
       </c>
       <c r="C106" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E106" t="s">
-        <v>492</v>
+        <v>549</v>
       </c>
       <c r="I106" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J106" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4321,19 +4579,19 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>314</v>
       </c>
       <c r="C107" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E107" t="s">
-        <v>493</v>
+        <v>550</v>
       </c>
       <c r="I107" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J107" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4341,19 +4599,19 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="C108" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E108" t="s">
-        <v>494</v>
+        <v>551</v>
       </c>
       <c r="I108" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J108" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4361,19 +4619,19 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>289</v>
+        <v>316</v>
       </c>
       <c r="C109" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="E109" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="I109" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="J109" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4381,19 +4639,19 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>290</v>
+        <v>317</v>
       </c>
       <c r="C110" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="E110" t="s">
-        <v>495</v>
+        <v>552</v>
       </c>
       <c r="I110" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="J110" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4401,19 +4659,19 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>291</v>
+        <v>318</v>
       </c>
       <c r="C111" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="E111" t="s">
-        <v>496</v>
+        <v>553</v>
       </c>
       <c r="I111" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J111" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4421,19 +4679,19 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>292</v>
+        <v>319</v>
       </c>
       <c r="C112" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="E112" t="s">
-        <v>497</v>
+        <v>554</v>
       </c>
       <c r="I112" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J112" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4441,19 +4699,19 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>293</v>
+        <v>320</v>
       </c>
       <c r="C113" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="E113" t="s">
-        <v>498</v>
+        <v>555</v>
       </c>
       <c r="I113" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J113" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4461,19 +4719,19 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>294</v>
+        <v>321</v>
       </c>
       <c r="C114" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="E114" t="s">
-        <v>499</v>
+        <v>556</v>
       </c>
       <c r="I114" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="J114" t="s">
-        <v>585</v>
+        <v>668</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4481,19 +4739,19 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>295</v>
+        <v>322</v>
       </c>
       <c r="C115" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="E115" t="s">
-        <v>500</v>
+        <v>557</v>
       </c>
       <c r="I115" t="s">
-        <v>383</v>
+        <v>437</v>
       </c>
       <c r="J115" t="s">
-        <v>585</v>
+        <v>668</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4501,19 +4759,19 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>296</v>
+        <v>323</v>
       </c>
       <c r="C116" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E116" t="s">
-        <v>501</v>
+        <v>558</v>
       </c>
       <c r="I116" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J116" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4521,19 +4779,19 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>297</v>
+        <v>324</v>
       </c>
       <c r="C117" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E117" t="s">
-        <v>502</v>
+        <v>559</v>
       </c>
       <c r="I117" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J117" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4541,19 +4799,19 @@
         <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="C118" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="E118" t="s">
-        <v>503</v>
+        <v>560</v>
       </c>
       <c r="I118" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J118" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4561,19 +4819,19 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>299</v>
+        <v>326</v>
       </c>
       <c r="C119" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="E119" t="s">
-        <v>504</v>
+        <v>561</v>
       </c>
       <c r="I119" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J119" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4581,19 +4839,19 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>300</v>
+        <v>327</v>
       </c>
       <c r="C120" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="E120" t="s">
-        <v>505</v>
+        <v>562</v>
       </c>
       <c r="I120" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J120" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4601,19 +4859,19 @@
         <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>301</v>
+        <v>328</v>
       </c>
       <c r="C121" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="E121" t="s">
-        <v>506</v>
+        <v>563</v>
       </c>
       <c r="I121" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J121" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4621,19 +4879,19 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>302</v>
+        <v>329</v>
       </c>
       <c r="C122" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="E122" t="s">
-        <v>507</v>
+        <v>564</v>
       </c>
       <c r="I122" t="s">
-        <v>373</v>
+        <v>427</v>
       </c>
       <c r="J122" t="s">
-        <v>575</v>
+        <v>658</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4641,19 +4899,19 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>303</v>
+        <v>330</v>
       </c>
       <c r="C123" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="E123" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="I123" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="J123" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4661,19 +4919,19 @@
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>304</v>
+        <v>331</v>
       </c>
       <c r="C124" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="E124" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="I124" t="s">
-        <v>375</v>
+        <v>429</v>
       </c>
       <c r="J124" t="s">
-        <v>577</v>
+        <v>660</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4681,19 +4939,19 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>305</v>
+        <v>332</v>
       </c>
       <c r="C125" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E125" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="I125" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J125" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4701,19 +4959,19 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>306</v>
+        <v>333</v>
       </c>
       <c r="C126" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E126" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="I126" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J126" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4721,19 +4979,19 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>307</v>
+        <v>334</v>
       </c>
       <c r="C127" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E127" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="I127" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J127" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4741,19 +4999,19 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>308</v>
+        <v>335</v>
       </c>
       <c r="C128" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E128" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="I128" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J128" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -4761,19 +5019,19 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="C129" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E129" t="s">
-        <v>514</v>
+        <v>571</v>
       </c>
       <c r="I129" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J129" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -4781,19 +5039,19 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>310</v>
+        <v>337</v>
       </c>
       <c r="C130" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E130" t="s">
-        <v>515</v>
+        <v>572</v>
       </c>
       <c r="I130" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J130" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -4801,19 +5059,19 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>311</v>
+        <v>338</v>
       </c>
       <c r="C131" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E131" t="s">
-        <v>516</v>
+        <v>573</v>
       </c>
       <c r="I131" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J131" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -4821,19 +5079,19 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>312</v>
+        <v>339</v>
       </c>
       <c r="C132" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E132" t="s">
-        <v>517</v>
+        <v>574</v>
       </c>
       <c r="I132" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J132" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -4841,19 +5099,19 @@
         <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>313</v>
+        <v>340</v>
       </c>
       <c r="C133" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E133" t="s">
-        <v>518</v>
+        <v>575</v>
       </c>
       <c r="I133" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J133" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -4861,19 +5119,19 @@
         <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>314</v>
+        <v>341</v>
       </c>
       <c r="C134" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="E134" t="s">
-        <v>519</v>
+        <v>576</v>
       </c>
       <c r="I134" t="s">
-        <v>371</v>
+        <v>425</v>
       </c>
       <c r="J134" t="s">
-        <v>573</v>
+        <v>656</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -4881,19 +5139,19 @@
         <v>145</v>
       </c>
       <c r="B135" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="C135" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="E135" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="I135" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="J135" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -4901,19 +5159,19 @@
         <v>146</v>
       </c>
       <c r="B136" t="s">
-        <v>316</v>
+        <v>343</v>
       </c>
       <c r="C136" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="E136" t="s">
+        <v>492</v>
+      </c>
+      <c r="I136" t="s">
         <v>435</v>
       </c>
-      <c r="I136" t="s">
-        <v>381</v>
-      </c>
       <c r="J136" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -4921,19 +5179,19 @@
         <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>317</v>
+        <v>344</v>
       </c>
       <c r="C137" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="E137" t="s">
-        <v>521</v>
+        <v>578</v>
       </c>
       <c r="I137" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="J137" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4941,19 +5199,19 @@
         <v>148</v>
       </c>
       <c r="B138" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="C138" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="E138" t="s">
-        <v>522</v>
+        <v>579</v>
       </c>
       <c r="I138" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="J138" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -4961,19 +5219,19 @@
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>319</v>
+        <v>346</v>
       </c>
       <c r="C139" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="E139" t="s">
-        <v>454</v>
+        <v>511</v>
       </c>
       <c r="I139" t="s">
-        <v>381</v>
+        <v>435</v>
       </c>
       <c r="J139" t="s">
-        <v>583</v>
+        <v>666</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4981,19 +5239,19 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>320</v>
+        <v>347</v>
       </c>
       <c r="C140" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="E140" t="s">
-        <v>523</v>
+        <v>580</v>
       </c>
       <c r="I140" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="J140" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5001,19 +5259,19 @@
         <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>321</v>
+        <v>348</v>
       </c>
       <c r="C141" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E141" t="s">
-        <v>524</v>
+        <v>581</v>
       </c>
       <c r="I141" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J141" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5021,19 +5279,19 @@
         <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>322</v>
+        <v>349</v>
       </c>
       <c r="C142" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E142" t="s">
-        <v>520</v>
+        <v>577</v>
       </c>
       <c r="I142" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J142" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5041,22 +5299,22 @@
         <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>323</v>
+        <v>350</v>
       </c>
       <c r="C143" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="D143" t="s">
-        <v>389</v>
+        <v>446</v>
       </c>
       <c r="E143" t="s">
-        <v>525</v>
+        <v>582</v>
       </c>
       <c r="I143" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J143" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5064,19 +5322,19 @@
         <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>324</v>
+        <v>351</v>
       </c>
       <c r="C144" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E144" t="s">
-        <v>526</v>
+        <v>583</v>
       </c>
       <c r="I144" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J144" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -5084,19 +5342,19 @@
         <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>325</v>
+        <v>352</v>
       </c>
       <c r="C145" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E145" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="I145" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J145" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="K145">
         <v>1</v>
@@ -5110,19 +5368,19 @@
         <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="C146" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E146" t="s">
-        <v>527</v>
+        <v>584</v>
       </c>
       <c r="I146" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J146" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="K146">
         <v>1</v>
@@ -5136,19 +5394,19 @@
         <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>327</v>
+        <v>354</v>
       </c>
       <c r="C147" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="E147" t="s">
-        <v>528</v>
+        <v>585</v>
       </c>
       <c r="I147" t="s">
-        <v>372</v>
+        <v>426</v>
       </c>
       <c r="J147" t="s">
-        <v>574</v>
+        <v>657</v>
       </c>
       <c r="K147">
         <v>1</v>
@@ -5162,19 +5420,19 @@
         <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>328</v>
+        <v>355</v>
       </c>
       <c r="C148" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="E148" t="s">
-        <v>529</v>
+        <v>586</v>
       </c>
       <c r="I148" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J148" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -5188,19 +5446,19 @@
         <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>329</v>
+        <v>356</v>
       </c>
       <c r="C149" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="E149" t="s">
-        <v>530</v>
+        <v>587</v>
       </c>
       <c r="I149" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J149" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="K149">
         <v>1</v>
@@ -5214,19 +5472,19 @@
         <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>330</v>
+        <v>357</v>
       </c>
       <c r="C150" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="E150" t="s">
-        <v>413</v>
+        <v>470</v>
       </c>
       <c r="I150" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="J150" t="s">
-        <v>584</v>
+        <v>667</v>
       </c>
       <c r="K150">
         <v>1</v>
@@ -5240,19 +5498,19 @@
         <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>331</v>
+        <v>358</v>
       </c>
       <c r="C151" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="E151" t="s">
-        <v>531</v>
+        <v>588</v>
       </c>
       <c r="I151" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="J151" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
       <c r="K151">
         <v>1</v>
@@ -5266,19 +5524,19 @@
         <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>332</v>
+        <v>359</v>
       </c>
       <c r="C152" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="E152" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="I152" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="J152" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
       <c r="K152">
         <v>1</v>
@@ -5292,19 +5550,19 @@
         <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>333</v>
+        <v>360</v>
       </c>
       <c r="C153" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="E153" t="s">
-        <v>533</v>
+        <v>590</v>
       </c>
       <c r="I153" t="s">
-        <v>385</v>
+        <v>439</v>
       </c>
       <c r="J153" t="s">
-        <v>587</v>
+        <v>670</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -5318,19 +5576,19 @@
         <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="C154" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="E154" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="I154" t="s">
-        <v>384</v>
+        <v>438</v>
       </c>
       <c r="J154" t="s">
-        <v>586</v>
+        <v>669</v>
       </c>
       <c r="K154">
         <v>1</v>
@@ -5344,19 +5602,19 @@
         <v>165</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>362</v>
       </c>
       <c r="C155" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="E155" t="s">
-        <v>535</v>
+        <v>592</v>
       </c>
       <c r="I155" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="J155" t="s">
-        <v>588</v>
+        <v>671</v>
       </c>
       <c r="K155">
         <v>1</v>
@@ -5370,19 +5628,19 @@
         <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>336</v>
+        <v>363</v>
       </c>
       <c r="C156" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="E156" t="s">
-        <v>536</v>
+        <v>593</v>
       </c>
       <c r="I156" t="s">
-        <v>386</v>
+        <v>440</v>
       </c>
       <c r="J156" t="s">
-        <v>588</v>
+        <v>671</v>
       </c>
       <c r="K156">
         <v>1</v>
@@ -5396,19 +5654,19 @@
         <v>167</v>
       </c>
       <c r="B157" t="s">
-        <v>337</v>
+        <v>364</v>
       </c>
       <c r="C157" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="E157" t="s">
-        <v>534</v>
+        <v>591</v>
       </c>
       <c r="I157" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J157" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="K157">
         <v>1</v>
@@ -5422,19 +5680,19 @@
         <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>338</v>
+        <v>365</v>
       </c>
       <c r="C158" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="E158" t="s">
-        <v>537</v>
+        <v>594</v>
       </c>
       <c r="I158" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J158" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="K158">
         <v>1</v>
@@ -5448,19 +5706,19 @@
         <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>339</v>
+        <v>366</v>
       </c>
       <c r="C159" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="E159" t="s">
-        <v>538</v>
+        <v>595</v>
       </c>
       <c r="I159" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J159" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="K159">
         <v>1</v>
@@ -5474,19 +5732,19 @@
         <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>340</v>
+        <v>367</v>
       </c>
       <c r="C160" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="E160" t="s">
-        <v>539</v>
+        <v>596</v>
       </c>
       <c r="I160" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J160" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="K160">
         <v>1</v>
@@ -5500,19 +5758,19 @@
         <v>171</v>
       </c>
       <c r="B161" t="s">
-        <v>341</v>
+        <v>368</v>
       </c>
       <c r="C161" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="E161" t="s">
-        <v>540</v>
+        <v>597</v>
       </c>
       <c r="I161" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J161" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="K161">
         <v>1</v>
@@ -5526,19 +5784,19 @@
         <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>342</v>
+        <v>369</v>
       </c>
       <c r="C162" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="E162" t="s">
-        <v>541</v>
+        <v>598</v>
       </c>
       <c r="I162" t="s">
-        <v>363</v>
+        <v>417</v>
       </c>
       <c r="J162" t="s">
-        <v>589</v>
+        <v>672</v>
       </c>
       <c r="K162">
         <v>1</v>
@@ -5552,19 +5810,19 @@
         <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>343</v>
+        <v>370</v>
       </c>
       <c r="C163" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="E163" t="s">
-        <v>542</v>
+        <v>599</v>
       </c>
       <c r="I163" t="s">
-        <v>374</v>
+        <v>428</v>
       </c>
       <c r="J163" t="s">
-        <v>576</v>
+        <v>659</v>
       </c>
       <c r="K163">
         <v>1</v>
@@ -5578,19 +5836,19 @@
         <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>344</v>
+        <v>371</v>
       </c>
       <c r="C164" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="E164" t="s">
-        <v>543</v>
+        <v>600</v>
       </c>
       <c r="I164" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="J164" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="K164">
         <v>1</v>
@@ -5604,19 +5862,19 @@
         <v>175</v>
       </c>
       <c r="B165" t="s">
-        <v>345</v>
+        <v>372</v>
       </c>
       <c r="C165" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="E165" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="I165" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="J165" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="K165">
         <v>1</v>
@@ -5630,19 +5888,19 @@
         <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>346</v>
+        <v>373</v>
       </c>
       <c r="C166" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="E166" t="s">
-        <v>545</v>
+        <v>602</v>
       </c>
       <c r="I166" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="J166" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="K166">
         <v>1</v>
@@ -5656,19 +5914,19 @@
         <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>347</v>
+        <v>374</v>
       </c>
       <c r="C167" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="E167" t="s">
-        <v>546</v>
+        <v>603</v>
       </c>
       <c r="I167" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="J167" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="K167">
         <v>1</v>
@@ -5682,19 +5940,19 @@
         <v>178</v>
       </c>
       <c r="B168" t="s">
-        <v>348</v>
+        <v>375</v>
       </c>
       <c r="C168" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="E168" t="s">
-        <v>547</v>
+        <v>604</v>
       </c>
       <c r="I168" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="J168" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="K168">
         <v>1</v>
@@ -5708,19 +5966,19 @@
         <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>349</v>
+        <v>376</v>
       </c>
       <c r="C169" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="E169" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="I169" t="s">
-        <v>387</v>
+        <v>441</v>
       </c>
       <c r="J169" t="s">
-        <v>590</v>
+        <v>673</v>
       </c>
       <c r="K169">
         <v>1</v>
@@ -5734,19 +5992,19 @@
         <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>350</v>
+        <v>377</v>
       </c>
       <c r="C170" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="E170" t="s">
-        <v>548</v>
+        <v>605</v>
       </c>
       <c r="I170" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="J170" t="s">
-        <v>591</v>
+        <v>674</v>
       </c>
       <c r="K170">
         <v>1</v>
@@ -5760,24 +6018,726 @@
         <v>181</v>
       </c>
       <c r="B171" t="s">
-        <v>351</v>
+        <v>378</v>
       </c>
       <c r="C171" t="s">
+        <v>442</v>
+      </c>
+      <c r="E171" t="s">
+        <v>606</v>
+      </c>
+      <c r="I171" t="s">
+        <v>442</v>
+      </c>
+      <c r="J171" t="s">
+        <v>674</v>
+      </c>
+      <c r="K171">
+        <v>1</v>
+      </c>
+      <c r="L171">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B172" t="s">
+        <v>379</v>
+      </c>
+      <c r="C172" t="s">
+        <v>435</v>
+      </c>
+      <c r="E172" t="s">
+        <v>607</v>
+      </c>
+      <c r="I172" t="s">
+        <v>435</v>
+      </c>
+      <c r="J172" t="s">
+        <v>666</v>
+      </c>
+      <c r="K172">
+        <v>1</v>
+      </c>
+      <c r="L172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B173" t="s">
+        <v>380</v>
+      </c>
+      <c r="C173" t="s">
+        <v>435</v>
+      </c>
+      <c r="E173" t="s">
+        <v>465</v>
+      </c>
+      <c r="I173" t="s">
+        <v>435</v>
+      </c>
+      <c r="J173" t="s">
+        <v>666</v>
+      </c>
+      <c r="K173">
+        <v>1</v>
+      </c>
+      <c r="L173">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B174" t="s">
+        <v>381</v>
+      </c>
+      <c r="C174" t="s">
+        <v>443</v>
+      </c>
+      <c r="E174" t="s">
+        <v>608</v>
+      </c>
+      <c r="I174" t="s">
+        <v>443</v>
+      </c>
+      <c r="J174" t="s">
+        <v>675</v>
+      </c>
+      <c r="K174">
+        <v>1</v>
+      </c>
+      <c r="L174">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B175" t="s">
+        <v>382</v>
+      </c>
+      <c r="C175" t="s">
+        <v>443</v>
+      </c>
+      <c r="E175" t="s">
+        <v>609</v>
+      </c>
+      <c r="I175" t="s">
+        <v>443</v>
+      </c>
+      <c r="J175" t="s">
+        <v>675</v>
+      </c>
+      <c r="K175">
+        <v>1</v>
+      </c>
+      <c r="L175">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B176" t="s">
+        <v>383</v>
+      </c>
+      <c r="C176" t="s">
+        <v>443</v>
+      </c>
+      <c r="E176" t="s">
+        <v>610</v>
+      </c>
+      <c r="I176" t="s">
+        <v>443</v>
+      </c>
+      <c r="J176" t="s">
+        <v>675</v>
+      </c>
+      <c r="K176">
+        <v>1</v>
+      </c>
+      <c r="L176">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B177" t="s">
+        <v>384</v>
+      </c>
+      <c r="C177" t="s">
+        <v>443</v>
+      </c>
+      <c r="E177" t="s">
+        <v>611</v>
+      </c>
+      <c r="I177" t="s">
+        <v>443</v>
+      </c>
+      <c r="J177" t="s">
+        <v>675</v>
+      </c>
+      <c r="K177">
+        <v>1</v>
+      </c>
+      <c r="L177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B178" t="s">
+        <v>385</v>
+      </c>
+      <c r="C178" t="s">
+        <v>443</v>
+      </c>
+      <c r="E178" t="s">
+        <v>612</v>
+      </c>
+      <c r="I178" t="s">
+        <v>443</v>
+      </c>
+      <c r="J178" t="s">
+        <v>675</v>
+      </c>
+      <c r="K178">
+        <v>1</v>
+      </c>
+      <c r="L178">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B179" t="s">
+        <v>386</v>
+      </c>
+      <c r="C179" t="s">
+        <v>443</v>
+      </c>
+      <c r="E179" t="s">
+        <v>613</v>
+      </c>
+      <c r="I179" t="s">
+        <v>443</v>
+      </c>
+      <c r="J179" t="s">
+        <v>675</v>
+      </c>
+      <c r="K179">
+        <v>1</v>
+      </c>
+      <c r="L179">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B180" t="s">
+        <v>387</v>
+      </c>
+      <c r="C180" t="s">
+        <v>443</v>
+      </c>
+      <c r="E180" t="s">
+        <v>614</v>
+      </c>
+      <c r="I180" t="s">
+        <v>443</v>
+      </c>
+      <c r="J180" t="s">
+        <v>675</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B181" t="s">
         <v>388</v>
       </c>
-      <c r="E171" t="s">
-        <v>549</v>
-      </c>
-      <c r="I171" t="s">
-        <v>388</v>
-      </c>
-      <c r="J171" t="s">
-        <v>591</v>
-      </c>
-      <c r="K171">
-        <v>1</v>
-      </c>
-      <c r="L171">
+      <c r="C181" t="s">
+        <v>443</v>
+      </c>
+      <c r="E181" t="s">
+        <v>615</v>
+      </c>
+      <c r="I181" t="s">
+        <v>443</v>
+      </c>
+      <c r="J181" t="s">
+        <v>675</v>
+      </c>
+      <c r="K181">
+        <v>1</v>
+      </c>
+      <c r="L181">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B182" t="s">
+        <v>389</v>
+      </c>
+      <c r="C182" t="s">
+        <v>444</v>
+      </c>
+      <c r="E182" t="s">
+        <v>616</v>
+      </c>
+      <c r="I182" t="s">
+        <v>444</v>
+      </c>
+      <c r="J182" t="s">
+        <v>676</v>
+      </c>
+      <c r="K182">
+        <v>1</v>
+      </c>
+      <c r="L182">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B183" t="s">
+        <v>390</v>
+      </c>
+      <c r="C183" t="s">
+        <v>444</v>
+      </c>
+      <c r="E183" t="s">
+        <v>617</v>
+      </c>
+      <c r="I183" t="s">
+        <v>444</v>
+      </c>
+      <c r="J183" t="s">
+        <v>676</v>
+      </c>
+      <c r="K183">
+        <v>1</v>
+      </c>
+      <c r="L183">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B184" t="s">
+        <v>391</v>
+      </c>
+      <c r="C184" t="s">
+        <v>444</v>
+      </c>
+      <c r="E184" t="s">
+        <v>618</v>
+      </c>
+      <c r="I184" t="s">
+        <v>444</v>
+      </c>
+      <c r="J184" t="s">
+        <v>676</v>
+      </c>
+      <c r="K184">
+        <v>1</v>
+      </c>
+      <c r="L184">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B185" t="s">
+        <v>392</v>
+      </c>
+      <c r="C185" t="s">
+        <v>444</v>
+      </c>
+      <c r="E185" t="s">
+        <v>619</v>
+      </c>
+      <c r="I185" t="s">
+        <v>444</v>
+      </c>
+      <c r="J185" t="s">
+        <v>676</v>
+      </c>
+      <c r="K185">
+        <v>1</v>
+      </c>
+      <c r="L185">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B186" t="s">
+        <v>393</v>
+      </c>
+      <c r="C186" t="s">
+        <v>445</v>
+      </c>
+      <c r="E186" t="s">
+        <v>620</v>
+      </c>
+      <c r="I186" t="s">
+        <v>445</v>
+      </c>
+      <c r="J186" t="s">
+        <v>677</v>
+      </c>
+      <c r="K186">
+        <v>1</v>
+      </c>
+      <c r="L186">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B187" t="s">
+        <v>394</v>
+      </c>
+      <c r="C187" t="s">
+        <v>445</v>
+      </c>
+      <c r="E187" t="s">
+        <v>621</v>
+      </c>
+      <c r="I187" t="s">
+        <v>445</v>
+      </c>
+      <c r="J187" t="s">
+        <v>677</v>
+      </c>
+      <c r="K187">
+        <v>1</v>
+      </c>
+      <c r="L187">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B188" t="s">
+        <v>395</v>
+      </c>
+      <c r="C188" t="s">
+        <v>445</v>
+      </c>
+      <c r="E188" t="s">
+        <v>622</v>
+      </c>
+      <c r="I188" t="s">
+        <v>445</v>
+      </c>
+      <c r="J188" t="s">
+        <v>677</v>
+      </c>
+      <c r="K188">
+        <v>1</v>
+      </c>
+      <c r="L188">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B189" t="s">
+        <v>396</v>
+      </c>
+      <c r="C189" t="s">
+        <v>445</v>
+      </c>
+      <c r="E189" t="s">
+        <v>623</v>
+      </c>
+      <c r="I189" t="s">
+        <v>445</v>
+      </c>
+      <c r="J189" t="s">
+        <v>677</v>
+      </c>
+      <c r="K189">
+        <v>1</v>
+      </c>
+      <c r="L189">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B190" t="s">
+        <v>397</v>
+      </c>
+      <c r="C190" t="s">
+        <v>445</v>
+      </c>
+      <c r="E190" t="s">
+        <v>624</v>
+      </c>
+      <c r="I190" t="s">
+        <v>445</v>
+      </c>
+      <c r="J190" t="s">
+        <v>677</v>
+      </c>
+      <c r="K190">
+        <v>1</v>
+      </c>
+      <c r="L190">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B191" t="s">
+        <v>398</v>
+      </c>
+      <c r="C191" t="s">
+        <v>445</v>
+      </c>
+      <c r="E191" t="s">
+        <v>625</v>
+      </c>
+      <c r="I191" t="s">
+        <v>445</v>
+      </c>
+      <c r="J191" t="s">
+        <v>677</v>
+      </c>
+      <c r="K191">
+        <v>1</v>
+      </c>
+      <c r="L191">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B192" t="s">
+        <v>399</v>
+      </c>
+      <c r="C192" t="s">
+        <v>440</v>
+      </c>
+      <c r="E192" t="s">
+        <v>626</v>
+      </c>
+      <c r="I192" t="s">
+        <v>440</v>
+      </c>
+      <c r="J192" t="s">
+        <v>671</v>
+      </c>
+      <c r="K192">
+        <v>1</v>
+      </c>
+      <c r="L192">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B193" t="s">
+        <v>400</v>
+      </c>
+      <c r="C193" t="s">
+        <v>440</v>
+      </c>
+      <c r="E193" t="s">
+        <v>627</v>
+      </c>
+      <c r="I193" t="s">
+        <v>440</v>
+      </c>
+      <c r="J193" t="s">
+        <v>671</v>
+      </c>
+      <c r="K193">
+        <v>1</v>
+      </c>
+      <c r="L193">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B194" t="s">
+        <v>401</v>
+      </c>
+      <c r="C194" t="s">
+        <v>440</v>
+      </c>
+      <c r="E194" t="s">
+        <v>628</v>
+      </c>
+      <c r="I194" t="s">
+        <v>440</v>
+      </c>
+      <c r="J194" t="s">
+        <v>671</v>
+      </c>
+      <c r="K194">
+        <v>1</v>
+      </c>
+      <c r="L194">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B195" t="s">
+        <v>402</v>
+      </c>
+      <c r="C195" t="s">
+        <v>440</v>
+      </c>
+      <c r="E195" t="s">
+        <v>629</v>
+      </c>
+      <c r="I195" t="s">
+        <v>440</v>
+      </c>
+      <c r="J195" t="s">
+        <v>671</v>
+      </c>
+      <c r="K195">
+        <v>1</v>
+      </c>
+      <c r="L195">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B196" t="s">
+        <v>403</v>
+      </c>
+      <c r="C196" t="s">
+        <v>440</v>
+      </c>
+      <c r="E196" t="s">
+        <v>630</v>
+      </c>
+      <c r="I196" t="s">
+        <v>440</v>
+      </c>
+      <c r="J196" t="s">
+        <v>671</v>
+      </c>
+      <c r="K196">
+        <v>1</v>
+      </c>
+      <c r="L196">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B197" t="s">
+        <v>404</v>
+      </c>
+      <c r="C197" t="s">
+        <v>440</v>
+      </c>
+      <c r="E197" t="s">
+        <v>631</v>
+      </c>
+      <c r="I197" t="s">
+        <v>440</v>
+      </c>
+      <c r="J197" t="s">
+        <v>671</v>
+      </c>
+      <c r="K197">
+        <v>1</v>
+      </c>
+      <c r="L197">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B198" t="s">
+        <v>405</v>
+      </c>
+      <c r="C198" t="s">
+        <v>440</v>
+      </c>
+      <c r="E198" t="s">
+        <v>632</v>
+      </c>
+      <c r="I198" t="s">
+        <v>440</v>
+      </c>
+      <c r="J198" t="s">
+        <v>671</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
         <v>1</v>
       </c>
     </row>
@@ -5953,6 +6913,33 @@
     <hyperlink ref="A169" r:id="rId168"/>
     <hyperlink ref="A170" r:id="rId169"/>
     <hyperlink ref="A171" r:id="rId170"/>
+    <hyperlink ref="A172" r:id="rId171"/>
+    <hyperlink ref="A173" r:id="rId172"/>
+    <hyperlink ref="A174" r:id="rId173"/>
+    <hyperlink ref="A175" r:id="rId174"/>
+    <hyperlink ref="A176" r:id="rId175"/>
+    <hyperlink ref="A177" r:id="rId176"/>
+    <hyperlink ref="A178" r:id="rId177"/>
+    <hyperlink ref="A179" r:id="rId178"/>
+    <hyperlink ref="A180" r:id="rId179"/>
+    <hyperlink ref="A181" r:id="rId180"/>
+    <hyperlink ref="A182" r:id="rId181"/>
+    <hyperlink ref="A183" r:id="rId182"/>
+    <hyperlink ref="A184" r:id="rId183"/>
+    <hyperlink ref="A185" r:id="rId184"/>
+    <hyperlink ref="A186" r:id="rId185"/>
+    <hyperlink ref="A187" r:id="rId186"/>
+    <hyperlink ref="A188" r:id="rId187"/>
+    <hyperlink ref="A189" r:id="rId188"/>
+    <hyperlink ref="A190" r:id="rId189"/>
+    <hyperlink ref="A191" r:id="rId190"/>
+    <hyperlink ref="A192" r:id="rId191"/>
+    <hyperlink ref="A193" r:id="rId192"/>
+    <hyperlink ref="A194" r:id="rId193"/>
+    <hyperlink ref="A195" r:id="rId194"/>
+    <hyperlink ref="A196" r:id="rId195"/>
+    <hyperlink ref="A197" r:id="rId196"/>
+    <hyperlink ref="A198" r:id="rId197"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/2_NLP/Export/ner_done.xlsx
+++ b/2_NLP/Export/ner_done.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1301" uniqueCount="727">
   <si>
     <t>link</t>
   </si>
@@ -643,6 +643,57 @@
     <t>https://shopee.tw/Issey-Miyake-Fusion-三宅一生-峰暴-男性淡香水-50ml-〔-10點半香水美妝-〕-i.54574900.9802841032?sp_atk=6de337c1-d886-4d90-82cf-90d7f84cfc76&amp;xptdk=6de337c1-d886-4d90-82cf-90d7f84cfc76</t>
   </si>
   <si>
+    <t>https://shopee.tw/香水💕💕-HERMES-24-Faubourg-愛馬仕相遇法布街24號女性淡香水-50ml-100ml-i.190487112.3818584424?sp_atk=96a0623b-6bd7-4b9b-90b3-41916c681224&amp;xptdk=96a0623b-6bd7-4b9b-90b3-41916c681224</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【艾莉❤美妝小舖】HERMES-愛馬仕H24男性淡香水針管-2ml-993-4382-i.2298919.13738134427?sp_atk=2cf84aa9-7296-4154-aa9d-6e23d2a9dabc&amp;xptdk=2cf84aa9-7296-4154-aa9d-6e23d2a9dabc</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Hermes-Un-Jardin-Sur-Le-Toit-愛馬仕屋頂花園中性淡香水-分裝-試香-小香-試管香水-5ml-i.354704638.13302895525?sp_atk=92972a6b-05d2-4eee-b87b-d933a30bf531&amp;xptdk=92972a6b-05d2-4eee-b87b-d933a30bf531</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/香水💕💕-Issey-Miyake-三宅一生果漾樂園女性香水-100ml-i.190487112.5718584587?sp_atk=3147016f-a1e7-4866-996a-092ea3dc76e6&amp;xptdk=3147016f-a1e7-4866-996a-092ea3dc76e6</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/盧亞公司貨-John-Varvatos-皇家湛藍男性淡香水-針管／試管1.5ML-i.4386253.15662233445?sp_atk=64f770e1-c727-4547-9b70-43cd30d7353c&amp;xptdk=64f770e1-c727-4547-9b70-43cd30d7353c</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/John-Varvatos-JV-x-NJ-尼克-強納斯-聯名款-男性淡香水-限量版-1.5ml-i.23348355.2430382989?sp_atk=5557b586-653e-4576-b7c5-f25959700924&amp;xptdk=5557b586-653e-4576-b7c5-f25959700924</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/John-Varvatos-Dark-Rebel-Rider-暗黑騎士男性淡香水-1.5ml-試管-i.10463382.800286677?sp_atk=dc3c2a75-1a11-4e26-9b22-315a3fd75faf&amp;xptdk=dc3c2a75-1a11-4e26-9b22-315a3fd75faf</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【現貨】免運-Lancome蘭蔻珍愛午夜玫瑰女士香水-女士淡香水-75ML-i.199923454.6207632325?sp_atk=e458c463-40ba-4144-8d71-148e1765c187&amp;xptdk=e458c463-40ba-4144-8d71-148e1765c187</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/【噴式針管】LANCOME-蘭蔻-珍愛午夜玫瑰-珍愛愛戀-女性淡香精-2ml-i.11003780.9669460913?sp_atk=3b6a250e-0926-4c08-92c4-000998950458&amp;xptdk=3b6a250e-0926-4c08-92c4-000998950458</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Lancome-蘭蔻-璀璨愛戀女性淡香精-5ml-小香【UR8D】-i.1372830.8510933477?sp_atk=7e5f4b3f-f0b6-492b-acb7-6086ad9d84d3&amp;xptdk=7e5f4b3f-f0b6-492b-acb7-6086ad9d84d3</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/現貨！正品公司貨！LANVIN-光韻女性淡香精-30ml-50ml-100ml-i.74996676.14967184422?sp_atk=ee72a55e-5995-49c7-a726-ebea0e53cf9f&amp;xptdk=ee72a55e-5995-49c7-a726-ebea0e53cf9f</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/分香閣LANVIN-Rumeur-2-Rose粉戀玫瑰女性淡香精-分享瓶分裝瓶小ml小香試管針管-i.630102045.15922406647?sp_atk=f922726d-ae11-47a4-ae3c-e8da52ac62a8&amp;xptdk=f922726d-ae11-47a4-ae3c-e8da52ac62a8</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/《試香》Lanvin-Oxygene-Homme-浪凡悠氧男性淡香水-試香紙-i.1559866.8401486?sp_atk=2752033d-b0ce-4dc9-ba7e-dc92180ab5e3&amp;xptdk=2752033d-b0ce-4dc9-ba7e-dc92180ab5e3</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/Lanvin-Eclat-D-Arpege-蘭文-浪凡-光韻女士香水-公司貨100ML-i.4031672.7218032795?sp_atk=3c8ef734-d8ec-472f-9dc8-7360013416b5&amp;xptdk=3c8ef734-d8ec-472f-9dc8-7360013416b5</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/LANVIN-浪凡-Arpege-Pour-Homme-永恆之水男性淡香水-1瓶-30ml-新品正貨-i.4601985.1601184364?sp_atk=dd01ad63-e200-4242-871b-ab763e36f42f&amp;xptdk=dd01ad63-e200-4242-871b-ab763e36f42f</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/LANVIN-Eclat-d'Arpege-浪凡蔚藍海岸男性香水-i.235864816.5022277828?sp_atk=d8de3fea-db5d-4332-af49-878863779a6e&amp;xptdk=d8de3fea-db5d-4332-af49-878863779a6e</t>
+  </si>
+  <si>
+    <t>https://shopee.tw/~誘香水~LOEWE-第7樂章男性淡香水100ml-全新公司貨*-i.4283796.17734497791?sp_atk=cf864704-7f22-4f1c-b963-59458fdd5979&amp;xptdk=cf864704-7f22-4f1c-b963-59458fdd5979</t>
+  </si>
+  <si>
     <t>✰YENGEE✰BVLGARI Omnia Pink Sapphire 寶格麗 粉晶 女性淡香水 5ml / 15ml$320已售出 20臺北市大同區找相似</t>
   </si>
   <si>
@@ -1234,6 +1285,57 @@
     <t>6.5折Issey Miyake Fusion 三宅一生 峰暴 男性淡香水 50ml 〔 10點半香水美妝 〕$2,400$1,550已售出 1臺中市西區找相似</t>
   </si>
   <si>
+    <t>香水💕💕 HERMES 24 Faubourg 愛馬仕相遇法布街24號女性淡香水 50ml/100ml$1,740高雄市新興區找相似</t>
+  </si>
+  <si>
+    <t>【艾莉❤美妝小舖】HERMES 愛馬仕H24男性淡香水針管 2ml 993-4382$99已售出 2臺北市中正區找相似</t>
+  </si>
+  <si>
+    <t>Hermes Un Jardin Sur Le Toit 愛馬仕屋頂花園中性淡香水 分裝 試香 小香 試管香水 5ml$210新竹縣湖口鄉找相似</t>
+  </si>
+  <si>
+    <t>香水💕💕 Issey Miyake 三宅一生果漾樂園女性香水 100ml$1,280高雄市新興區找相似</t>
+  </si>
+  <si>
+    <t>盧亞公司貨 John Varvatos 皇家湛藍男性淡香水 針管／試管1.5ML$80已售出 1新北市五股區找相似</t>
+  </si>
+  <si>
+    <t>John Varvatos JV x NJ 尼克 強納斯 聯名款 男性淡香水 限量版 1.5ml多件優惠$49已售出 1找相似</t>
+  </si>
+  <si>
+    <t>John Varvatos Dark Rebel Rider 暗黑騎士男性淡香水 1.5ml 試管$99臺中市中區找相似</t>
+  </si>
+  <si>
+    <t>【現貨】免運 Lancome蘭蔻珍愛午夜玫瑰女士香水 女士淡香水 75ML$1,690找相似</t>
+  </si>
+  <si>
+    <t>【噴式針管】LANCOME 蘭蔻 珍愛午夜玫瑰 / 珍愛愛戀 女性淡香精 2ml$98已售出 2高雄市新興區找相似</t>
+  </si>
+  <si>
+    <t>8.9折Lancome 蘭蔻 璀璨愛戀女性淡香精 5ml 小香【UR8D】滿額折$30$399$356已售出 1新北市蘆洲區找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選現貨！正品公司貨！LANVIN 光韻女性淡香精 30ml/50ml/100ml$650 - $1,299已售出 7臺中市北屯區找相似</t>
+  </si>
+  <si>
+    <t>分香閣LANVIN Rumeur 2 Rose粉戀玫瑰女性淡香精 分享瓶分裝瓶小ml小香試管針管$35 - $100已售出 8花蓮縣花蓮市找相似</t>
+  </si>
+  <si>
+    <t>蝦皮優選《試香》Lanvin Oxygene Homme 浪凡悠氧男性淡香水 試香紙$35 - $99已售出 3新北市汐止區找相似</t>
+  </si>
+  <si>
+    <t>Lanvin Eclat D Arpege 蘭文 浪凡 光韻女士香水  公司貨100ML$1,300新北市八里區找相似</t>
+  </si>
+  <si>
+    <t>LANVIN 浪凡 Arpege Pour Homme 永恆之水男性淡香水/1瓶/30ml-新品正貨$730新北市新莊區找相似</t>
+  </si>
+  <si>
+    <t>LANVIN Eclat d'Arpege 浪凡蔚藍海岸男性香水$640 - $1,480高雄市三民區找相似</t>
+  </si>
+  <si>
+    <t>~誘香水~LOEWE 第7樂章男性淡香水100ml   全新公司貨*$2,380嘉義市東區找相似</t>
+  </si>
+  <si>
     <t>Bvlgari</t>
   </si>
   <si>
@@ -1913,6 +2015,51 @@
   </si>
   <si>
     <t>峰暴</t>
+  </si>
+  <si>
+    <t>相遇法布街24號</t>
+  </si>
+  <si>
+    <t>H24</t>
+  </si>
+  <si>
+    <t>屋頂花園</t>
+  </si>
+  <si>
+    <t>果漾樂園</t>
+  </si>
+  <si>
+    <t>皇家湛藍</t>
+  </si>
+  <si>
+    <t>尼克強納斯聯名款</t>
+  </si>
+  <si>
+    <t>暗黑騎士</t>
+  </si>
+  <si>
+    <t>珍愛午夜</t>
+  </si>
+  <si>
+    <t>璀璨愛戀</t>
+  </si>
+  <si>
+    <t>光韻</t>
+  </si>
+  <si>
+    <t>粉戀玫瑰</t>
+  </si>
+  <si>
+    <t>悠氧</t>
+  </si>
+  <si>
+    <t>永恆之水</t>
+  </si>
+  <si>
+    <t>蔚藍海岸</t>
+  </si>
+  <si>
+    <t>第7樂章</t>
   </si>
   <si>
     <t>LOVE MIMOSA</t>
@@ -2418,7 +2565,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L198"/>
+  <dimension ref="A1:L215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2467,19 +2614,19 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>226</v>
       </c>
       <c r="C2" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E2" t="s">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="I2" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J2" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2487,19 +2634,19 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E3" t="s">
-        <v>448</v>
+        <v>482</v>
       </c>
       <c r="I3" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J3" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2507,19 +2654,19 @@
         <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>228</v>
       </c>
       <c r="C4" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E4" t="s">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="I4" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J4" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2527,19 +2674,19 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>229</v>
       </c>
       <c r="C5" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E5" t="s">
-        <v>450</v>
+        <v>484</v>
       </c>
       <c r="I5" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J5" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2547,19 +2694,19 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>230</v>
       </c>
       <c r="C6" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E6" t="s">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="I6" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J6" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2567,19 +2714,19 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>231</v>
       </c>
       <c r="C7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E7" t="s">
-        <v>452</v>
+        <v>486</v>
       </c>
       <c r="I7" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J7" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2587,19 +2734,19 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="C8" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E8" t="s">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="I8" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J8" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2607,19 +2754,19 @@
         <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>216</v>
+        <v>233</v>
       </c>
       <c r="C9" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="E9" t="s">
-        <v>454</v>
+        <v>488</v>
       </c>
       <c r="I9" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="J9" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2627,19 +2774,19 @@
         <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>217</v>
+        <v>234</v>
       </c>
       <c r="C10" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="E10" t="s">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="I10" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="J10" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2647,19 +2794,19 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>218</v>
+        <v>235</v>
       </c>
       <c r="C11" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E11" t="s">
-        <v>456</v>
+        <v>490</v>
       </c>
       <c r="I11" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="J11" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2667,19 +2814,19 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>219</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E12" t="s">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="I12" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="J12" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2687,19 +2834,19 @@
         <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>220</v>
+        <v>237</v>
       </c>
       <c r="C13" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s">
-        <v>458</v>
+        <v>492</v>
       </c>
       <c r="I13" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="J13" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2707,19 +2854,19 @@
         <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>221</v>
+        <v>238</v>
       </c>
       <c r="C14" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E14" t="s">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="I14" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="J14" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2727,19 +2874,19 @@
         <v>25</v>
       </c>
       <c r="B15" t="s">
-        <v>222</v>
+        <v>239</v>
       </c>
       <c r="C15" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="E15" t="s">
-        <v>460</v>
+        <v>494</v>
       </c>
       <c r="I15" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="J15" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2747,19 +2894,19 @@
         <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="C16" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="E16" t="s">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="I16" t="s">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="J16" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2767,19 +2914,19 @@
         <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="C17" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="E17" t="s">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="I17" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="J17" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -2787,19 +2934,19 @@
         <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>225</v>
+        <v>242</v>
       </c>
       <c r="C18" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="E18" t="s">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="I18" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="J18" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -2807,19 +2954,19 @@
         <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>226</v>
+        <v>243</v>
       </c>
       <c r="C19" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="E19" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="I19" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="J19" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -2827,19 +2974,19 @@
         <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>227</v>
+        <v>244</v>
       </c>
       <c r="C20" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="E20" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="I20" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="J20" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -2847,19 +2994,19 @@
         <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>228</v>
+        <v>245</v>
       </c>
       <c r="C21" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="E21" t="s">
-        <v>466</v>
+        <v>500</v>
       </c>
       <c r="I21" t="s">
-        <v>412</v>
+        <v>446</v>
       </c>
       <c r="J21" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -2867,19 +3014,19 @@
         <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>229</v>
+        <v>246</v>
       </c>
       <c r="C22" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="E22" t="s">
-        <v>467</v>
+        <v>501</v>
       </c>
       <c r="I22" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="J22" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -2887,19 +3034,19 @@
         <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>247</v>
       </c>
       <c r="C23" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="E23" t="s">
-        <v>468</v>
+        <v>502</v>
       </c>
       <c r="I23" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="J23" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -2907,19 +3054,19 @@
         <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>231</v>
+        <v>248</v>
       </c>
       <c r="C24" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="E24" t="s">
-        <v>469</v>
+        <v>503</v>
       </c>
       <c r="I24" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="J24" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -2927,19 +3074,19 @@
         <v>35</v>
       </c>
       <c r="B25" t="s">
-        <v>232</v>
+        <v>249</v>
       </c>
       <c r="C25" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E25" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="I25" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="J25" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2947,19 +3094,19 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="C26" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E26" t="s">
-        <v>471</v>
+        <v>505</v>
       </c>
       <c r="I26" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="J26" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2967,19 +3114,19 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="C27" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="E27" t="s">
-        <v>472</v>
+        <v>506</v>
       </c>
       <c r="I27" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="J27" t="s">
-        <v>646</v>
+        <v>695</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -2987,19 +3134,19 @@
         <v>38</v>
       </c>
       <c r="B28" t="s">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="C28" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="E28" t="s">
-        <v>473</v>
+        <v>507</v>
       </c>
       <c r="I28" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="J28" t="s">
-        <v>647</v>
+        <v>696</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3007,19 +3154,19 @@
         <v>39</v>
       </c>
       <c r="B29" t="s">
-        <v>236</v>
+        <v>253</v>
       </c>
       <c r="C29" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="E29" t="s">
-        <v>474</v>
+        <v>508</v>
       </c>
       <c r="I29" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="J29" t="s">
-        <v>647</v>
+        <v>696</v>
       </c>
     </row>
     <row r="30" spans="1:10">
@@ -3027,19 +3174,19 @@
         <v>40</v>
       </c>
       <c r="B30" t="s">
-        <v>237</v>
+        <v>254</v>
       </c>
       <c r="C30" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="E30" t="s">
-        <v>475</v>
+        <v>509</v>
       </c>
       <c r="I30" t="s">
-        <v>416</v>
+        <v>450</v>
       </c>
       <c r="J30" t="s">
-        <v>647</v>
+        <v>696</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -3047,19 +3194,19 @@
         <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>238</v>
+        <v>255</v>
       </c>
       <c r="C31" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E31" t="s">
-        <v>476</v>
+        <v>510</v>
       </c>
       <c r="I31" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J31" t="s">
-        <v>648</v>
+        <v>697</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3067,19 +3214,19 @@
         <v>42</v>
       </c>
       <c r="B32" t="s">
-        <v>239</v>
+        <v>256</v>
       </c>
       <c r="C32" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="E32" t="s">
-        <v>477</v>
+        <v>511</v>
       </c>
       <c r="I32" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="J32" t="s">
-        <v>649</v>
+        <v>698</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -3087,19 +3234,19 @@
         <v>43</v>
       </c>
       <c r="B33" t="s">
-        <v>240</v>
+        <v>257</v>
       </c>
       <c r="C33" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E33" t="s">
-        <v>478</v>
+        <v>512</v>
       </c>
       <c r="I33" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="J33" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -3107,19 +3254,19 @@
         <v>44</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="C34" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E34" t="s">
-        <v>479</v>
+        <v>513</v>
       </c>
       <c r="I34" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="J34" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -3127,19 +3274,19 @@
         <v>45</v>
       </c>
       <c r="B35" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="C35" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E35" t="s">
-        <v>480</v>
+        <v>514</v>
       </c>
       <c r="I35" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="J35" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -3147,19 +3294,19 @@
         <v>46</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="C36" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E36" t="s">
-        <v>481</v>
+        <v>515</v>
       </c>
       <c r="I36" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="J36" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
     </row>
     <row r="37" spans="1:10">
@@ -3167,19 +3314,19 @@
         <v>47</v>
       </c>
       <c r="B37" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="C37" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="E37" t="s">
-        <v>482</v>
+        <v>516</v>
       </c>
       <c r="I37" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="J37" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3187,19 +3334,19 @@
         <v>48</v>
       </c>
       <c r="B38" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="C38" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="E38" t="s">
-        <v>483</v>
+        <v>517</v>
       </c>
       <c r="I38" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="J38" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
     </row>
     <row r="39" spans="1:10">
@@ -3207,19 +3354,19 @@
         <v>49</v>
       </c>
       <c r="B39" t="s">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="E39" t="s">
-        <v>484</v>
+        <v>518</v>
       </c>
       <c r="I39" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="J39" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
     </row>
     <row r="40" spans="1:10">
@@ -3227,19 +3374,19 @@
         <v>50</v>
       </c>
       <c r="B40" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="C40" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="E40" t="s">
-        <v>485</v>
+        <v>519</v>
       </c>
       <c r="I40" t="s">
-        <v>420</v>
+        <v>454</v>
       </c>
       <c r="J40" t="s">
-        <v>651</v>
+        <v>700</v>
       </c>
     </row>
     <row r="41" spans="1:10">
@@ -3247,19 +3394,19 @@
         <v>51</v>
       </c>
       <c r="B41" t="s">
-        <v>248</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="E41" t="s">
-        <v>486</v>
+        <v>520</v>
       </c>
       <c r="I41" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="J41" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
     </row>
     <row r="42" spans="1:10">
@@ -3267,19 +3414,19 @@
         <v>52</v>
       </c>
       <c r="B42" t="s">
-        <v>249</v>
+        <v>266</v>
       </c>
       <c r="C42" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="E42" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="I42" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="J42" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
     </row>
     <row r="43" spans="1:10">
@@ -3287,19 +3434,19 @@
         <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>250</v>
+        <v>267</v>
       </c>
       <c r="C43" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="E43" t="s">
-        <v>487</v>
+        <v>521</v>
       </c>
       <c r="I43" t="s">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="J43" t="s">
-        <v>652</v>
+        <v>701</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -3307,19 +3454,19 @@
         <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>251</v>
+        <v>268</v>
       </c>
       <c r="C44" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="E44" t="s">
-        <v>488</v>
+        <v>522</v>
       </c>
       <c r="I44" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="J44" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -3327,19 +3474,19 @@
         <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="C45" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="E45" t="s">
-        <v>489</v>
+        <v>523</v>
       </c>
       <c r="I45" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="J45" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -3347,19 +3494,19 @@
         <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>253</v>
+        <v>270</v>
       </c>
       <c r="C46" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="E46" t="s">
-        <v>490</v>
+        <v>524</v>
       </c>
       <c r="I46" t="s">
-        <v>422</v>
+        <v>456</v>
       </c>
       <c r="J46" t="s">
-        <v>653</v>
+        <v>702</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -3367,19 +3514,19 @@
         <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>254</v>
+        <v>271</v>
       </c>
       <c r="C47" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="E47" t="s">
-        <v>491</v>
+        <v>525</v>
       </c>
       <c r="I47" t="s">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="J47" t="s">
-        <v>654</v>
+        <v>703</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -3387,19 +3534,19 @@
         <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>255</v>
+        <v>272</v>
       </c>
       <c r="C48" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="E48" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="I48" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="J48" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -3407,19 +3554,19 @@
         <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
       <c r="C49" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="E49" t="s">
-        <v>493</v>
+        <v>527</v>
       </c>
       <c r="I49" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="J49" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
     </row>
     <row r="50" spans="1:10">
@@ -3427,19 +3574,19 @@
         <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="C50" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="E50" t="s">
-        <v>494</v>
+        <v>528</v>
       </c>
       <c r="I50" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="J50" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -3447,19 +3594,19 @@
         <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>258</v>
+        <v>275</v>
       </c>
       <c r="C51" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="E51" t="s">
-        <v>495</v>
+        <v>529</v>
       </c>
       <c r="I51" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="J51" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
     </row>
     <row r="52" spans="1:10">
@@ -3467,19 +3614,19 @@
         <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="C52" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="E52" t="s">
-        <v>496</v>
+        <v>530</v>
       </c>
       <c r="I52" t="s">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="J52" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
     </row>
     <row r="53" spans="1:10">
@@ -3487,19 +3634,19 @@
         <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="C53" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E53" t="s">
-        <v>497</v>
+        <v>531</v>
       </c>
       <c r="I53" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="J53" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
     </row>
     <row r="54" spans="1:10">
@@ -3507,19 +3654,19 @@
         <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>261</v>
+        <v>278</v>
       </c>
       <c r="C54" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E54" t="s">
-        <v>498</v>
+        <v>532</v>
       </c>
       <c r="I54" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="J54" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
     </row>
     <row r="55" spans="1:10">
@@ -3527,19 +3674,19 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>279</v>
       </c>
       <c r="C55" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="E55" t="s">
-        <v>499</v>
+        <v>533</v>
       </c>
       <c r="I55" t="s">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="J55" t="s">
-        <v>650</v>
+        <v>699</v>
       </c>
     </row>
     <row r="56" spans="1:10">
@@ -3547,19 +3694,19 @@
         <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>263</v>
+        <v>280</v>
       </c>
       <c r="C56" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E56" t="s">
-        <v>500</v>
+        <v>534</v>
       </c>
       <c r="I56" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J56" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -3567,19 +3714,19 @@
         <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="C57" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="E57" t="s">
-        <v>501</v>
+        <v>535</v>
       </c>
       <c r="I57" t="s">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="J57" t="s">
-        <v>638</v>
+        <v>687</v>
       </c>
     </row>
     <row r="58" spans="1:10">
@@ -3587,19 +3734,19 @@
         <v>68</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>282</v>
       </c>
       <c r="C58" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="E58" t="s">
-        <v>502</v>
+        <v>536</v>
       </c>
       <c r="I58" t="s">
-        <v>418</v>
+        <v>452</v>
       </c>
       <c r="J58" t="s">
-        <v>649</v>
+        <v>698</v>
       </c>
     </row>
     <row r="59" spans="1:10">
@@ -3607,19 +3754,19 @@
         <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>283</v>
       </c>
       <c r="C59" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="E59" t="s">
-        <v>503</v>
+        <v>537</v>
       </c>
       <c r="I59" t="s">
-        <v>408</v>
+        <v>442</v>
       </c>
       <c r="J59" t="s">
-        <v>639</v>
+        <v>688</v>
       </c>
     </row>
     <row r="60" spans="1:10">
@@ -3627,19 +3774,19 @@
         <v>70</v>
       </c>
       <c r="B60" t="s">
-        <v>267</v>
+        <v>284</v>
       </c>
       <c r="C60" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="E60" t="s">
-        <v>504</v>
+        <v>538</v>
       </c>
       <c r="I60" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="J60" t="s">
-        <v>646</v>
+        <v>695</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -3647,19 +3794,19 @@
         <v>71</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>285</v>
       </c>
       <c r="C61" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="E61" t="s">
-        <v>470</v>
+        <v>504</v>
       </c>
       <c r="I61" t="s">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="J61" t="s">
-        <v>646</v>
+        <v>695</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3667,19 +3814,19 @@
         <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="C62" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="E62" t="s">
-        <v>505</v>
+        <v>539</v>
       </c>
       <c r="I62" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="J62" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
     </row>
     <row r="63" spans="1:10">
@@ -3687,19 +3834,19 @@
         <v>73</v>
       </c>
       <c r="B63" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="C63" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="E63" t="s">
-        <v>506</v>
+        <v>540</v>
       </c>
       <c r="I63" t="s">
-        <v>410</v>
+        <v>444</v>
       </c>
       <c r="J63" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
     </row>
     <row r="64" spans="1:10">
@@ -3707,19 +3854,19 @@
         <v>74</v>
       </c>
       <c r="B64" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
       <c r="C64" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="E64" t="s">
-        <v>507</v>
+        <v>541</v>
       </c>
       <c r="I64" t="s">
-        <v>406</v>
+        <v>440</v>
       </c>
       <c r="J64" t="s">
-        <v>637</v>
+        <v>686</v>
       </c>
     </row>
     <row r="65" spans="1:10">
@@ -3727,19 +3874,19 @@
         <v>75</v>
       </c>
       <c r="B65" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="C65" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="E65" t="s">
-        <v>508</v>
+        <v>542</v>
       </c>
       <c r="I65" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="J65" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
     </row>
     <row r="66" spans="1:10">
@@ -3747,19 +3894,19 @@
         <v>76</v>
       </c>
       <c r="B66" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
       <c r="C66" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="E66" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="I66" t="s">
-        <v>424</v>
+        <v>458</v>
       </c>
       <c r="J66" t="s">
-        <v>655</v>
+        <v>704</v>
       </c>
     </row>
     <row r="67" spans="1:10">
@@ -3767,19 +3914,19 @@
         <v>77</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="C67" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="E67" t="s">
-        <v>510</v>
+        <v>544</v>
       </c>
       <c r="I67" t="s">
-        <v>414</v>
+        <v>448</v>
       </c>
       <c r="J67" t="s">
-        <v>645</v>
+        <v>694</v>
       </c>
     </row>
     <row r="68" spans="1:10">
@@ -3787,19 +3934,19 @@
         <v>78</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
       <c r="C68" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="E68" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="I68" t="s">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="J68" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -3807,19 +3954,19 @@
         <v>79</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="C69" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E69" t="s">
-        <v>512</v>
+        <v>546</v>
       </c>
       <c r="I69" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J69" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="70" spans="1:10">
@@ -3827,19 +3974,19 @@
         <v>80</v>
       </c>
       <c r="B70" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
       <c r="C70" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E70" t="s">
-        <v>513</v>
+        <v>547</v>
       </c>
       <c r="I70" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J70" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="71" spans="1:10">
@@ -3847,19 +3994,19 @@
         <v>81</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="C71" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E71" t="s">
-        <v>514</v>
+        <v>548</v>
       </c>
       <c r="I71" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J71" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -3867,22 +4014,22 @@
         <v>82</v>
       </c>
       <c r="B72" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
       <c r="C72" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E72" t="s">
-        <v>515</v>
+        <v>549</v>
       </c>
       <c r="F72" t="s">
-        <v>633</v>
+        <v>682</v>
       </c>
       <c r="I72" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J72" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
     </row>
     <row r="73" spans="1:10">
@@ -3890,22 +4037,22 @@
         <v>83</v>
       </c>
       <c r="B73" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="C73" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E73" t="s">
-        <v>516</v>
+        <v>550</v>
       </c>
       <c r="F73" t="s">
-        <v>634</v>
+        <v>683</v>
       </c>
       <c r="I73" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J73" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
     </row>
     <row r="74" spans="1:10">
@@ -3913,19 +4060,19 @@
         <v>84</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
       <c r="C74" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E74" t="s">
-        <v>517</v>
+        <v>551</v>
       </c>
       <c r="I74" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J74" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
     </row>
     <row r="75" spans="1:10">
@@ -3933,22 +4080,22 @@
         <v>85</v>
       </c>
       <c r="B75" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="C75" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E75" t="s">
-        <v>518</v>
+        <v>552</v>
       </c>
       <c r="F75" t="s">
-        <v>635</v>
+        <v>684</v>
       </c>
       <c r="I75" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J75" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
     </row>
     <row r="76" spans="1:10">
@@ -3956,22 +4103,22 @@
         <v>86</v>
       </c>
       <c r="B76" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="C76" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E76" t="s">
-        <v>519</v>
+        <v>553</v>
       </c>
       <c r="F76" t="s">
-        <v>636</v>
+        <v>685</v>
       </c>
       <c r="I76" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J76" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
     </row>
     <row r="77" spans="1:10">
@@ -3979,19 +4126,19 @@
         <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="C77" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E77" t="s">
-        <v>520</v>
+        <v>554</v>
       </c>
       <c r="I77" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J77" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
     </row>
     <row r="78" spans="1:10">
@@ -3999,19 +4146,19 @@
         <v>88</v>
       </c>
       <c r="B78" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
       <c r="C78" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E78" t="s">
-        <v>521</v>
+        <v>555</v>
       </c>
       <c r="I78" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="J78" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="79" spans="1:10">
@@ -4019,19 +4166,19 @@
         <v>89</v>
       </c>
       <c r="B79" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="C79" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E79" t="s">
-        <v>522</v>
+        <v>556</v>
       </c>
       <c r="I79" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="J79" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="80" spans="1:10">
@@ -4039,19 +4186,19 @@
         <v>90</v>
       </c>
       <c r="B80" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
       <c r="C80" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E80" t="s">
-        <v>523</v>
+        <v>557</v>
       </c>
       <c r="I80" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="J80" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -4059,19 +4206,19 @@
         <v>91</v>
       </c>
       <c r="B81" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="C81" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="E81" t="s">
-        <v>524</v>
+        <v>558</v>
       </c>
       <c r="I81" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="J81" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
     </row>
     <row r="82" spans="1:10">
@@ -4079,19 +4226,19 @@
         <v>92</v>
       </c>
       <c r="B82" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
       <c r="C82" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="E82" t="s">
-        <v>525</v>
+        <v>559</v>
       </c>
       <c r="I82" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="J82" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
     </row>
     <row r="83" spans="1:10">
@@ -4099,19 +4246,19 @@
         <v>93</v>
       </c>
       <c r="B83" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="C83" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="E83" t="s">
-        <v>526</v>
+        <v>560</v>
       </c>
       <c r="I83" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="J83" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
     </row>
     <row r="84" spans="1:10">
@@ -4119,19 +4266,19 @@
         <v>94</v>
       </c>
       <c r="B84" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
       <c r="C84" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="E84" t="s">
-        <v>527</v>
+        <v>561</v>
       </c>
       <c r="I84" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="J84" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
     </row>
     <row r="85" spans="1:10">
@@ -4139,19 +4286,19 @@
         <v>95</v>
       </c>
       <c r="B85" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="C85" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="E85" t="s">
-        <v>528</v>
+        <v>562</v>
       </c>
       <c r="I85" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="J85" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -4159,19 +4306,19 @@
         <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
       <c r="C86" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="E86" t="s">
-        <v>529</v>
+        <v>563</v>
       </c>
       <c r="I86" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="J86" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -4179,19 +4326,19 @@
         <v>97</v>
       </c>
       <c r="B87" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="C87" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="E87" t="s">
-        <v>530</v>
+        <v>564</v>
       </c>
       <c r="I87" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="J87" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -4199,19 +4346,19 @@
         <v>98</v>
       </c>
       <c r="B88" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
       <c r="C88" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="E88" t="s">
-        <v>531</v>
+        <v>565</v>
       </c>
       <c r="I88" t="s">
-        <v>430</v>
+        <v>464</v>
       </c>
       <c r="J88" t="s">
-        <v>661</v>
+        <v>710</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -4219,19 +4366,19 @@
         <v>99</v>
       </c>
       <c r="B89" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="C89" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="E89" t="s">
-        <v>532</v>
+        <v>566</v>
       </c>
       <c r="I89" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="J89" t="s">
-        <v>662</v>
+        <v>711</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -4239,19 +4386,19 @@
         <v>100</v>
       </c>
       <c r="B90" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
       <c r="C90" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="E90" t="s">
-        <v>533</v>
+        <v>567</v>
       </c>
       <c r="I90" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="J90" t="s">
-        <v>662</v>
+        <v>711</v>
       </c>
     </row>
     <row r="91" spans="1:10">
@@ -4259,19 +4406,19 @@
         <v>101</v>
       </c>
       <c r="B91" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="C91" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="E91" t="s">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="I91" t="s">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="J91" t="s">
-        <v>662</v>
+        <v>711</v>
       </c>
     </row>
     <row r="92" spans="1:10">
@@ -4279,19 +4426,19 @@
         <v>102</v>
       </c>
       <c r="B92" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="C92" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E92" t="s">
-        <v>535</v>
+        <v>569</v>
       </c>
       <c r="I92" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J92" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="93" spans="1:10">
@@ -4299,19 +4446,19 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="C93" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E93" t="s">
-        <v>536</v>
+        <v>570</v>
       </c>
       <c r="I93" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J93" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -4319,19 +4466,19 @@
         <v>104</v>
       </c>
       <c r="B94" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
       <c r="C94" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E94" t="s">
-        <v>537</v>
+        <v>571</v>
       </c>
       <c r="I94" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J94" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -4339,19 +4486,19 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="C95" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E95" t="s">
-        <v>538</v>
+        <v>572</v>
       </c>
       <c r="I95" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J95" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="96" spans="1:10">
@@ -4359,19 +4506,19 @@
         <v>106</v>
       </c>
       <c r="B96" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="C96" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E96" t="s">
-        <v>539</v>
+        <v>573</v>
       </c>
       <c r="I96" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J96" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="97" spans="1:10">
@@ -4379,19 +4526,19 @@
         <v>107</v>
       </c>
       <c r="B97" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="C97" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E97" t="s">
-        <v>540</v>
+        <v>574</v>
       </c>
       <c r="I97" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J97" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="98" spans="1:10">
@@ -4399,19 +4546,19 @@
         <v>108</v>
       </c>
       <c r="B98" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="C98" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E98" t="s">
-        <v>541</v>
+        <v>575</v>
       </c>
       <c r="I98" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J98" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="99" spans="1:10">
@@ -4419,19 +4566,19 @@
         <v>109</v>
       </c>
       <c r="B99" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C99" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="E99" t="s">
-        <v>542</v>
+        <v>576</v>
       </c>
       <c r="I99" t="s">
-        <v>432</v>
+        <v>466</v>
       </c>
       <c r="J99" t="s">
-        <v>663</v>
+        <v>712</v>
       </c>
     </row>
     <row r="100" spans="1:10">
@@ -4439,19 +4586,19 @@
         <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="C100" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="E100" t="s">
-        <v>543</v>
+        <v>577</v>
       </c>
       <c r="I100" t="s">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="J100" t="s">
-        <v>664</v>
+        <v>713</v>
       </c>
     </row>
     <row r="101" spans="1:10">
@@ -4459,19 +4606,19 @@
         <v>111</v>
       </c>
       <c r="B101" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="C101" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="E101" t="s">
-        <v>544</v>
+        <v>578</v>
       </c>
       <c r="I101" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="J101" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
     </row>
     <row r="102" spans="1:10">
@@ -4479,19 +4626,19 @@
         <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
       <c r="C102" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="E102" t="s">
-        <v>545</v>
+        <v>579</v>
       </c>
       <c r="I102" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="J102" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
     </row>
     <row r="103" spans="1:10">
@@ -4499,19 +4646,19 @@
         <v>113</v>
       </c>
       <c r="B103" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="C103" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="E103" t="s">
-        <v>546</v>
+        <v>580</v>
       </c>
       <c r="I103" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="J103" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
     </row>
     <row r="104" spans="1:10">
@@ -4519,19 +4666,19 @@
         <v>114</v>
       </c>
       <c r="B104" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
       <c r="C104" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="E104" t="s">
-        <v>547</v>
+        <v>581</v>
       </c>
       <c r="I104" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="J104" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
     </row>
     <row r="105" spans="1:10">
@@ -4539,19 +4686,19 @@
         <v>115</v>
       </c>
       <c r="B105" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="C105" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="E105" t="s">
-        <v>548</v>
+        <v>582</v>
       </c>
       <c r="I105" t="s">
-        <v>434</v>
+        <v>468</v>
       </c>
       <c r="J105" t="s">
-        <v>665</v>
+        <v>714</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -4559,19 +4706,19 @@
         <v>116</v>
       </c>
       <c r="B106" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
       <c r="C106" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E106" t="s">
-        <v>549</v>
+        <v>583</v>
       </c>
       <c r="I106" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J106" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -4579,19 +4726,19 @@
         <v>117</v>
       </c>
       <c r="B107" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="C107" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E107" t="s">
-        <v>550</v>
+        <v>584</v>
       </c>
       <c r="I107" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J107" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="108" spans="1:10">
@@ -4599,19 +4746,19 @@
         <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
       <c r="C108" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E108" t="s">
-        <v>551</v>
+        <v>585</v>
       </c>
       <c r="I108" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J108" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="109" spans="1:10">
@@ -4619,19 +4766,19 @@
         <v>119</v>
       </c>
       <c r="B109" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="C109" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E109" t="s">
-        <v>464</v>
+        <v>498</v>
       </c>
       <c r="I109" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J109" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
     </row>
     <row r="110" spans="1:10">
@@ -4639,19 +4786,19 @@
         <v>120</v>
       </c>
       <c r="B110" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
       <c r="C110" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E110" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="I110" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J110" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
     </row>
     <row r="111" spans="1:10">
@@ -4659,19 +4806,19 @@
         <v>121</v>
       </c>
       <c r="B111" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="C111" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="E111" t="s">
-        <v>553</v>
+        <v>587</v>
       </c>
       <c r="I111" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="J111" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
     </row>
     <row r="112" spans="1:10">
@@ -4679,19 +4826,19 @@
         <v>122</v>
       </c>
       <c r="B112" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="E112" t="s">
-        <v>554</v>
+        <v>588</v>
       </c>
       <c r="I112" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="J112" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
     </row>
     <row r="113" spans="1:10">
@@ -4699,19 +4846,19 @@
         <v>123</v>
       </c>
       <c r="B113" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="C113" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="E113" t="s">
-        <v>555</v>
+        <v>589</v>
       </c>
       <c r="I113" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="J113" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
     </row>
     <row r="114" spans="1:10">
@@ -4719,19 +4866,19 @@
         <v>124</v>
       </c>
       <c r="B114" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C114" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="E114" t="s">
-        <v>556</v>
+        <v>590</v>
       </c>
       <c r="I114" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="J114" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
     </row>
     <row r="115" spans="1:10">
@@ -4739,19 +4886,19 @@
         <v>125</v>
       </c>
       <c r="B115" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="C115" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="E115" t="s">
-        <v>557</v>
+        <v>591</v>
       </c>
       <c r="I115" t="s">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="J115" t="s">
-        <v>668</v>
+        <v>717</v>
       </c>
     </row>
     <row r="116" spans="1:10">
@@ -4759,19 +4906,19 @@
         <v>126</v>
       </c>
       <c r="B116" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
       <c r="C116" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="E116" t="s">
-        <v>558</v>
+        <v>592</v>
       </c>
       <c r="I116" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="J116" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
     </row>
     <row r="117" spans="1:10">
@@ -4779,19 +4926,19 @@
         <v>127</v>
       </c>
       <c r="B117" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="C117" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="E117" t="s">
-        <v>559</v>
+        <v>593</v>
       </c>
       <c r="I117" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="J117" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
     </row>
     <row r="118" spans="1:10">
@@ -4799,19 +4946,19 @@
         <v>128</v>
       </c>
       <c r="B118" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E118" t="s">
-        <v>560</v>
+        <v>594</v>
       </c>
       <c r="I118" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="J118" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="119" spans="1:10">
@@ -4819,19 +4966,19 @@
         <v>129</v>
       </c>
       <c r="B119" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="C119" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E119" t="s">
-        <v>561</v>
+        <v>595</v>
       </c>
       <c r="I119" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="J119" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="120" spans="1:10">
@@ -4839,19 +4986,19 @@
         <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="C120" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E120" t="s">
-        <v>562</v>
+        <v>596</v>
       </c>
       <c r="I120" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="J120" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="121" spans="1:10">
@@ -4859,19 +5006,19 @@
         <v>131</v>
       </c>
       <c r="B121" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="C121" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E121" t="s">
-        <v>563</v>
+        <v>597</v>
       </c>
       <c r="I121" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="J121" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="122" spans="1:10">
@@ -4879,19 +5026,19 @@
         <v>132</v>
       </c>
       <c r="B122" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
       <c r="C122" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="E122" t="s">
-        <v>564</v>
+        <v>598</v>
       </c>
       <c r="I122" t="s">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="J122" t="s">
-        <v>658</v>
+        <v>707</v>
       </c>
     </row>
     <row r="123" spans="1:10">
@@ -4899,19 +5046,19 @@
         <v>133</v>
       </c>
       <c r="B123" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="C123" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="E123" t="s">
-        <v>565</v>
+        <v>599</v>
       </c>
       <c r="I123" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="J123" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4919,19 +5066,19 @@
         <v>134</v>
       </c>
       <c r="B124" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
       <c r="C124" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="E124" t="s">
-        <v>566</v>
+        <v>600</v>
       </c>
       <c r="I124" t="s">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="J124" t="s">
-        <v>660</v>
+        <v>709</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4939,19 +5086,19 @@
         <v>135</v>
       </c>
       <c r="B125" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="C125" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E125" t="s">
-        <v>567</v>
+        <v>601</v>
       </c>
       <c r="I125" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J125" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="126" spans="1:10">
@@ -4959,19 +5106,19 @@
         <v>136</v>
       </c>
       <c r="B126" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="C126" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E126" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="I126" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J126" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="127" spans="1:10">
@@ -4979,19 +5126,19 @@
         <v>137</v>
       </c>
       <c r="B127" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="C127" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E127" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="I127" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J127" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="128" spans="1:10">
@@ -4999,19 +5146,19 @@
         <v>138</v>
       </c>
       <c r="B128" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
       <c r="C128" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="E128" t="s">
-        <v>570</v>
+        <v>604</v>
       </c>
       <c r="I128" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="J128" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
     </row>
     <row r="129" spans="1:10">
@@ -5019,19 +5166,19 @@
         <v>139</v>
       </c>
       <c r="B129" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="C129" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E129" t="s">
-        <v>571</v>
+        <v>605</v>
       </c>
       <c r="I129" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J129" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="130" spans="1:10">
@@ -5039,19 +5186,19 @@
         <v>140</v>
       </c>
       <c r="B130" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
       <c r="C130" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E130" t="s">
-        <v>572</v>
+        <v>606</v>
       </c>
       <c r="I130" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J130" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="131" spans="1:10">
@@ -5059,19 +5206,19 @@
         <v>141</v>
       </c>
       <c r="B131" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="C131" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E131" t="s">
-        <v>573</v>
+        <v>607</v>
       </c>
       <c r="I131" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J131" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="132" spans="1:10">
@@ -5079,19 +5226,19 @@
         <v>142</v>
       </c>
       <c r="B132" t="s">
-        <v>339</v>
+        <v>356</v>
       </c>
       <c r="C132" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E132" t="s">
-        <v>574</v>
+        <v>608</v>
       </c>
       <c r="I132" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J132" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
     </row>
     <row r="133" spans="1:10">
@@ -5099,19 +5246,19 @@
         <v>143</v>
       </c>
       <c r="B133" t="s">
-        <v>340</v>
+        <v>357</v>
       </c>
       <c r="C133" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E133" t="s">
-        <v>575</v>
+        <v>609</v>
       </c>
       <c r="I133" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J133" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="134" spans="1:10">
@@ -5119,19 +5266,19 @@
         <v>144</v>
       </c>
       <c r="B134" t="s">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="C134" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="E134" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="I134" t="s">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="J134" t="s">
-        <v>656</v>
+        <v>705</v>
       </c>
     </row>
     <row r="135" spans="1:10">
@@ -5139,19 +5286,19 @@
         <v>145</v>
       </c>
       <c r="B135" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="C135" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E135" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="I135" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J135" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
     </row>
     <row r="136" spans="1:10">
@@ -5159,19 +5306,19 @@
         <v>146</v>
       </c>
       <c r="B136" t="s">
-        <v>343</v>
+        <v>360</v>
       </c>
       <c r="C136" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E136" t="s">
-        <v>492</v>
+        <v>526</v>
       </c>
       <c r="I136" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J136" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
     </row>
     <row r="137" spans="1:10">
@@ -5179,19 +5326,19 @@
         <v>147</v>
       </c>
       <c r="B137" t="s">
-        <v>344</v>
+        <v>361</v>
       </c>
       <c r="C137" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E137" t="s">
-        <v>578</v>
+        <v>612</v>
       </c>
       <c r="I137" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J137" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -5199,19 +5346,19 @@
         <v>148</v>
       </c>
       <c r="B138" t="s">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="C138" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E138" t="s">
-        <v>579</v>
+        <v>613</v>
       </c>
       <c r="I138" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J138" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -5219,19 +5366,19 @@
         <v>149</v>
       </c>
       <c r="B139" t="s">
-        <v>346</v>
+        <v>363</v>
       </c>
       <c r="C139" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E139" t="s">
-        <v>511</v>
+        <v>545</v>
       </c>
       <c r="I139" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J139" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -5239,19 +5386,19 @@
         <v>150</v>
       </c>
       <c r="B140" t="s">
-        <v>347</v>
+        <v>364</v>
       </c>
       <c r="C140" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="E140" t="s">
-        <v>580</v>
+        <v>614</v>
       </c>
       <c r="I140" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="J140" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
     </row>
     <row r="141" spans="1:10">
@@ -5259,19 +5406,19 @@
         <v>151</v>
       </c>
       <c r="B141" t="s">
-        <v>348</v>
+        <v>365</v>
       </c>
       <c r="C141" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="E141" t="s">
-        <v>581</v>
+        <v>615</v>
       </c>
       <c r="I141" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="J141" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
     </row>
     <row r="142" spans="1:10">
@@ -5279,19 +5426,19 @@
         <v>152</v>
       </c>
       <c r="B142" t="s">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="C142" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="E142" t="s">
-        <v>577</v>
+        <v>611</v>
       </c>
       <c r="I142" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="J142" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
     </row>
     <row r="143" spans="1:10">
@@ -5299,22 +5446,22 @@
         <v>153</v>
       </c>
       <c r="B143" t="s">
-        <v>350</v>
+        <v>367</v>
       </c>
       <c r="C143" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="D143" t="s">
-        <v>446</v>
+        <v>480</v>
       </c>
       <c r="E143" t="s">
-        <v>582</v>
+        <v>616</v>
       </c>
       <c r="I143" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="J143" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
     </row>
     <row r="144" spans="1:10">
@@ -5322,19 +5469,19 @@
         <v>154</v>
       </c>
       <c r="B144" t="s">
-        <v>351</v>
+        <v>368</v>
       </c>
       <c r="C144" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="E144" t="s">
-        <v>583</v>
+        <v>617</v>
       </c>
       <c r="I144" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="J144" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
     </row>
     <row r="145" spans="1:12">
@@ -5342,19 +5489,19 @@
         <v>155</v>
       </c>
       <c r="B145" t="s">
-        <v>352</v>
+        <v>369</v>
       </c>
       <c r="C145" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E145" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="I145" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J145" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="K145">
         <v>1</v>
@@ -5368,19 +5515,19 @@
         <v>156</v>
       </c>
       <c r="B146" t="s">
-        <v>353</v>
+        <v>370</v>
       </c>
       <c r="C146" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E146" t="s">
-        <v>584</v>
+        <v>618</v>
       </c>
       <c r="I146" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J146" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="K146">
         <v>1</v>
@@ -5394,19 +5541,19 @@
         <v>157</v>
       </c>
       <c r="B147" t="s">
-        <v>354</v>
+        <v>371</v>
       </c>
       <c r="C147" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="E147" t="s">
-        <v>585</v>
+        <v>619</v>
       </c>
       <c r="I147" t="s">
-        <v>426</v>
+        <v>460</v>
       </c>
       <c r="J147" t="s">
-        <v>657</v>
+        <v>706</v>
       </c>
       <c r="K147">
         <v>1</v>
@@ -5420,19 +5567,19 @@
         <v>158</v>
       </c>
       <c r="B148" t="s">
-        <v>355</v>
+        <v>372</v>
       </c>
       <c r="C148" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="E148" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="I148" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="J148" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="K148">
         <v>1</v>
@@ -5446,19 +5593,19 @@
         <v>159</v>
       </c>
       <c r="B149" t="s">
-        <v>356</v>
+        <v>373</v>
       </c>
       <c r="C149" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="E149" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="I149" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="J149" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="K149">
         <v>1</v>
@@ -5472,19 +5619,19 @@
         <v>160</v>
       </c>
       <c r="B150" t="s">
-        <v>357</v>
+        <v>374</v>
       </c>
       <c r="C150" t="s">
-        <v>436</v>
+        <v>470</v>
       </c>
       <c r="E150" t="s">
+        <v>504</v>
+      </c>
+      <c r="I150" t="s">
         <v>470</v>
       </c>
-      <c r="I150" t="s">
-        <v>436</v>
-      </c>
       <c r="J150" t="s">
-        <v>667</v>
+        <v>716</v>
       </c>
       <c r="K150">
         <v>1</v>
@@ -5498,19 +5645,19 @@
         <v>161</v>
       </c>
       <c r="B151" t="s">
-        <v>358</v>
+        <v>375</v>
       </c>
       <c r="C151" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="E151" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="I151" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="J151" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="K151">
         <v>1</v>
@@ -5524,19 +5671,19 @@
         <v>162</v>
       </c>
       <c r="B152" t="s">
-        <v>359</v>
+        <v>376</v>
       </c>
       <c r="C152" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="E152" t="s">
-        <v>589</v>
+        <v>623</v>
       </c>
       <c r="I152" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="J152" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="K152">
         <v>1</v>
@@ -5550,19 +5697,19 @@
         <v>163</v>
       </c>
       <c r="B153" t="s">
-        <v>360</v>
+        <v>377</v>
       </c>
       <c r="C153" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="E153" t="s">
-        <v>590</v>
+        <v>624</v>
       </c>
       <c r="I153" t="s">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="J153" t="s">
-        <v>670</v>
+        <v>719</v>
       </c>
       <c r="K153">
         <v>1</v>
@@ -5576,19 +5723,19 @@
         <v>164</v>
       </c>
       <c r="B154" t="s">
-        <v>361</v>
+        <v>378</v>
       </c>
       <c r="C154" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="E154" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="I154" t="s">
-        <v>438</v>
+        <v>472</v>
       </c>
       <c r="J154" t="s">
-        <v>669</v>
+        <v>718</v>
       </c>
       <c r="K154">
         <v>1</v>
@@ -5602,19 +5749,19 @@
         <v>165</v>
       </c>
       <c r="B155" t="s">
-        <v>362</v>
+        <v>379</v>
       </c>
       <c r="C155" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E155" t="s">
-        <v>592</v>
+        <v>626</v>
       </c>
       <c r="I155" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J155" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="K155">
         <v>1</v>
@@ -5628,19 +5775,19 @@
         <v>166</v>
       </c>
       <c r="B156" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="C156" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E156" t="s">
-        <v>593</v>
+        <v>627</v>
       </c>
       <c r="I156" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J156" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="K156">
         <v>1</v>
@@ -5654,19 +5801,19 @@
         <v>167</v>
       </c>
       <c r="B157" t="s">
-        <v>364</v>
+        <v>381</v>
       </c>
       <c r="C157" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E157" t="s">
-        <v>591</v>
+        <v>625</v>
       </c>
       <c r="I157" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J157" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="K157">
         <v>1</v>
@@ -5680,19 +5827,19 @@
         <v>168</v>
       </c>
       <c r="B158" t="s">
-        <v>365</v>
+        <v>382</v>
       </c>
       <c r="C158" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E158" t="s">
-        <v>594</v>
+        <v>628</v>
       </c>
       <c r="I158" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J158" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="K158">
         <v>1</v>
@@ -5706,19 +5853,19 @@
         <v>169</v>
       </c>
       <c r="B159" t="s">
-        <v>366</v>
+        <v>383</v>
       </c>
       <c r="C159" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E159" t="s">
-        <v>595</v>
+        <v>629</v>
       </c>
       <c r="I159" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J159" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="K159">
         <v>1</v>
@@ -5732,19 +5879,19 @@
         <v>170</v>
       </c>
       <c r="B160" t="s">
-        <v>367</v>
+        <v>384</v>
       </c>
       <c r="C160" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E160" t="s">
-        <v>596</v>
+        <v>630</v>
       </c>
       <c r="I160" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J160" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="K160">
         <v>1</v>
@@ -5758,19 +5905,19 @@
         <v>171</v>
       </c>
       <c r="B161" t="s">
-        <v>368</v>
+        <v>385</v>
       </c>
       <c r="C161" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E161" t="s">
-        <v>597</v>
+        <v>631</v>
       </c>
       <c r="I161" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J161" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="K161">
         <v>1</v>
@@ -5784,19 +5931,19 @@
         <v>172</v>
       </c>
       <c r="B162" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="C162" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="E162" t="s">
-        <v>598</v>
+        <v>632</v>
       </c>
       <c r="I162" t="s">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="J162" t="s">
-        <v>672</v>
+        <v>721</v>
       </c>
       <c r="K162">
         <v>1</v>
@@ -5810,19 +5957,19 @@
         <v>173</v>
       </c>
       <c r="B163" t="s">
-        <v>370</v>
+        <v>387</v>
       </c>
       <c r="C163" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="E163" t="s">
-        <v>599</v>
+        <v>633</v>
       </c>
       <c r="I163" t="s">
-        <v>428</v>
+        <v>462</v>
       </c>
       <c r="J163" t="s">
-        <v>659</v>
+        <v>708</v>
       </c>
       <c r="K163">
         <v>1</v>
@@ -5836,19 +5983,19 @@
         <v>174</v>
       </c>
       <c r="B164" t="s">
-        <v>371</v>
+        <v>388</v>
       </c>
       <c r="C164" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E164" t="s">
-        <v>600</v>
+        <v>634</v>
       </c>
       <c r="I164" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="J164" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="K164">
         <v>1</v>
@@ -5862,19 +6009,19 @@
         <v>175</v>
       </c>
       <c r="B165" t="s">
-        <v>372</v>
+        <v>389</v>
       </c>
       <c r="C165" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E165" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="I165" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="J165" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="K165">
         <v>1</v>
@@ -5888,19 +6035,19 @@
         <v>176</v>
       </c>
       <c r="B166" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="C166" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E166" t="s">
-        <v>602</v>
+        <v>636</v>
       </c>
       <c r="I166" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="J166" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="K166">
         <v>1</v>
@@ -5914,19 +6061,19 @@
         <v>177</v>
       </c>
       <c r="B167" t="s">
-        <v>374</v>
+        <v>391</v>
       </c>
       <c r="C167" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E167" t="s">
-        <v>603</v>
+        <v>637</v>
       </c>
       <c r="I167" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="J167" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="K167">
         <v>1</v>
@@ -5940,19 +6087,19 @@
         <v>178</v>
       </c>
       <c r="B168" t="s">
-        <v>375</v>
+        <v>392</v>
       </c>
       <c r="C168" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E168" t="s">
-        <v>604</v>
+        <v>638</v>
       </c>
       <c r="I168" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="J168" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="K168">
         <v>1</v>
@@ -5966,19 +6113,19 @@
         <v>179</v>
       </c>
       <c r="B169" t="s">
-        <v>376</v>
+        <v>393</v>
       </c>
       <c r="C169" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="E169" t="s">
-        <v>601</v>
+        <v>635</v>
       </c>
       <c r="I169" t="s">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="J169" t="s">
-        <v>673</v>
+        <v>722</v>
       </c>
       <c r="K169">
         <v>1</v>
@@ -5992,19 +6139,19 @@
         <v>180</v>
       </c>
       <c r="B170" t="s">
-        <v>377</v>
+        <v>394</v>
       </c>
       <c r="C170" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="E170" t="s">
-        <v>605</v>
+        <v>639</v>
       </c>
       <c r="I170" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="J170" t="s">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="K170">
         <v>1</v>
@@ -6018,19 +6165,19 @@
         <v>181</v>
       </c>
       <c r="B171" t="s">
-        <v>378</v>
+        <v>395</v>
       </c>
       <c r="C171" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="E171" t="s">
-        <v>606</v>
+        <v>640</v>
       </c>
       <c r="I171" t="s">
-        <v>442</v>
+        <v>476</v>
       </c>
       <c r="J171" t="s">
-        <v>674</v>
+        <v>723</v>
       </c>
       <c r="K171">
         <v>1</v>
@@ -6044,19 +6191,19 @@
         <v>182</v>
       </c>
       <c r="B172" t="s">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="C172" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E172" t="s">
-        <v>607</v>
+        <v>641</v>
       </c>
       <c r="I172" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J172" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="K172">
         <v>1</v>
@@ -6070,19 +6217,19 @@
         <v>183</v>
       </c>
       <c r="B173" t="s">
-        <v>380</v>
+        <v>397</v>
       </c>
       <c r="C173" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="E173" t="s">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="I173" t="s">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="J173" t="s">
-        <v>666</v>
+        <v>715</v>
       </c>
       <c r="K173">
         <v>1</v>
@@ -6096,19 +6243,19 @@
         <v>184</v>
       </c>
       <c r="B174" t="s">
-        <v>381</v>
+        <v>398</v>
       </c>
       <c r="C174" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E174" t="s">
-        <v>608</v>
+        <v>642</v>
       </c>
       <c r="I174" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="J174" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="K174">
         <v>1</v>
@@ -6122,19 +6269,19 @@
         <v>185</v>
       </c>
       <c r="B175" t="s">
-        <v>382</v>
+        <v>399</v>
       </c>
       <c r="C175" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E175" t="s">
-        <v>609</v>
+        <v>643</v>
       </c>
       <c r="I175" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="J175" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="K175">
         <v>1</v>
@@ -6148,19 +6295,19 @@
         <v>186</v>
       </c>
       <c r="B176" t="s">
-        <v>383</v>
+        <v>400</v>
       </c>
       <c r="C176" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E176" t="s">
-        <v>610</v>
+        <v>644</v>
       </c>
       <c r="I176" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="J176" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="K176">
         <v>1</v>
@@ -6174,19 +6321,19 @@
         <v>187</v>
       </c>
       <c r="B177" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
       <c r="C177" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E177" t="s">
-        <v>611</v>
+        <v>645</v>
       </c>
       <c r="I177" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="J177" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="K177">
         <v>1</v>
@@ -6200,19 +6347,19 @@
         <v>188</v>
       </c>
       <c r="B178" t="s">
-        <v>385</v>
+        <v>402</v>
       </c>
       <c r="C178" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E178" t="s">
-        <v>612</v>
+        <v>646</v>
       </c>
       <c r="I178" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="J178" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="K178">
         <v>1</v>
@@ -6226,19 +6373,19 @@
         <v>189</v>
       </c>
       <c r="B179" t="s">
-        <v>386</v>
+        <v>403</v>
       </c>
       <c r="C179" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E179" t="s">
-        <v>613</v>
+        <v>647</v>
       </c>
       <c r="I179" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="J179" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="K179">
         <v>1</v>
@@ -6252,19 +6399,19 @@
         <v>190</v>
       </c>
       <c r="B180" t="s">
-        <v>387</v>
+        <v>404</v>
       </c>
       <c r="C180" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E180" t="s">
-        <v>614</v>
+        <v>648</v>
       </c>
       <c r="I180" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="J180" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="K180">
         <v>1</v>
@@ -6278,19 +6425,19 @@
         <v>191</v>
       </c>
       <c r="B181" t="s">
-        <v>388</v>
+        <v>405</v>
       </c>
       <c r="C181" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="E181" t="s">
-        <v>615</v>
+        <v>649</v>
       </c>
       <c r="I181" t="s">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="J181" t="s">
-        <v>675</v>
+        <v>724</v>
       </c>
       <c r="K181">
         <v>1</v>
@@ -6304,19 +6451,19 @@
         <v>192</v>
       </c>
       <c r="B182" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="C182" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="E182" t="s">
-        <v>616</v>
+        <v>650</v>
       </c>
       <c r="I182" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="J182" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="K182">
         <v>1</v>
@@ -6330,19 +6477,19 @@
         <v>193</v>
       </c>
       <c r="B183" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="C183" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="E183" t="s">
-        <v>617</v>
+        <v>651</v>
       </c>
       <c r="I183" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="J183" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="K183">
         <v>1</v>
@@ -6356,19 +6503,19 @@
         <v>194</v>
       </c>
       <c r="B184" t="s">
-        <v>391</v>
+        <v>408</v>
       </c>
       <c r="C184" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="E184" t="s">
-        <v>618</v>
+        <v>652</v>
       </c>
       <c r="I184" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="J184" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="K184">
         <v>1</v>
@@ -6382,19 +6529,19 @@
         <v>195</v>
       </c>
       <c r="B185" t="s">
-        <v>392</v>
+        <v>409</v>
       </c>
       <c r="C185" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="E185" t="s">
-        <v>619</v>
+        <v>653</v>
       </c>
       <c r="I185" t="s">
-        <v>444</v>
+        <v>478</v>
       </c>
       <c r="J185" t="s">
-        <v>676</v>
+        <v>725</v>
       </c>
       <c r="K185">
         <v>1</v>
@@ -6408,19 +6555,19 @@
         <v>196</v>
       </c>
       <c r="B186" t="s">
-        <v>393</v>
+        <v>410</v>
       </c>
       <c r="C186" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="E186" t="s">
-        <v>620</v>
+        <v>654</v>
       </c>
       <c r="I186" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="J186" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="K186">
         <v>1</v>
@@ -6434,19 +6581,19 @@
         <v>197</v>
       </c>
       <c r="B187" t="s">
-        <v>394</v>
+        <v>411</v>
       </c>
       <c r="C187" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="E187" t="s">
-        <v>621</v>
+        <v>655</v>
       </c>
       <c r="I187" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="J187" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="K187">
         <v>1</v>
@@ -6460,19 +6607,19 @@
         <v>198</v>
       </c>
       <c r="B188" t="s">
-        <v>395</v>
+        <v>412</v>
       </c>
       <c r="C188" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="E188" t="s">
-        <v>622</v>
+        <v>656</v>
       </c>
       <c r="I188" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="J188" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="K188">
         <v>1</v>
@@ -6486,19 +6633,19 @@
         <v>199</v>
       </c>
       <c r="B189" t="s">
-        <v>396</v>
+        <v>413</v>
       </c>
       <c r="C189" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="E189" t="s">
-        <v>623</v>
+        <v>657</v>
       </c>
       <c r="I189" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="J189" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="K189">
         <v>1</v>
@@ -6512,19 +6659,19 @@
         <v>200</v>
       </c>
       <c r="B190" t="s">
-        <v>397</v>
+        <v>414</v>
       </c>
       <c r="C190" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="E190" t="s">
-        <v>624</v>
+        <v>658</v>
       </c>
       <c r="I190" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="J190" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="K190">
         <v>1</v>
@@ -6538,19 +6685,19 @@
         <v>201</v>
       </c>
       <c r="B191" t="s">
-        <v>398</v>
+        <v>415</v>
       </c>
       <c r="C191" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="E191" t="s">
-        <v>625</v>
+        <v>659</v>
       </c>
       <c r="I191" t="s">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="J191" t="s">
-        <v>677</v>
+        <v>726</v>
       </c>
       <c r="K191">
         <v>1</v>
@@ -6564,19 +6711,19 @@
         <v>202</v>
       </c>
       <c r="B192" t="s">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="C192" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E192" t="s">
-        <v>626</v>
+        <v>660</v>
       </c>
       <c r="I192" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J192" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="K192">
         <v>1</v>
@@ -6590,19 +6737,19 @@
         <v>203</v>
       </c>
       <c r="B193" t="s">
-        <v>400</v>
+        <v>417</v>
       </c>
       <c r="C193" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E193" t="s">
-        <v>627</v>
+        <v>661</v>
       </c>
       <c r="I193" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J193" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="K193">
         <v>1</v>
@@ -6616,19 +6763,19 @@
         <v>204</v>
       </c>
       <c r="B194" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
       <c r="C194" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E194" t="s">
-        <v>628</v>
+        <v>662</v>
       </c>
       <c r="I194" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J194" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="K194">
         <v>1</v>
@@ -6642,19 +6789,19 @@
         <v>205</v>
       </c>
       <c r="B195" t="s">
-        <v>402</v>
+        <v>419</v>
       </c>
       <c r="C195" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E195" t="s">
-        <v>629</v>
+        <v>663</v>
       </c>
       <c r="I195" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J195" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="K195">
         <v>1</v>
@@ -6668,19 +6815,19 @@
         <v>206</v>
       </c>
       <c r="B196" t="s">
-        <v>403</v>
+        <v>420</v>
       </c>
       <c r="C196" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E196" t="s">
-        <v>630</v>
+        <v>664</v>
       </c>
       <c r="I196" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J196" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="K196">
         <v>1</v>
@@ -6694,19 +6841,19 @@
         <v>207</v>
       </c>
       <c r="B197" t="s">
-        <v>404</v>
+        <v>421</v>
       </c>
       <c r="C197" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E197" t="s">
-        <v>631</v>
+        <v>665</v>
       </c>
       <c r="I197" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J197" t="s">
-        <v>671</v>
+        <v>720</v>
       </c>
       <c r="K197">
         <v>1</v>
@@ -6720,24 +6867,466 @@
         <v>208</v>
       </c>
       <c r="B198" t="s">
-        <v>405</v>
+        <v>422</v>
       </c>
       <c r="C198" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="E198" t="s">
-        <v>632</v>
+        <v>666</v>
       </c>
       <c r="I198" t="s">
-        <v>440</v>
+        <v>474</v>
       </c>
       <c r="J198" t="s">
+        <v>720</v>
+      </c>
+      <c r="K198">
+        <v>1</v>
+      </c>
+      <c r="L198">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B199" t="s">
+        <v>423</v>
+      </c>
+      <c r="C199" t="s">
+        <v>479</v>
+      </c>
+      <c r="E199" t="s">
+        <v>667</v>
+      </c>
+      <c r="I199" t="s">
+        <v>479</v>
+      </c>
+      <c r="J199" t="s">
+        <v>726</v>
+      </c>
+      <c r="K199">
+        <v>1</v>
+      </c>
+      <c r="L199">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B200" t="s">
+        <v>424</v>
+      </c>
+      <c r="C200" t="s">
+        <v>479</v>
+      </c>
+      <c r="E200" t="s">
+        <v>668</v>
+      </c>
+      <c r="I200" t="s">
+        <v>479</v>
+      </c>
+      <c r="J200" t="s">
+        <v>726</v>
+      </c>
+      <c r="K200">
+        <v>1</v>
+      </c>
+      <c r="L200">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B201" t="s">
+        <v>425</v>
+      </c>
+      <c r="C201" t="s">
+        <v>479</v>
+      </c>
+      <c r="E201" t="s">
+        <v>669</v>
+      </c>
+      <c r="I201" t="s">
+        <v>479</v>
+      </c>
+      <c r="J201" t="s">
+        <v>726</v>
+      </c>
+      <c r="K201">
+        <v>1</v>
+      </c>
+      <c r="L201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B202" t="s">
+        <v>426</v>
+      </c>
+      <c r="C202" t="s">
+        <v>474</v>
+      </c>
+      <c r="E202" t="s">
+        <v>670</v>
+      </c>
+      <c r="I202" t="s">
+        <v>474</v>
+      </c>
+      <c r="J202" t="s">
+        <v>720</v>
+      </c>
+      <c r="K202">
+        <v>1</v>
+      </c>
+      <c r="L202">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B203" t="s">
+        <v>427</v>
+      </c>
+      <c r="C203" t="s">
+        <v>451</v>
+      </c>
+      <c r="E203" t="s">
         <v>671</v>
       </c>
-      <c r="K198">
-        <v>1</v>
-      </c>
-      <c r="L198">
+      <c r="I203" t="s">
+        <v>451</v>
+      </c>
+      <c r="J203" t="s">
+        <v>721</v>
+      </c>
+      <c r="K203">
+        <v>1</v>
+      </c>
+      <c r="L203">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B204" t="s">
+        <v>428</v>
+      </c>
+      <c r="C204" t="s">
+        <v>451</v>
+      </c>
+      <c r="E204" t="s">
+        <v>672</v>
+      </c>
+      <c r="I204" t="s">
+        <v>451</v>
+      </c>
+      <c r="J204" t="s">
+        <v>721</v>
+      </c>
+      <c r="K204">
+        <v>1</v>
+      </c>
+      <c r="L204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B205" t="s">
+        <v>429</v>
+      </c>
+      <c r="C205" t="s">
+        <v>451</v>
+      </c>
+      <c r="E205" t="s">
+        <v>673</v>
+      </c>
+      <c r="I205" t="s">
+        <v>451</v>
+      </c>
+      <c r="J205" t="s">
+        <v>721</v>
+      </c>
+      <c r="K205">
+        <v>1</v>
+      </c>
+      <c r="L205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B206" t="s">
+        <v>430</v>
+      </c>
+      <c r="C206" t="s">
+        <v>462</v>
+      </c>
+      <c r="E206" t="s">
+        <v>674</v>
+      </c>
+      <c r="I206" t="s">
+        <v>462</v>
+      </c>
+      <c r="J206" t="s">
+        <v>708</v>
+      </c>
+      <c r="K206">
+        <v>1</v>
+      </c>
+      <c r="L206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B207" t="s">
+        <v>431</v>
+      </c>
+      <c r="C207" t="s">
+        <v>462</v>
+      </c>
+      <c r="E207" t="s">
+        <v>674</v>
+      </c>
+      <c r="I207" t="s">
+        <v>462</v>
+      </c>
+      <c r="J207" t="s">
+        <v>708</v>
+      </c>
+      <c r="K207">
+        <v>1</v>
+      </c>
+      <c r="L207">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B208" t="s">
+        <v>432</v>
+      </c>
+      <c r="C208" t="s">
+        <v>462</v>
+      </c>
+      <c r="E208" t="s">
+        <v>675</v>
+      </c>
+      <c r="I208" t="s">
+        <v>462</v>
+      </c>
+      <c r="J208" t="s">
+        <v>708</v>
+      </c>
+      <c r="K208">
+        <v>1</v>
+      </c>
+      <c r="L208">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B209" t="s">
+        <v>433</v>
+      </c>
+      <c r="C209" t="s">
+        <v>463</v>
+      </c>
+      <c r="E209" t="s">
+        <v>676</v>
+      </c>
+      <c r="I209" t="s">
+        <v>463</v>
+      </c>
+      <c r="J209" t="s">
+        <v>709</v>
+      </c>
+      <c r="K209">
+        <v>1</v>
+      </c>
+      <c r="L209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B210" t="s">
+        <v>434</v>
+      </c>
+      <c r="C210" t="s">
+        <v>463</v>
+      </c>
+      <c r="E210" t="s">
+        <v>677</v>
+      </c>
+      <c r="I210" t="s">
+        <v>463</v>
+      </c>
+      <c r="J210" t="s">
+        <v>709</v>
+      </c>
+      <c r="K210">
+        <v>1</v>
+      </c>
+      <c r="L210">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B211" t="s">
+        <v>435</v>
+      </c>
+      <c r="C211" t="s">
+        <v>463</v>
+      </c>
+      <c r="E211" t="s">
+        <v>678</v>
+      </c>
+      <c r="I211" t="s">
+        <v>463</v>
+      </c>
+      <c r="J211" t="s">
+        <v>709</v>
+      </c>
+      <c r="K211">
+        <v>1</v>
+      </c>
+      <c r="L211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B212" t="s">
+        <v>436</v>
+      </c>
+      <c r="C212" t="s">
+        <v>463</v>
+      </c>
+      <c r="E212" t="s">
+        <v>676</v>
+      </c>
+      <c r="I212" t="s">
+        <v>463</v>
+      </c>
+      <c r="J212" t="s">
+        <v>709</v>
+      </c>
+      <c r="K212">
+        <v>1</v>
+      </c>
+      <c r="L212">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="B213" t="s">
+        <v>437</v>
+      </c>
+      <c r="C213" t="s">
+        <v>463</v>
+      </c>
+      <c r="E213" t="s">
+        <v>679</v>
+      </c>
+      <c r="I213" t="s">
+        <v>463</v>
+      </c>
+      <c r="J213" t="s">
+        <v>709</v>
+      </c>
+      <c r="K213">
+        <v>1</v>
+      </c>
+      <c r="L213">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B214" t="s">
+        <v>438</v>
+      </c>
+      <c r="C214" t="s">
+        <v>463</v>
+      </c>
+      <c r="E214" t="s">
+        <v>680</v>
+      </c>
+      <c r="I214" t="s">
+        <v>463</v>
+      </c>
+      <c r="J214" t="s">
+        <v>709</v>
+      </c>
+      <c r="K214">
+        <v>1</v>
+      </c>
+      <c r="L214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B215" t="s">
+        <v>439</v>
+      </c>
+      <c r="C215" t="s">
+        <v>475</v>
+      </c>
+      <c r="E215" t="s">
+        <v>681</v>
+      </c>
+      <c r="I215" t="s">
+        <v>475</v>
+      </c>
+      <c r="J215" t="s">
+        <v>722</v>
+      </c>
+      <c r="K215">
+        <v>1</v>
+      </c>
+      <c r="L215">
         <v>1</v>
       </c>
     </row>
@@ -6940,6 +7529,23 @@
     <hyperlink ref="A196" r:id="rId195"/>
     <hyperlink ref="A197" r:id="rId196"/>
     <hyperlink ref="A198" r:id="rId197"/>
+    <hyperlink ref="A199" r:id="rId198"/>
+    <hyperlink ref="A200" r:id="rId199"/>
+    <hyperlink ref="A201" r:id="rId200"/>
+    <hyperlink ref="A202" r:id="rId201"/>
+    <hyperlink ref="A203" r:id="rId202"/>
+    <hyperlink ref="A204" r:id="rId203"/>
+    <hyperlink ref="A205" r:id="rId204"/>
+    <hyperlink ref="A206" r:id="rId205"/>
+    <hyperlink ref="A207" r:id="rId206"/>
+    <hyperlink ref="A208" r:id="rId207"/>
+    <hyperlink ref="A209" r:id="rId208"/>
+    <hyperlink ref="A210" r:id="rId209"/>
+    <hyperlink ref="A211" r:id="rId210"/>
+    <hyperlink ref="A212" r:id="rId211"/>
+    <hyperlink ref="A213" r:id="rId212"/>
+    <hyperlink ref="A214" r:id="rId213"/>
+    <hyperlink ref="A215" r:id="rId214"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
